--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q790"/>
+  <dimension ref="A1:R791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>1</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>1</v>
       </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12925,6 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12978,6 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13031,6 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13084,6 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13137,6 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13190,6 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13243,6 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -13296,6 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -13349,6 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -13402,6 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -13455,6 +14189,9 @@
       <c r="Q245" t="n">
         <v>1</v>
       </c>
+      <c r="R245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -13508,6 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -13561,6 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -13614,6 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -13667,6 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -13720,6 +14469,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13773,6 +14525,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13826,6 +14581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13879,6 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13932,6 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13985,6 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14038,6 +14805,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14091,6 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14144,6 +14917,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14197,6 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14250,6 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14303,6 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14356,6 +15141,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -14409,6 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -14462,6 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -14515,6 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -14568,6 +15365,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -14621,6 +15421,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -14674,6 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -14727,6 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -14780,6 +15589,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14833,6 +15645,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14886,6 +15701,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14939,6 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14992,6 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15045,6 +15869,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15098,6 +15925,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15151,6 +15981,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -15204,6 +16037,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -15257,6 +16093,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -15310,6 +16149,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -15363,6 +16205,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -15416,6 +16261,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -15469,6 +16317,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -15522,6 +16373,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -15575,6 +16429,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -15628,6 +16485,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -15681,6 +16541,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -15734,6 +16597,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -15787,6 +16653,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -15840,6 +16709,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15893,6 +16765,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15946,6 +16821,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15999,6 +16877,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16052,6 +16933,9 @@
       <c r="Q294" t="n">
         <v>1</v>
       </c>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16105,6 +16989,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -16158,6 +17045,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -16211,6 +17101,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -16264,6 +17157,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -16317,6 +17213,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -16370,6 +17269,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -16423,6 +17325,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -16476,6 +17381,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -16529,6 +17437,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -16582,6 +17493,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -16635,6 +17549,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -16688,6 +17605,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -16741,6 +17661,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -16794,6 +17717,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -16847,6 +17773,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -16900,6 +17829,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16953,6 +17885,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17006,6 +17941,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17059,6 +17997,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -17112,6 +18053,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -17165,6 +18109,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -17218,6 +18165,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -17271,6 +18221,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -17324,6 +18277,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -17377,6 +18333,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -17430,6 +18389,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -17483,6 +18445,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -17536,6 +18501,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -17589,6 +18557,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -17642,6 +18613,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -17695,6 +18669,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -17748,6 +18725,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -17801,6 +18781,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -17854,6 +18837,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -17907,6 +18893,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -17960,6 +18949,9 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -18013,6 +19005,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -18066,6 +19061,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -18119,6 +19117,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -18172,6 +19173,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -18225,6 +19229,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -18278,6 +19285,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -18331,6 +19341,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -18384,6 +19397,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -18437,6 +19453,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -18490,6 +19509,9 @@
       <c r="Q340" t="n">
         <v>1</v>
       </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -18543,6 +19565,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -18596,6 +19621,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -18649,6 +19677,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -18702,6 +19733,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -18755,6 +19789,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -18808,6 +19845,9 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -18861,6 +19901,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -18914,6 +19957,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -18967,6 +20013,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -19020,6 +20069,9 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -19073,6 +20125,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -19126,6 +20181,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -19179,6 +20237,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -19232,6 +20293,9 @@
       <c r="Q354" t="n">
         <v>1</v>
       </c>
+      <c r="R354" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -19285,6 +20349,9 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -19338,6 +20405,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -19391,6 +20461,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -19444,6 +20517,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -19497,6 +20573,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -19550,6 +20629,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -19603,6 +20685,9 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -19656,6 +20741,9 @@
       <c r="Q362" t="n">
         <v>0</v>
       </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -19709,6 +20797,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -19762,6 +20853,9 @@
       <c r="Q364" t="n">
         <v>0</v>
       </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -19815,6 +20909,9 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -19868,6 +20965,9 @@
       <c r="Q366" t="n">
         <v>0</v>
       </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -19921,6 +21021,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -19974,6 +21077,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -20027,6 +21133,9 @@
       <c r="Q369" t="n">
         <v>0</v>
       </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -20080,6 +21189,9 @@
       <c r="Q370" t="n">
         <v>1</v>
       </c>
+      <c r="R370" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -20133,6 +21245,9 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -20186,6 +21301,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -20239,6 +21357,9 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -20292,6 +21413,9 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -20345,6 +21469,9 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -20398,6 +21525,9 @@
       <c r="Q376" t="n">
         <v>0</v>
       </c>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -20451,6 +21581,9 @@
       <c r="Q377" t="n">
         <v>0</v>
       </c>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -20504,6 +21637,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -20557,6 +21693,9 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -20610,6 +21749,9 @@
       <c r="Q380" t="n">
         <v>0</v>
       </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -20663,6 +21805,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -20716,6 +21861,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -20769,6 +21917,9 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -20822,6 +21973,9 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -20875,6 +22029,9 @@
       <c r="Q385" t="n">
         <v>0</v>
       </c>
+      <c r="R385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -20928,6 +22085,9 @@
       <c r="Q386" t="n">
         <v>0</v>
       </c>
+      <c r="R386" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -20981,6 +22141,9 @@
       <c r="Q387" t="n">
         <v>0</v>
       </c>
+      <c r="R387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -21034,6 +22197,9 @@
       <c r="Q388" t="n">
         <v>0</v>
       </c>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -21087,6 +22253,9 @@
       <c r="Q389" t="n">
         <v>1</v>
       </c>
+      <c r="R389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -21140,6 +22309,9 @@
       <c r="Q390" t="n">
         <v>0</v>
       </c>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -21193,6 +22365,9 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
+      <c r="R391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -21246,6 +22421,9 @@
       <c r="Q392" t="n">
         <v>0</v>
       </c>
+      <c r="R392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -21299,6 +22477,9 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -21352,6 +22533,9 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -21405,6 +22589,9 @@
       <c r="Q395" t="n">
         <v>0</v>
       </c>
+      <c r="R395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -21458,6 +22645,9 @@
       <c r="Q396" t="n">
         <v>0</v>
       </c>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -21511,6 +22701,9 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -21564,6 +22757,9 @@
       <c r="Q398" t="n">
         <v>2</v>
       </c>
+      <c r="R398" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -21617,6 +22813,9 @@
       <c r="Q399" t="n">
         <v>0</v>
       </c>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -21670,6 +22869,9 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -21723,6 +22925,9 @@
       <c r="Q401" t="n">
         <v>0</v>
       </c>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -21776,6 +22981,9 @@
       <c r="Q402" t="n">
         <v>0</v>
       </c>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -21829,6 +23037,9 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -21882,6 +23093,9 @@
       <c r="Q404" t="n">
         <v>0</v>
       </c>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -21935,6 +23149,9 @@
       <c r="Q405" t="n">
         <v>0</v>
       </c>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -21988,6 +23205,9 @@
       <c r="Q406" t="n">
         <v>0</v>
       </c>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -22041,6 +23261,9 @@
       <c r="Q407" t="n">
         <v>0</v>
       </c>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -22094,6 +23317,9 @@
       <c r="Q408" t="n">
         <v>0</v>
       </c>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -22147,6 +23373,9 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -22200,6 +23429,9 @@
       <c r="Q410" t="n">
         <v>0</v>
       </c>
+      <c r="R410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -22253,6 +23485,9 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -22306,6 +23541,9 @@
       <c r="Q412" t="n">
         <v>0</v>
       </c>
+      <c r="R412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -22359,6 +23597,9 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -22412,6 +23653,9 @@
       <c r="Q414" t="n">
         <v>0</v>
       </c>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -22465,6 +23709,9 @@
       <c r="Q415" t="n">
         <v>1</v>
       </c>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -22518,6 +23765,9 @@
       <c r="Q416" t="n">
         <v>0</v>
       </c>
+      <c r="R416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -22571,6 +23821,9 @@
       <c r="Q417" t="n">
         <v>0</v>
       </c>
+      <c r="R417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -22624,6 +23877,9 @@
       <c r="Q418" t="n">
         <v>0</v>
       </c>
+      <c r="R418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -22677,6 +23933,9 @@
       <c r="Q419" t="n">
         <v>0</v>
       </c>
+      <c r="R419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -22730,6 +23989,9 @@
       <c r="Q420" t="n">
         <v>0</v>
       </c>
+      <c r="R420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -22783,6 +24045,9 @@
       <c r="Q421" t="n">
         <v>0</v>
       </c>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -22836,6 +24101,9 @@
       <c r="Q422" t="n">
         <v>0</v>
       </c>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -22889,6 +24157,9 @@
       <c r="Q423" t="n">
         <v>0</v>
       </c>
+      <c r="R423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -22942,6 +24213,9 @@
       <c r="Q424" t="n">
         <v>0</v>
       </c>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -22995,6 +24269,9 @@
       <c r="Q425" t="n">
         <v>0</v>
       </c>
+      <c r="R425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -23048,6 +24325,9 @@
       <c r="Q426" t="n">
         <v>0</v>
       </c>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -23101,6 +24381,9 @@
       <c r="Q427" t="n">
         <v>0</v>
       </c>
+      <c r="R427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -23154,6 +24437,9 @@
       <c r="Q428" t="n">
         <v>0</v>
       </c>
+      <c r="R428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -23207,6 +24493,9 @@
       <c r="Q429" t="n">
         <v>0</v>
       </c>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -23260,6 +24549,9 @@
       <c r="Q430" t="n">
         <v>0</v>
       </c>
+      <c r="R430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -23313,6 +24605,9 @@
       <c r="Q431" t="n">
         <v>0</v>
       </c>
+      <c r="R431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -23366,6 +24661,9 @@
       <c r="Q432" t="n">
         <v>0</v>
       </c>
+      <c r="R432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -23419,6 +24717,9 @@
       <c r="Q433" t="n">
         <v>0</v>
       </c>
+      <c r="R433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -23472,6 +24773,9 @@
       <c r="Q434" t="n">
         <v>0</v>
       </c>
+      <c r="R434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -23525,6 +24829,9 @@
       <c r="Q435" t="n">
         <v>0</v>
       </c>
+      <c r="R435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -23578,6 +24885,9 @@
       <c r="Q436" t="n">
         <v>0</v>
       </c>
+      <c r="R436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -23631,6 +24941,9 @@
       <c r="Q437" t="n">
         <v>0</v>
       </c>
+      <c r="R437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -23684,6 +24997,9 @@
       <c r="Q438" t="n">
         <v>0</v>
       </c>
+      <c r="R438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -23737,6 +25053,9 @@
       <c r="Q439" t="n">
         <v>0</v>
       </c>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -23790,6 +25109,9 @@
       <c r="Q440" t="n">
         <v>0</v>
       </c>
+      <c r="R440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -23843,6 +25165,9 @@
       <c r="Q441" t="n">
         <v>0</v>
       </c>
+      <c r="R441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -23896,6 +25221,9 @@
       <c r="Q442" t="n">
         <v>0</v>
       </c>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -23949,6 +25277,9 @@
       <c r="Q443" t="n">
         <v>0</v>
       </c>
+      <c r="R443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -24002,6 +25333,9 @@
       <c r="Q444" t="n">
         <v>0</v>
       </c>
+      <c r="R444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -24055,6 +25389,9 @@
       <c r="Q445" t="n">
         <v>0</v>
       </c>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -24108,6 +25445,9 @@
       <c r="Q446" t="n">
         <v>0</v>
       </c>
+      <c r="R446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -24161,6 +25501,9 @@
       <c r="Q447" t="n">
         <v>0</v>
       </c>
+      <c r="R447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -24214,6 +25557,9 @@
       <c r="Q448" t="n">
         <v>0</v>
       </c>
+      <c r="R448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -24267,6 +25613,9 @@
       <c r="Q449" t="n">
         <v>0</v>
       </c>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -24320,6 +25669,9 @@
       <c r="Q450" t="n">
         <v>0</v>
       </c>
+      <c r="R450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -24373,6 +25725,9 @@
       <c r="Q451" t="n">
         <v>0</v>
       </c>
+      <c r="R451" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -24426,6 +25781,9 @@
       <c r="Q452" t="n">
         <v>0</v>
       </c>
+      <c r="R452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -24479,6 +25837,9 @@
       <c r="Q453" t="n">
         <v>0</v>
       </c>
+      <c r="R453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -24532,6 +25893,9 @@
       <c r="Q454" t="n">
         <v>0</v>
       </c>
+      <c r="R454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -24585,6 +25949,9 @@
       <c r="Q455" t="n">
         <v>0</v>
       </c>
+      <c r="R455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -24638,6 +26005,9 @@
       <c r="Q456" t="n">
         <v>0</v>
       </c>
+      <c r="R456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -24691,6 +26061,9 @@
       <c r="Q457" t="n">
         <v>0</v>
       </c>
+      <c r="R457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -24744,6 +26117,9 @@
       <c r="Q458" t="n">
         <v>0</v>
       </c>
+      <c r="R458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -24797,6 +26173,9 @@
       <c r="Q459" t="n">
         <v>0</v>
       </c>
+      <c r="R459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -24850,6 +26229,9 @@
       <c r="Q460" t="n">
         <v>0</v>
       </c>
+      <c r="R460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -24903,6 +26285,9 @@
       <c r="Q461" t="n">
         <v>0</v>
       </c>
+      <c r="R461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -24956,6 +26341,9 @@
       <c r="Q462" t="n">
         <v>0</v>
       </c>
+      <c r="R462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -25009,6 +26397,9 @@
       <c r="Q463" t="n">
         <v>0</v>
       </c>
+      <c r="R463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -25062,6 +26453,9 @@
       <c r="Q464" t="n">
         <v>0</v>
       </c>
+      <c r="R464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -25115,6 +26509,9 @@
       <c r="Q465" t="n">
         <v>0</v>
       </c>
+      <c r="R465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -25168,6 +26565,9 @@
       <c r="Q466" t="n">
         <v>0</v>
       </c>
+      <c r="R466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -25221,6 +26621,9 @@
       <c r="Q467" t="n">
         <v>0</v>
       </c>
+      <c r="R467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -25274,6 +26677,9 @@
       <c r="Q468" t="n">
         <v>0</v>
       </c>
+      <c r="R468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -25327,6 +26733,9 @@
       <c r="Q469" t="n">
         <v>0</v>
       </c>
+      <c r="R469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -25380,6 +26789,9 @@
       <c r="Q470" t="n">
         <v>0</v>
       </c>
+      <c r="R470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -25433,6 +26845,9 @@
       <c r="Q471" t="n">
         <v>0</v>
       </c>
+      <c r="R471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -25486,6 +26901,9 @@
       <c r="Q472" t="n">
         <v>0</v>
       </c>
+      <c r="R472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -25539,6 +26957,9 @@
       <c r="Q473" t="n">
         <v>0</v>
       </c>
+      <c r="R473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -25592,6 +27013,9 @@
       <c r="Q474" t="n">
         <v>1</v>
       </c>
+      <c r="R474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -25645,6 +27069,9 @@
       <c r="Q475" t="n">
         <v>0</v>
       </c>
+      <c r="R475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -25698,6 +27125,9 @@
       <c r="Q476" t="n">
         <v>0</v>
       </c>
+      <c r="R476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -25751,6 +27181,9 @@
       <c r="Q477" t="n">
         <v>0</v>
       </c>
+      <c r="R477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -25804,6 +27237,9 @@
       <c r="Q478" t="n">
         <v>0</v>
       </c>
+      <c r="R478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -25857,6 +27293,9 @@
       <c r="Q479" t="n">
         <v>0</v>
       </c>
+      <c r="R479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -25910,6 +27349,9 @@
       <c r="Q480" t="n">
         <v>0</v>
       </c>
+      <c r="R480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -25963,6 +27405,9 @@
       <c r="Q481" t="n">
         <v>0</v>
       </c>
+      <c r="R481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -26016,6 +27461,9 @@
       <c r="Q482" t="n">
         <v>0</v>
       </c>
+      <c r="R482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -26069,6 +27517,9 @@
       <c r="Q483" t="n">
         <v>0</v>
       </c>
+      <c r="R483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -26122,6 +27573,9 @@
       <c r="Q484" t="n">
         <v>0</v>
       </c>
+      <c r="R484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -26175,6 +27629,9 @@
       <c r="Q485" t="n">
         <v>0</v>
       </c>
+      <c r="R485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -26228,6 +27685,9 @@
       <c r="Q486" t="n">
         <v>0</v>
       </c>
+      <c r="R486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -26281,6 +27741,9 @@
       <c r="Q487" t="n">
         <v>0</v>
       </c>
+      <c r="R487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -26334,6 +27797,9 @@
       <c r="Q488" t="n">
         <v>0</v>
       </c>
+      <c r="R488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -26387,6 +27853,9 @@
       <c r="Q489" t="n">
         <v>0</v>
       </c>
+      <c r="R489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -26440,6 +27909,9 @@
       <c r="Q490" t="n">
         <v>0</v>
       </c>
+      <c r="R490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -26493,6 +27965,9 @@
       <c r="Q491" t="n">
         <v>0</v>
       </c>
+      <c r="R491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -26546,6 +28021,9 @@
       <c r="Q492" t="n">
         <v>0</v>
       </c>
+      <c r="R492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -26599,6 +28077,9 @@
       <c r="Q493" t="n">
         <v>0</v>
       </c>
+      <c r="R493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -26652,6 +28133,9 @@
       <c r="Q494" t="n">
         <v>0</v>
       </c>
+      <c r="R494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -26705,6 +28189,9 @@
       <c r="Q495" t="n">
         <v>0</v>
       </c>
+      <c r="R495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -26758,6 +28245,9 @@
       <c r="Q496" t="n">
         <v>1</v>
       </c>
+      <c r="R496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -26811,6 +28301,9 @@
       <c r="Q497" t="n">
         <v>0</v>
       </c>
+      <c r="R497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -26864,6 +28357,9 @@
       <c r="Q498" t="n">
         <v>0</v>
       </c>
+      <c r="R498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -26917,6 +28413,9 @@
       <c r="Q499" t="n">
         <v>0</v>
       </c>
+      <c r="R499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -26970,6 +28469,9 @@
       <c r="Q500" t="n">
         <v>0</v>
       </c>
+      <c r="R500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -27023,6 +28525,9 @@
       <c r="Q501" t="n">
         <v>0</v>
       </c>
+      <c r="R501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -27076,6 +28581,9 @@
       <c r="Q502" t="n">
         <v>0</v>
       </c>
+      <c r="R502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -27129,6 +28637,9 @@
       <c r="Q503" t="n">
         <v>0</v>
       </c>
+      <c r="R503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -27182,6 +28693,9 @@
       <c r="Q504" t="n">
         <v>0</v>
       </c>
+      <c r="R504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -27235,6 +28749,9 @@
       <c r="Q505" t="n">
         <v>0</v>
       </c>
+      <c r="R505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -27288,6 +28805,9 @@
       <c r="Q506" t="n">
         <v>0</v>
       </c>
+      <c r="R506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -27341,6 +28861,9 @@
       <c r="Q507" t="n">
         <v>0</v>
       </c>
+      <c r="R507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -27394,6 +28917,9 @@
       <c r="Q508" t="n">
         <v>0</v>
       </c>
+      <c r="R508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -27447,6 +28973,9 @@
       <c r="Q509" t="n">
         <v>0</v>
       </c>
+      <c r="R509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -27500,6 +29029,9 @@
       <c r="Q510" t="n">
         <v>0</v>
       </c>
+      <c r="R510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -27553,6 +29085,9 @@
       <c r="Q511" t="n">
         <v>0</v>
       </c>
+      <c r="R511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -27606,6 +29141,9 @@
       <c r="Q512" t="n">
         <v>0</v>
       </c>
+      <c r="R512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -27659,6 +29197,9 @@
       <c r="Q513" t="n">
         <v>0</v>
       </c>
+      <c r="R513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -27712,6 +29253,9 @@
       <c r="Q514" t="n">
         <v>0</v>
       </c>
+      <c r="R514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -27765,6 +29309,9 @@
       <c r="Q515" t="n">
         <v>0</v>
       </c>
+      <c r="R515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -27818,6 +29365,9 @@
       <c r="Q516" t="n">
         <v>1</v>
       </c>
+      <c r="R516" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -27871,6 +29421,9 @@
       <c r="Q517" t="n">
         <v>0</v>
       </c>
+      <c r="R517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -27924,6 +29477,9 @@
       <c r="Q518" t="n">
         <v>0</v>
       </c>
+      <c r="R518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -27977,6 +29533,9 @@
       <c r="Q519" t="n">
         <v>0</v>
       </c>
+      <c r="R519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -28030,6 +29589,9 @@
       <c r="Q520" t="n">
         <v>0</v>
       </c>
+      <c r="R520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -28083,6 +29645,9 @@
       <c r="Q521" t="n">
         <v>0</v>
       </c>
+      <c r="R521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -28136,6 +29701,9 @@
       <c r="Q522" t="n">
         <v>0</v>
       </c>
+      <c r="R522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -28189,6 +29757,9 @@
       <c r="Q523" t="n">
         <v>0</v>
       </c>
+      <c r="R523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -28242,6 +29813,9 @@
       <c r="Q524" t="n">
         <v>0</v>
       </c>
+      <c r="R524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -28295,6 +29869,9 @@
       <c r="Q525" t="n">
         <v>0</v>
       </c>
+      <c r="R525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -28348,6 +29925,9 @@
       <c r="Q526" t="n">
         <v>0</v>
       </c>
+      <c r="R526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -28401,6 +29981,9 @@
       <c r="Q527" t="n">
         <v>0</v>
       </c>
+      <c r="R527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -28454,6 +30037,9 @@
       <c r="Q528" t="n">
         <v>0</v>
       </c>
+      <c r="R528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -28507,6 +30093,9 @@
       <c r="Q529" t="n">
         <v>0</v>
       </c>
+      <c r="R529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -28560,6 +30149,9 @@
       <c r="Q530" t="n">
         <v>1</v>
       </c>
+      <c r="R530" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -28613,6 +30205,9 @@
       <c r="Q531" t="n">
         <v>0</v>
       </c>
+      <c r="R531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -28666,6 +30261,9 @@
       <c r="Q532" t="n">
         <v>0</v>
       </c>
+      <c r="R532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -28719,6 +30317,9 @@
       <c r="Q533" t="n">
         <v>0</v>
       </c>
+      <c r="R533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -28772,6 +30373,9 @@
       <c r="Q534" t="n">
         <v>0</v>
       </c>
+      <c r="R534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -28825,6 +30429,9 @@
       <c r="Q535" t="n">
         <v>0</v>
       </c>
+      <c r="R535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -28878,6 +30485,9 @@
       <c r="Q536" t="n">
         <v>0</v>
       </c>
+      <c r="R536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -28931,6 +30541,9 @@
       <c r="Q537" t="n">
         <v>0</v>
       </c>
+      <c r="R537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -28984,6 +30597,9 @@
       <c r="Q538" t="n">
         <v>0</v>
       </c>
+      <c r="R538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -29037,6 +30653,9 @@
       <c r="Q539" t="n">
         <v>0</v>
       </c>
+      <c r="R539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -29090,6 +30709,9 @@
       <c r="Q540" t="n">
         <v>0</v>
       </c>
+      <c r="R540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -29143,6 +30765,9 @@
       <c r="Q541" t="n">
         <v>0</v>
       </c>
+      <c r="R541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -29196,6 +30821,9 @@
       <c r="Q542" t="n">
         <v>0</v>
       </c>
+      <c r="R542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -29249,6 +30877,9 @@
       <c r="Q543" t="n">
         <v>0</v>
       </c>
+      <c r="R543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -29302,6 +30933,9 @@
       <c r="Q544" t="n">
         <v>0</v>
       </c>
+      <c r="R544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -29355,6 +30989,9 @@
       <c r="Q545" t="n">
         <v>0</v>
       </c>
+      <c r="R545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -29408,6 +31045,9 @@
       <c r="Q546" t="n">
         <v>0</v>
       </c>
+      <c r="R546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -29461,6 +31101,9 @@
       <c r="Q547" t="n">
         <v>0</v>
       </c>
+      <c r="R547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -29514,6 +31157,9 @@
       <c r="Q548" t="n">
         <v>0</v>
       </c>
+      <c r="R548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -29567,6 +31213,9 @@
       <c r="Q549" t="n">
         <v>0</v>
       </c>
+      <c r="R549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -29620,6 +31269,9 @@
       <c r="Q550" t="n">
         <v>0</v>
       </c>
+      <c r="R550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -29673,6 +31325,9 @@
       <c r="Q551" t="n">
         <v>2</v>
       </c>
+      <c r="R551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
@@ -29726,6 +31381,9 @@
       <c r="Q552" t="n">
         <v>0</v>
       </c>
+      <c r="R552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -29779,6 +31437,9 @@
       <c r="Q553" t="n">
         <v>0</v>
       </c>
+      <c r="R553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -29832,6 +31493,9 @@
       <c r="Q554" t="n">
         <v>0</v>
       </c>
+      <c r="R554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -29885,6 +31549,9 @@
       <c r="Q555" t="n">
         <v>0</v>
       </c>
+      <c r="R555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -29938,6 +31605,9 @@
       <c r="Q556" t="n">
         <v>0</v>
       </c>
+      <c r="R556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -29991,6 +31661,9 @@
       <c r="Q557" t="n">
         <v>0</v>
       </c>
+      <c r="R557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
@@ -30044,6 +31717,9 @@
       <c r="Q558" t="n">
         <v>0</v>
       </c>
+      <c r="R558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -30097,6 +31773,9 @@
       <c r="Q559" t="n">
         <v>0</v>
       </c>
+      <c r="R559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -30150,6 +31829,9 @@
       <c r="Q560" t="n">
         <v>0</v>
       </c>
+      <c r="R560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -30203,6 +31885,9 @@
       <c r="Q561" t="n">
         <v>0</v>
       </c>
+      <c r="R561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -30256,6 +31941,9 @@
       <c r="Q562" t="n">
         <v>0</v>
       </c>
+      <c r="R562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -30309,6 +31997,9 @@
       <c r="Q563" t="n">
         <v>0</v>
       </c>
+      <c r="R563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -30362,6 +32053,9 @@
       <c r="Q564" t="n">
         <v>0</v>
       </c>
+      <c r="R564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -30415,6 +32109,9 @@
       <c r="Q565" t="n">
         <v>0</v>
       </c>
+      <c r="R565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -30468,6 +32165,9 @@
       <c r="Q566" t="n">
         <v>0</v>
       </c>
+      <c r="R566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
@@ -30521,6 +32221,9 @@
       <c r="Q567" t="n">
         <v>0</v>
       </c>
+      <c r="R567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
@@ -30574,6 +32277,9 @@
       <c r="Q568" t="n">
         <v>0</v>
       </c>
+      <c r="R568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -30627,6 +32333,9 @@
       <c r="Q569" t="n">
         <v>0</v>
       </c>
+      <c r="R569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -30680,6 +32389,9 @@
       <c r="Q570" t="n">
         <v>0</v>
       </c>
+      <c r="R570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -30733,6 +32445,9 @@
       <c r="Q571" t="n">
         <v>0</v>
       </c>
+      <c r="R571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -30786,6 +32501,9 @@
       <c r="Q572" t="n">
         <v>0</v>
       </c>
+      <c r="R572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -30839,6 +32557,9 @@
       <c r="Q573" t="n">
         <v>0</v>
       </c>
+      <c r="R573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -30892,6 +32613,9 @@
       <c r="Q574" t="n">
         <v>0</v>
       </c>
+      <c r="R574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -30945,6 +32669,9 @@
       <c r="Q575" t="n">
         <v>0</v>
       </c>
+      <c r="R575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -30998,6 +32725,9 @@
       <c r="Q576" t="n">
         <v>0</v>
       </c>
+      <c r="R576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
@@ -31051,6 +32781,9 @@
       <c r="Q577" t="n">
         <v>1</v>
       </c>
+      <c r="R577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -31104,6 +32837,9 @@
       <c r="Q578" t="n">
         <v>0</v>
       </c>
+      <c r="R578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -31157,6 +32893,9 @@
       <c r="Q579" t="n">
         <v>0</v>
       </c>
+      <c r="R579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -31210,6 +32949,9 @@
       <c r="Q580" t="n">
         <v>0</v>
       </c>
+      <c r="R580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -31263,6 +33005,9 @@
       <c r="Q581" t="n">
         <v>0</v>
       </c>
+      <c r="R581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
@@ -31316,6 +33061,9 @@
       <c r="Q582" t="n">
         <v>0</v>
       </c>
+      <c r="R582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -31369,6 +33117,9 @@
       <c r="Q583" t="n">
         <v>0</v>
       </c>
+      <c r="R583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -31422,6 +33173,9 @@
       <c r="Q584" t="n">
         <v>0</v>
       </c>
+      <c r="R584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -31475,6 +33229,9 @@
       <c r="Q585" t="n">
         <v>0</v>
       </c>
+      <c r="R585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
@@ -31528,6 +33285,9 @@
       <c r="Q586" t="n">
         <v>2</v>
       </c>
+      <c r="R586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -31581,6 +33341,9 @@
       <c r="Q587" t="n">
         <v>0</v>
       </c>
+      <c r="R587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -31634,6 +33397,9 @@
       <c r="Q588" t="n">
         <v>0</v>
       </c>
+      <c r="R588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -31687,6 +33453,9 @@
       <c r="Q589" t="n">
         <v>0</v>
       </c>
+      <c r="R589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -31740,6 +33509,9 @@
       <c r="Q590" t="n">
         <v>0</v>
       </c>
+      <c r="R590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -31793,6 +33565,9 @@
       <c r="Q591" t="n">
         <v>0</v>
       </c>
+      <c r="R591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -31846,6 +33621,9 @@
       <c r="Q592" t="n">
         <v>0</v>
       </c>
+      <c r="R592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -31899,6 +33677,9 @@
       <c r="Q593" t="n">
         <v>0</v>
       </c>
+      <c r="R593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -31952,6 +33733,9 @@
       <c r="Q594" t="n">
         <v>0</v>
       </c>
+      <c r="R594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
@@ -32005,6 +33789,9 @@
       <c r="Q595" t="n">
         <v>0</v>
       </c>
+      <c r="R595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
@@ -32058,6 +33845,9 @@
       <c r="Q596" t="n">
         <v>0</v>
       </c>
+      <c r="R596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -32111,6 +33901,9 @@
       <c r="Q597" t="n">
         <v>0</v>
       </c>
+      <c r="R597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -32164,6 +33957,9 @@
       <c r="Q598" t="n">
         <v>0</v>
       </c>
+      <c r="R598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
@@ -32217,6 +34013,9 @@
       <c r="Q599" t="n">
         <v>0</v>
       </c>
+      <c r="R599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -32270,6 +34069,9 @@
       <c r="Q600" t="n">
         <v>0</v>
       </c>
+      <c r="R600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
@@ -32323,6 +34125,9 @@
       <c r="Q601" t="n">
         <v>0</v>
       </c>
+      <c r="R601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
@@ -32376,6 +34181,9 @@
       <c r="Q602" t="n">
         <v>0</v>
       </c>
+      <c r="R602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -32429,6 +34237,9 @@
       <c r="Q603" t="n">
         <v>0</v>
       </c>
+      <c r="R603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -32482,6 +34293,9 @@
       <c r="Q604" t="n">
         <v>0</v>
       </c>
+      <c r="R604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -32535,6 +34349,9 @@
       <c r="Q605" t="n">
         <v>0</v>
       </c>
+      <c r="R605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
@@ -32588,6 +34405,9 @@
       <c r="Q606" t="n">
         <v>0</v>
       </c>
+      <c r="R606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -32641,6 +34461,9 @@
       <c r="Q607" t="n">
         <v>0</v>
       </c>
+      <c r="R607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -32694,6 +34517,9 @@
       <c r="Q608" t="n">
         <v>0</v>
       </c>
+      <c r="R608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -32747,6 +34573,9 @@
       <c r="Q609" t="n">
         <v>0</v>
       </c>
+      <c r="R609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -32800,6 +34629,9 @@
       <c r="Q610" t="n">
         <v>0</v>
       </c>
+      <c r="R610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
@@ -32853,6 +34685,9 @@
       <c r="Q611" t="n">
         <v>0</v>
       </c>
+      <c r="R611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
@@ -32906,6 +34741,9 @@
       <c r="Q612" t="n">
         <v>0</v>
       </c>
+      <c r="R612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
@@ -32959,6 +34797,9 @@
       <c r="Q613" t="n">
         <v>0</v>
       </c>
+      <c r="R613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
@@ -33012,6 +34853,9 @@
       <c r="Q614" t="n">
         <v>0</v>
       </c>
+      <c r="R614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
@@ -33065,6 +34909,9 @@
       <c r="Q615" t="n">
         <v>0</v>
       </c>
+      <c r="R615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
@@ -33118,6 +34965,9 @@
       <c r="Q616" t="n">
         <v>0</v>
       </c>
+      <c r="R616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
@@ -33171,6 +35021,9 @@
       <c r="Q617" t="n">
         <v>0</v>
       </c>
+      <c r="R617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
@@ -33224,6 +35077,9 @@
       <c r="Q618" t="n">
         <v>0</v>
       </c>
+      <c r="R618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
@@ -33277,6 +35133,9 @@
       <c r="Q619" t="n">
         <v>0</v>
       </c>
+      <c r="R619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
@@ -33330,6 +35189,9 @@
       <c r="Q620" t="n">
         <v>2</v>
       </c>
+      <c r="R620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
@@ -33383,6 +35245,9 @@
       <c r="Q621" t="n">
         <v>0</v>
       </c>
+      <c r="R621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
@@ -33436,6 +35301,9 @@
       <c r="Q622" t="n">
         <v>0</v>
       </c>
+      <c r="R622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
@@ -33489,6 +35357,9 @@
       <c r="Q623" t="n">
         <v>0</v>
       </c>
+      <c r="R623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
@@ -33542,6 +35413,9 @@
       <c r="Q624" t="n">
         <v>0</v>
       </c>
+      <c r="R624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
@@ -33595,6 +35469,9 @@
       <c r="Q625" t="n">
         <v>0</v>
       </c>
+      <c r="R625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
@@ -33648,6 +35525,9 @@
       <c r="Q626" t="n">
         <v>0</v>
       </c>
+      <c r="R626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
@@ -33701,6 +35581,9 @@
       <c r="Q627" t="n">
         <v>0</v>
       </c>
+      <c r="R627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
@@ -33754,6 +35637,9 @@
       <c r="Q628" t="n">
         <v>0</v>
       </c>
+      <c r="R628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
@@ -33807,6 +35693,9 @@
       <c r="Q629" t="n">
         <v>0</v>
       </c>
+      <c r="R629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
@@ -33860,6 +35749,9 @@
       <c r="Q630" t="n">
         <v>0</v>
       </c>
+      <c r="R630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
@@ -33913,6 +35805,9 @@
       <c r="Q631" t="n">
         <v>0</v>
       </c>
+      <c r="R631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
@@ -33966,6 +35861,9 @@
       <c r="Q632" t="n">
         <v>0</v>
       </c>
+      <c r="R632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
@@ -34019,6 +35917,9 @@
       <c r="Q633" t="n">
         <v>2</v>
       </c>
+      <c r="R633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
@@ -34072,6 +35973,9 @@
       <c r="Q634" t="n">
         <v>0</v>
       </c>
+      <c r="R634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
@@ -34125,6 +36029,9 @@
       <c r="Q635" t="n">
         <v>0</v>
       </c>
+      <c r="R635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
@@ -34178,6 +36085,9 @@
       <c r="Q636" t="n">
         <v>0</v>
       </c>
+      <c r="R636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
@@ -34231,6 +36141,9 @@
       <c r="Q637" t="n">
         <v>0</v>
       </c>
+      <c r="R637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
@@ -34284,6 +36197,9 @@
       <c r="Q638" t="n">
         <v>0</v>
       </c>
+      <c r="R638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
@@ -34337,6 +36253,9 @@
       <c r="Q639" t="n">
         <v>0</v>
       </c>
+      <c r="R639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
@@ -34390,6 +36309,9 @@
       <c r="Q640" t="n">
         <v>0</v>
       </c>
+      <c r="R640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
@@ -34443,6 +36365,9 @@
       <c r="Q641" t="n">
         <v>0</v>
       </c>
+      <c r="R641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
@@ -34496,6 +36421,9 @@
       <c r="Q642" t="n">
         <v>0</v>
       </c>
+      <c r="R642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
@@ -34549,6 +36477,9 @@
       <c r="Q643" t="n">
         <v>0</v>
       </c>
+      <c r="R643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
@@ -34602,6 +36533,9 @@
       <c r="Q644" t="n">
         <v>0</v>
       </c>
+      <c r="R644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
@@ -34655,6 +36589,9 @@
       <c r="Q645" t="n">
         <v>0</v>
       </c>
+      <c r="R645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
@@ -34708,6 +36645,9 @@
       <c r="Q646" t="n">
         <v>0</v>
       </c>
+      <c r="R646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
@@ -34761,6 +36701,9 @@
       <c r="Q647" t="n">
         <v>0</v>
       </c>
+      <c r="R647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
@@ -34814,6 +36757,9 @@
       <c r="Q648" t="n">
         <v>0</v>
       </c>
+      <c r="R648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
@@ -34867,6 +36813,9 @@
       <c r="Q649" t="n">
         <v>0</v>
       </c>
+      <c r="R649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
@@ -34920,6 +36869,9 @@
       <c r="Q650" t="n">
         <v>0</v>
       </c>
+      <c r="R650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
@@ -34973,6 +36925,9 @@
       <c r="Q651" t="n">
         <v>0</v>
       </c>
+      <c r="R651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
@@ -35026,6 +36981,9 @@
       <c r="Q652" t="n">
         <v>0</v>
       </c>
+      <c r="R652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
@@ -35079,6 +37037,9 @@
       <c r="Q653" t="n">
         <v>0</v>
       </c>
+      <c r="R653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
@@ -35132,6 +37093,9 @@
       <c r="Q654" t="n">
         <v>0</v>
       </c>
+      <c r="R654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
@@ -35185,6 +37149,9 @@
       <c r="Q655" t="n">
         <v>0</v>
       </c>
+      <c r="R655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
@@ -35238,6 +37205,9 @@
       <c r="Q656" t="n">
         <v>0</v>
       </c>
+      <c r="R656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
@@ -35291,6 +37261,9 @@
       <c r="Q657" t="n">
         <v>0</v>
       </c>
+      <c r="R657" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
@@ -35344,6 +37317,9 @@
       <c r="Q658" t="n">
         <v>0</v>
       </c>
+      <c r="R658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
@@ -35397,6 +37373,9 @@
       <c r="Q659" t="n">
         <v>0</v>
       </c>
+      <c r="R659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
@@ -35450,6 +37429,9 @@
       <c r="Q660" t="n">
         <v>0</v>
       </c>
+      <c r="R660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
@@ -35503,6 +37485,9 @@
       <c r="Q661" t="n">
         <v>0</v>
       </c>
+      <c r="R661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
@@ -35556,6 +37541,9 @@
       <c r="Q662" t="n">
         <v>0</v>
       </c>
+      <c r="R662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
@@ -35609,6 +37597,9 @@
       <c r="Q663" t="n">
         <v>0</v>
       </c>
+      <c r="R663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
@@ -35662,6 +37653,9 @@
       <c r="Q664" t="n">
         <v>0</v>
       </c>
+      <c r="R664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
@@ -35715,6 +37709,9 @@
       <c r="Q665" t="n">
         <v>0</v>
       </c>
+      <c r="R665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
@@ -35768,6 +37765,9 @@
       <c r="Q666" t="n">
         <v>0</v>
       </c>
+      <c r="R666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
@@ -35821,6 +37821,9 @@
       <c r="Q667" t="n">
         <v>0</v>
       </c>
+      <c r="R667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
@@ -35874,6 +37877,9 @@
       <c r="Q668" t="n">
         <v>0</v>
       </c>
+      <c r="R668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
@@ -35927,6 +37933,9 @@
       <c r="Q669" t="n">
         <v>0</v>
       </c>
+      <c r="R669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
@@ -35980,6 +37989,9 @@
       <c r="Q670" t="n">
         <v>0</v>
       </c>
+      <c r="R670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
@@ -36033,6 +38045,9 @@
       <c r="Q671" t="n">
         <v>0</v>
       </c>
+      <c r="R671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
@@ -36086,6 +38101,9 @@
       <c r="Q672" t="n">
         <v>0</v>
       </c>
+      <c r="R672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
@@ -36139,6 +38157,9 @@
       <c r="Q673" t="n">
         <v>0</v>
       </c>
+      <c r="R673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
@@ -36192,6 +38213,9 @@
       <c r="Q674" t="n">
         <v>0</v>
       </c>
+      <c r="R674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
@@ -36245,6 +38269,9 @@
       <c r="Q675" t="n">
         <v>0</v>
       </c>
+      <c r="R675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
@@ -36298,6 +38325,9 @@
       <c r="Q676" t="n">
         <v>0</v>
       </c>
+      <c r="R676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
@@ -36351,6 +38381,9 @@
       <c r="Q677" t="n">
         <v>0</v>
       </c>
+      <c r="R677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
@@ -36404,6 +38437,9 @@
       <c r="Q678" t="n">
         <v>0</v>
       </c>
+      <c r="R678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
@@ -36457,6 +38493,9 @@
       <c r="Q679" t="n">
         <v>0</v>
       </c>
+      <c r="R679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
@@ -36510,6 +38549,9 @@
       <c r="Q680" t="n">
         <v>0</v>
       </c>
+      <c r="R680" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
@@ -36563,6 +38605,9 @@
       <c r="Q681" t="n">
         <v>0</v>
       </c>
+      <c r="R681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
@@ -36616,6 +38661,9 @@
       <c r="Q682" t="n">
         <v>0</v>
       </c>
+      <c r="R682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
@@ -36669,6 +38717,9 @@
       <c r="Q683" t="n">
         <v>0</v>
       </c>
+      <c r="R683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
@@ -36722,6 +38773,9 @@
       <c r="Q684" t="n">
         <v>0</v>
       </c>
+      <c r="R684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
@@ -36775,6 +38829,9 @@
       <c r="Q685" t="n">
         <v>0</v>
       </c>
+      <c r="R685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
@@ -36828,6 +38885,9 @@
       <c r="Q686" t="n">
         <v>0</v>
       </c>
+      <c r="R686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
@@ -36881,6 +38941,9 @@
       <c r="Q687" t="n">
         <v>0</v>
       </c>
+      <c r="R687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
@@ -36934,6 +38997,9 @@
       <c r="Q688" t="n">
         <v>0</v>
       </c>
+      <c r="R688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
@@ -36987,6 +39053,9 @@
       <c r="Q689" t="n">
         <v>0</v>
       </c>
+      <c r="R689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
@@ -37040,6 +39109,9 @@
       <c r="Q690" t="n">
         <v>2</v>
       </c>
+      <c r="R690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
@@ -37093,6 +39165,9 @@
       <c r="Q691" t="n">
         <v>0</v>
       </c>
+      <c r="R691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
@@ -37146,6 +39221,9 @@
       <c r="Q692" t="n">
         <v>0</v>
       </c>
+      <c r="R692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
@@ -37199,6 +39277,9 @@
       <c r="Q693" t="n">
         <v>0</v>
       </c>
+      <c r="R693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
@@ -37252,6 +39333,9 @@
       <c r="Q694" t="n">
         <v>0</v>
       </c>
+      <c r="R694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
@@ -37305,6 +39389,9 @@
       <c r="Q695" t="n">
         <v>0</v>
       </c>
+      <c r="R695" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
@@ -37358,6 +39445,9 @@
       <c r="Q696" t="n">
         <v>0</v>
       </c>
+      <c r="R696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
@@ -37411,6 +39501,9 @@
       <c r="Q697" t="n">
         <v>0</v>
       </c>
+      <c r="R697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
@@ -37464,6 +39557,9 @@
       <c r="Q698" t="n">
         <v>0</v>
       </c>
+      <c r="R698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
@@ -37517,6 +39613,9 @@
       <c r="Q699" t="n">
         <v>0</v>
       </c>
+      <c r="R699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
@@ -37570,6 +39669,9 @@
       <c r="Q700" t="n">
         <v>0</v>
       </c>
+      <c r="R700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
@@ -37623,6 +39725,9 @@
       <c r="Q701" t="n">
         <v>0</v>
       </c>
+      <c r="R701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
@@ -37676,6 +39781,9 @@
       <c r="Q702" t="n">
         <v>0</v>
       </c>
+      <c r="R702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
@@ -37729,6 +39837,9 @@
       <c r="Q703" t="n">
         <v>0</v>
       </c>
+      <c r="R703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
@@ -37782,6 +39893,9 @@
       <c r="Q704" t="n">
         <v>0</v>
       </c>
+      <c r="R704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
@@ -37835,6 +39949,9 @@
       <c r="Q705" t="n">
         <v>0</v>
       </c>
+      <c r="R705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
@@ -37888,6 +40005,9 @@
       <c r="Q706" t="n">
         <v>0</v>
       </c>
+      <c r="R706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
@@ -37941,6 +40061,9 @@
       <c r="Q707" t="n">
         <v>0</v>
       </c>
+      <c r="R707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
@@ -37994,6 +40117,9 @@
       <c r="Q708" t="n">
         <v>0</v>
       </c>
+      <c r="R708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
@@ -38047,6 +40173,9 @@
       <c r="Q709" t="n">
         <v>2</v>
       </c>
+      <c r="R709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
@@ -38100,6 +40229,9 @@
       <c r="Q710" t="n">
         <v>0</v>
       </c>
+      <c r="R710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
@@ -38153,6 +40285,9 @@
       <c r="Q711" t="n">
         <v>0</v>
       </c>
+      <c r="R711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
@@ -38206,6 +40341,9 @@
       <c r="Q712" t="n">
         <v>0</v>
       </c>
+      <c r="R712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
@@ -38259,6 +40397,9 @@
       <c r="Q713" t="n">
         <v>0</v>
       </c>
+      <c r="R713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
@@ -38312,6 +40453,9 @@
       <c r="Q714" t="n">
         <v>0</v>
       </c>
+      <c r="R714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
@@ -38365,6 +40509,9 @@
       <c r="Q715" t="n">
         <v>0</v>
       </c>
+      <c r="R715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
@@ -38418,6 +40565,9 @@
       <c r="Q716" t="n">
         <v>0</v>
       </c>
+      <c r="R716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
@@ -38471,6 +40621,9 @@
       <c r="Q717" t="n">
         <v>0</v>
       </c>
+      <c r="R717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
@@ -38524,6 +40677,9 @@
       <c r="Q718" t="n">
         <v>0</v>
       </c>
+      <c r="R718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
@@ -38577,6 +40733,9 @@
       <c r="Q719" t="n">
         <v>0</v>
       </c>
+      <c r="R719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
@@ -38630,6 +40789,9 @@
       <c r="Q720" t="n">
         <v>0</v>
       </c>
+      <c r="R720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
@@ -38683,6 +40845,9 @@
       <c r="Q721" t="n">
         <v>0</v>
       </c>
+      <c r="R721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
@@ -38736,6 +40901,9 @@
       <c r="Q722" t="n">
         <v>0</v>
       </c>
+      <c r="R722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
@@ -38789,6 +40957,9 @@
       <c r="Q723" t="n">
         <v>0</v>
       </c>
+      <c r="R723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
@@ -38842,6 +41013,9 @@
       <c r="Q724" t="n">
         <v>0</v>
       </c>
+      <c r="R724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
@@ -38895,6 +41069,9 @@
       <c r="Q725" t="n">
         <v>0</v>
       </c>
+      <c r="R725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
@@ -38948,6 +41125,9 @@
       <c r="Q726" t="n">
         <v>0</v>
       </c>
+      <c r="R726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
@@ -39001,6 +41181,9 @@
       <c r="Q727" t="n">
         <v>0</v>
       </c>
+      <c r="R727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
@@ -39054,6 +41237,9 @@
       <c r="Q728" t="n">
         <v>0</v>
       </c>
+      <c r="R728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
@@ -39107,6 +41293,9 @@
       <c r="Q729" t="n">
         <v>0</v>
       </c>
+      <c r="R729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
@@ -39160,6 +41349,9 @@
       <c r="Q730" t="n">
         <v>0</v>
       </c>
+      <c r="R730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
@@ -39213,6 +41405,9 @@
       <c r="Q731" t="n">
         <v>0</v>
       </c>
+      <c r="R731" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
@@ -39266,6 +41461,9 @@
       <c r="Q732" t="n">
         <v>0</v>
       </c>
+      <c r="R732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
@@ -39319,6 +41517,9 @@
       <c r="Q733" t="n">
         <v>0</v>
       </c>
+      <c r="R733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
@@ -39372,6 +41573,9 @@
       <c r="Q734" t="n">
         <v>0</v>
       </c>
+      <c r="R734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
@@ -39425,6 +41629,9 @@
       <c r="Q735" t="n">
         <v>0</v>
       </c>
+      <c r="R735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
@@ -39478,6 +41685,9 @@
       <c r="Q736" t="n">
         <v>0</v>
       </c>
+      <c r="R736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
@@ -39531,6 +41741,9 @@
       <c r="Q737" t="n">
         <v>0</v>
       </c>
+      <c r="R737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
@@ -39584,6 +41797,9 @@
       <c r="Q738" t="n">
         <v>0</v>
       </c>
+      <c r="R738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
@@ -39637,6 +41853,9 @@
       <c r="Q739" t="n">
         <v>0</v>
       </c>
+      <c r="R739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
@@ -39690,6 +41909,9 @@
       <c r="Q740" t="n">
         <v>0</v>
       </c>
+      <c r="R740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
@@ -39743,6 +41965,9 @@
       <c r="Q741" t="n">
         <v>0</v>
       </c>
+      <c r="R741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
@@ -39796,6 +42021,9 @@
       <c r="Q742" t="n">
         <v>0</v>
       </c>
+      <c r="R742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
@@ -39849,6 +42077,9 @@
       <c r="Q743" t="n">
         <v>0</v>
       </c>
+      <c r="R743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
@@ -39902,6 +42133,9 @@
       <c r="Q744" t="n">
         <v>0</v>
       </c>
+      <c r="R744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
@@ -39955,6 +42189,9 @@
       <c r="Q745" t="n">
         <v>0</v>
       </c>
+      <c r="R745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
@@ -40008,6 +42245,9 @@
       <c r="Q746" t="n">
         <v>0</v>
       </c>
+      <c r="R746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
@@ -40061,6 +42301,9 @@
       <c r="Q747" t="n">
         <v>0</v>
       </c>
+      <c r="R747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
@@ -40114,6 +42357,9 @@
       <c r="Q748" t="n">
         <v>0</v>
       </c>
+      <c r="R748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
@@ -40167,6 +42413,9 @@
       <c r="Q749" t="n">
         <v>0</v>
       </c>
+      <c r="R749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
@@ -40220,6 +42469,9 @@
       <c r="Q750" t="n">
         <v>0</v>
       </c>
+      <c r="R750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
@@ -40273,6 +42525,9 @@
       <c r="Q751" t="n">
         <v>0</v>
       </c>
+      <c r="R751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
@@ -40326,6 +42581,9 @@
       <c r="Q752" t="n">
         <v>0</v>
       </c>
+      <c r="R752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
@@ -40379,6 +42637,9 @@
       <c r="Q753" t="n">
         <v>0</v>
       </c>
+      <c r="R753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
@@ -40432,6 +42693,9 @@
       <c r="Q754" t="n">
         <v>0</v>
       </c>
+      <c r="R754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
@@ -40485,6 +42749,9 @@
       <c r="Q755" t="n">
         <v>0</v>
       </c>
+      <c r="R755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
@@ -40538,6 +42805,9 @@
       <c r="Q756" t="n">
         <v>0</v>
       </c>
+      <c r="R756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
@@ -40591,6 +42861,9 @@
       <c r="Q757" t="n">
         <v>0</v>
       </c>
+      <c r="R757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
@@ -40644,6 +42917,9 @@
       <c r="Q758" t="n">
         <v>0</v>
       </c>
+      <c r="R758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
@@ -40697,6 +42973,9 @@
       <c r="Q759" t="n">
         <v>0</v>
       </c>
+      <c r="R759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
@@ -40750,6 +43029,9 @@
       <c r="Q760" t="n">
         <v>0</v>
       </c>
+      <c r="R760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
@@ -40803,6 +43085,9 @@
       <c r="Q761" t="n">
         <v>0</v>
       </c>
+      <c r="R761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
@@ -40856,6 +43141,9 @@
       <c r="Q762" t="n">
         <v>0</v>
       </c>
+      <c r="R762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
@@ -40909,6 +43197,9 @@
       <c r="Q763" t="n">
         <v>0</v>
       </c>
+      <c r="R763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
@@ -40962,6 +43253,9 @@
       <c r="Q764" t="n">
         <v>0</v>
       </c>
+      <c r="R764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
@@ -41015,6 +43309,9 @@
       <c r="Q765" t="n">
         <v>0</v>
       </c>
+      <c r="R765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
@@ -41068,6 +43365,9 @@
       <c r="Q766" t="n">
         <v>0</v>
       </c>
+      <c r="R766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
@@ -41121,6 +43421,9 @@
       <c r="Q767" t="n">
         <v>0</v>
       </c>
+      <c r="R767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
@@ -41174,6 +43477,9 @@
       <c r="Q768" t="n">
         <v>0</v>
       </c>
+      <c r="R768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
@@ -41227,6 +43533,9 @@
       <c r="Q769" t="n">
         <v>0</v>
       </c>
+      <c r="R769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
@@ -41280,6 +43589,9 @@
       <c r="Q770" t="n">
         <v>0</v>
       </c>
+      <c r="R770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
@@ -41333,6 +43645,9 @@
       <c r="Q771" t="n">
         <v>0</v>
       </c>
+      <c r="R771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
@@ -41386,6 +43701,9 @@
       <c r="Q772" t="n">
         <v>0</v>
       </c>
+      <c r="R772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
@@ -41439,6 +43757,9 @@
       <c r="Q773" t="n">
         <v>0</v>
       </c>
+      <c r="R773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
@@ -41492,6 +43813,9 @@
       <c r="Q774" t="n">
         <v>0</v>
       </c>
+      <c r="R774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
@@ -41545,6 +43869,9 @@
       <c r="Q775" t="n">
         <v>0</v>
       </c>
+      <c r="R775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
@@ -41598,6 +43925,9 @@
       <c r="Q776" t="n">
         <v>0</v>
       </c>
+      <c r="R776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
@@ -41651,6 +43981,9 @@
       <c r="Q777" t="n">
         <v>0</v>
       </c>
+      <c r="R777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
@@ -41704,6 +44037,9 @@
       <c r="Q778" t="n">
         <v>0</v>
       </c>
+      <c r="R778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
@@ -41757,6 +44093,9 @@
       <c r="Q779" t="n">
         <v>0</v>
       </c>
+      <c r="R779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
@@ -41810,6 +44149,9 @@
       <c r="Q780" t="n">
         <v>0</v>
       </c>
+      <c r="R780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
@@ -41863,6 +44205,9 @@
       <c r="Q781" t="n">
         <v>0</v>
       </c>
+      <c r="R781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
@@ -41916,6 +44261,9 @@
       <c r="Q782" t="n">
         <v>0</v>
       </c>
+      <c r="R782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
@@ -41969,6 +44317,9 @@
       <c r="Q783" t="n">
         <v>0</v>
       </c>
+      <c r="R783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
@@ -42022,6 +44373,9 @@
       <c r="Q784" t="n">
         <v>0</v>
       </c>
+      <c r="R784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
@@ -42075,6 +44429,9 @@
       <c r="Q785" t="n">
         <v>0</v>
       </c>
+      <c r="R785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
@@ -42128,6 +44485,9 @@
       <c r="Q786" t="n">
         <v>0</v>
       </c>
+      <c r="R786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
@@ -42181,6 +44541,9 @@
       <c r="Q787" t="n">
         <v>0</v>
       </c>
+      <c r="R787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
@@ -42234,6 +44597,9 @@
       <c r="Q788" t="n">
         <v>0</v>
       </c>
+      <c r="R788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
@@ -42287,6 +44653,9 @@
       <c r="Q789" t="n">
         <v>0</v>
       </c>
+      <c r="R789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
@@ -42340,6 +44709,63 @@
       <c r="Q790" t="n">
         <v>0</v>
       </c>
+      <c r="R790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B791" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C791" t="n">
+        <v>43.79999923706055</v>
+      </c>
+      <c r="D791" t="n">
+        <v>41.95000076293945</v>
+      </c>
+      <c r="E791" t="n">
+        <v>42.15000152587891</v>
+      </c>
+      <c r="F791" t="n">
+        <v>42.15000152587891</v>
+      </c>
+      <c r="G791" t="n">
+        <v>8143943</v>
+      </c>
+      <c r="H791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I791" t="n">
+        <v>6</v>
+      </c>
+      <c r="J791" t="n">
+        <v>3</v>
+      </c>
+      <c r="K791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N791" t="n">
+        <v>23</v>
+      </c>
+      <c r="O791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R791" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -44765,7 +44765,9 @@
       <c r="Q791" t="n">
         <v>0</v>
       </c>
-      <c r="R791" t="inlineStr"/>
+      <c r="R791" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q795"/>
+  <dimension ref="A1:R800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>1</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>1</v>
       </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12925,6 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12978,6 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13031,6 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13084,6 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13137,6 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13190,6 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13243,6 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -13296,6 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -13349,6 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -13402,6 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -13455,6 +14189,9 @@
       <c r="Q245" t="n">
         <v>1</v>
       </c>
+      <c r="R245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -13508,6 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -13561,6 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -13614,6 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -13667,6 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -13720,6 +14469,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13773,6 +14525,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13826,6 +14581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13879,6 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13932,6 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13985,6 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14038,6 +14805,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14091,6 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14144,6 +14917,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14197,6 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14250,6 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14303,6 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14356,6 +15141,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -14409,6 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -14462,6 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -14515,6 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -14568,6 +15365,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -14621,6 +15421,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -14674,6 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -14727,6 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -14780,6 +15589,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14833,6 +15645,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14886,6 +15701,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14939,6 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14992,6 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15045,6 +15869,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15098,6 +15925,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15151,6 +15981,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -15204,6 +16037,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -15257,6 +16093,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -15310,6 +16149,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -15363,6 +16205,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -15416,6 +16261,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -15469,6 +16317,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -15522,6 +16373,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -15575,6 +16429,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -15628,6 +16485,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -15681,6 +16541,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -15734,6 +16597,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -15787,6 +16653,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -15840,6 +16709,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15893,6 +16765,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15946,6 +16821,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15999,6 +16877,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16052,6 +16933,9 @@
       <c r="Q294" t="n">
         <v>1</v>
       </c>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16105,6 +16989,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -16158,6 +17045,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -16211,6 +17101,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -16264,6 +17157,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -16317,6 +17213,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -16370,6 +17269,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -16423,6 +17325,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -16476,6 +17381,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -16529,6 +17437,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -16582,6 +17493,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -16635,6 +17549,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -16688,6 +17605,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -16741,6 +17661,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -16794,6 +17717,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -16847,6 +17773,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -16900,6 +17829,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16953,6 +17885,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17006,6 +17941,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17059,6 +17997,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -17112,6 +18053,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -17165,6 +18109,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -17218,6 +18165,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -17271,6 +18221,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -17324,6 +18277,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -17377,6 +18333,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -17430,6 +18389,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -17483,6 +18445,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -17536,6 +18501,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -17589,6 +18557,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -17642,6 +18613,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -17695,6 +18669,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -17748,6 +18725,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -17801,6 +18781,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -17854,6 +18837,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -17907,6 +18893,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -17960,6 +18949,9 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -18013,6 +19005,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -18066,6 +19061,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -18119,6 +19117,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -18172,6 +19173,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -18225,6 +19229,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -18278,6 +19285,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -18331,6 +19341,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -18384,6 +19397,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -18437,6 +19453,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -18490,6 +19509,9 @@
       <c r="Q340" t="n">
         <v>1</v>
       </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -18543,6 +19565,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -18596,6 +19621,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -18649,6 +19677,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -18702,6 +19733,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -18755,6 +19789,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -18808,6 +19845,9 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -18861,6 +19901,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -18914,6 +19957,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -18967,6 +20013,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -19020,6 +20069,9 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -19073,6 +20125,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -19126,6 +20181,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -19179,6 +20237,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -19232,6 +20293,9 @@
       <c r="Q354" t="n">
         <v>1</v>
       </c>
+      <c r="R354" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -19285,6 +20349,9 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -19338,6 +20405,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -19391,6 +20461,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -19444,6 +20517,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -19497,6 +20573,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -19550,6 +20629,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -19603,6 +20685,9 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -19656,6 +20741,9 @@
       <c r="Q362" t="n">
         <v>0</v>
       </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -19709,6 +20797,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -19762,6 +20853,9 @@
       <c r="Q364" t="n">
         <v>0</v>
       </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -19815,6 +20909,9 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -19868,6 +20965,9 @@
       <c r="Q366" t="n">
         <v>0</v>
       </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -19921,6 +21021,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -19974,6 +21077,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -20027,6 +21133,9 @@
       <c r="Q369" t="n">
         <v>0</v>
       </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -20080,6 +21189,9 @@
       <c r="Q370" t="n">
         <v>1</v>
       </c>
+      <c r="R370" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -20133,6 +21245,9 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -20186,6 +21301,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -20239,6 +21357,9 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -20292,6 +21413,9 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -20345,6 +21469,9 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -20398,6 +21525,9 @@
       <c r="Q376" t="n">
         <v>0</v>
       </c>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -20451,6 +21581,9 @@
       <c r="Q377" t="n">
         <v>0</v>
       </c>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -20504,6 +21637,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -20557,6 +21693,9 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -20610,6 +21749,9 @@
       <c r="Q380" t="n">
         <v>0</v>
       </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -20663,6 +21805,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -20716,6 +21861,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -20769,6 +21917,9 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -20822,6 +21973,9 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -20875,6 +22029,9 @@
       <c r="Q385" t="n">
         <v>0</v>
       </c>
+      <c r="R385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -20928,6 +22085,9 @@
       <c r="Q386" t="n">
         <v>0</v>
       </c>
+      <c r="R386" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -20981,6 +22141,9 @@
       <c r="Q387" t="n">
         <v>0</v>
       </c>
+      <c r="R387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -21034,6 +22197,9 @@
       <c r="Q388" t="n">
         <v>0</v>
       </c>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -21087,6 +22253,9 @@
       <c r="Q389" t="n">
         <v>1</v>
       </c>
+      <c r="R389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -21140,6 +22309,9 @@
       <c r="Q390" t="n">
         <v>0</v>
       </c>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -21193,6 +22365,9 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
+      <c r="R391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -21246,6 +22421,9 @@
       <c r="Q392" t="n">
         <v>0</v>
       </c>
+      <c r="R392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -21299,6 +22477,9 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -21352,6 +22533,9 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -21405,6 +22589,9 @@
       <c r="Q395" t="n">
         <v>0</v>
       </c>
+      <c r="R395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -21458,6 +22645,9 @@
       <c r="Q396" t="n">
         <v>0</v>
       </c>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -21511,6 +22701,9 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -21564,6 +22757,9 @@
       <c r="Q398" t="n">
         <v>2</v>
       </c>
+      <c r="R398" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -21617,6 +22813,9 @@
       <c r="Q399" t="n">
         <v>0</v>
       </c>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -21670,6 +22869,9 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -21723,6 +22925,9 @@
       <c r="Q401" t="n">
         <v>0</v>
       </c>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -21776,6 +22981,9 @@
       <c r="Q402" t="n">
         <v>0</v>
       </c>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -21829,6 +23037,9 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -21882,6 +23093,9 @@
       <c r="Q404" t="n">
         <v>0</v>
       </c>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -21935,6 +23149,9 @@
       <c r="Q405" t="n">
         <v>0</v>
       </c>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -21988,6 +23205,9 @@
       <c r="Q406" t="n">
         <v>0</v>
       </c>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -22041,6 +23261,9 @@
       <c r="Q407" t="n">
         <v>0</v>
       </c>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -22094,6 +23317,9 @@
       <c r="Q408" t="n">
         <v>0</v>
       </c>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -22147,6 +23373,9 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -22200,6 +23429,9 @@
       <c r="Q410" t="n">
         <v>0</v>
       </c>
+      <c r="R410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -22253,6 +23485,9 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -22306,6 +23541,9 @@
       <c r="Q412" t="n">
         <v>0</v>
       </c>
+      <c r="R412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -22359,6 +23597,9 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -22412,6 +23653,9 @@
       <c r="Q414" t="n">
         <v>0</v>
       </c>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -22465,6 +23709,9 @@
       <c r="Q415" t="n">
         <v>1</v>
       </c>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -22518,6 +23765,9 @@
       <c r="Q416" t="n">
         <v>0</v>
       </c>
+      <c r="R416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -22571,6 +23821,9 @@
       <c r="Q417" t="n">
         <v>0</v>
       </c>
+      <c r="R417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -22624,6 +23877,9 @@
       <c r="Q418" t="n">
         <v>0</v>
       </c>
+      <c r="R418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -22677,6 +23933,9 @@
       <c r="Q419" t="n">
         <v>0</v>
       </c>
+      <c r="R419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -22730,6 +23989,9 @@
       <c r="Q420" t="n">
         <v>0</v>
       </c>
+      <c r="R420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -22783,6 +24045,9 @@
       <c r="Q421" t="n">
         <v>0</v>
       </c>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -22836,6 +24101,9 @@
       <c r="Q422" t="n">
         <v>0</v>
       </c>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -22889,6 +24157,9 @@
       <c r="Q423" t="n">
         <v>0</v>
       </c>
+      <c r="R423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -22942,6 +24213,9 @@
       <c r="Q424" t="n">
         <v>0</v>
       </c>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -22995,6 +24269,9 @@
       <c r="Q425" t="n">
         <v>0</v>
       </c>
+      <c r="R425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -23048,6 +24325,9 @@
       <c r="Q426" t="n">
         <v>0</v>
       </c>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -23101,6 +24381,9 @@
       <c r="Q427" t="n">
         <v>0</v>
       </c>
+      <c r="R427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -23154,6 +24437,9 @@
       <c r="Q428" t="n">
         <v>0</v>
       </c>
+      <c r="R428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -23207,6 +24493,9 @@
       <c r="Q429" t="n">
         <v>0</v>
       </c>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -23260,6 +24549,9 @@
       <c r="Q430" t="n">
         <v>0</v>
       </c>
+      <c r="R430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -23313,6 +24605,9 @@
       <c r="Q431" t="n">
         <v>0</v>
       </c>
+      <c r="R431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -23366,6 +24661,9 @@
       <c r="Q432" t="n">
         <v>0</v>
       </c>
+      <c r="R432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -23419,6 +24717,9 @@
       <c r="Q433" t="n">
         <v>0</v>
       </c>
+      <c r="R433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -23472,6 +24773,9 @@
       <c r="Q434" t="n">
         <v>0</v>
       </c>
+      <c r="R434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -23525,6 +24829,9 @@
       <c r="Q435" t="n">
         <v>0</v>
       </c>
+      <c r="R435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -23578,6 +24885,9 @@
       <c r="Q436" t="n">
         <v>0</v>
       </c>
+      <c r="R436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -23631,6 +24941,9 @@
       <c r="Q437" t="n">
         <v>0</v>
       </c>
+      <c r="R437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -23684,6 +24997,9 @@
       <c r="Q438" t="n">
         <v>0</v>
       </c>
+      <c r="R438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -23737,6 +25053,9 @@
       <c r="Q439" t="n">
         <v>0</v>
       </c>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -23790,6 +25109,9 @@
       <c r="Q440" t="n">
         <v>0</v>
       </c>
+      <c r="R440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -23843,6 +25165,9 @@
       <c r="Q441" t="n">
         <v>0</v>
       </c>
+      <c r="R441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -23896,6 +25221,9 @@
       <c r="Q442" t="n">
         <v>0</v>
       </c>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -23949,6 +25277,9 @@
       <c r="Q443" t="n">
         <v>0</v>
       </c>
+      <c r="R443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -24002,6 +25333,9 @@
       <c r="Q444" t="n">
         <v>0</v>
       </c>
+      <c r="R444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -24055,6 +25389,9 @@
       <c r="Q445" t="n">
         <v>0</v>
       </c>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -24108,6 +25445,9 @@
       <c r="Q446" t="n">
         <v>0</v>
       </c>
+      <c r="R446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -24161,6 +25501,9 @@
       <c r="Q447" t="n">
         <v>0</v>
       </c>
+      <c r="R447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -24214,6 +25557,9 @@
       <c r="Q448" t="n">
         <v>0</v>
       </c>
+      <c r="R448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -24267,6 +25613,9 @@
       <c r="Q449" t="n">
         <v>0</v>
       </c>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -24320,6 +25669,9 @@
       <c r="Q450" t="n">
         <v>0</v>
       </c>
+      <c r="R450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -24373,6 +25725,9 @@
       <c r="Q451" t="n">
         <v>0</v>
       </c>
+      <c r="R451" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -24426,6 +25781,9 @@
       <c r="Q452" t="n">
         <v>0</v>
       </c>
+      <c r="R452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -24479,6 +25837,9 @@
       <c r="Q453" t="n">
         <v>0</v>
       </c>
+      <c r="R453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -24532,6 +25893,9 @@
       <c r="Q454" t="n">
         <v>0</v>
       </c>
+      <c r="R454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -24585,6 +25949,9 @@
       <c r="Q455" t="n">
         <v>0</v>
       </c>
+      <c r="R455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -24638,6 +26005,9 @@
       <c r="Q456" t="n">
         <v>0</v>
       </c>
+      <c r="R456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -24691,6 +26061,9 @@
       <c r="Q457" t="n">
         <v>0</v>
       </c>
+      <c r="R457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -24744,6 +26117,9 @@
       <c r="Q458" t="n">
         <v>0</v>
       </c>
+      <c r="R458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -24797,6 +26173,9 @@
       <c r="Q459" t="n">
         <v>0</v>
       </c>
+      <c r="R459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -24850,6 +26229,9 @@
       <c r="Q460" t="n">
         <v>0</v>
       </c>
+      <c r="R460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -24903,6 +26285,9 @@
       <c r="Q461" t="n">
         <v>0</v>
       </c>
+      <c r="R461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -24956,6 +26341,9 @@
       <c r="Q462" t="n">
         <v>0</v>
       </c>
+      <c r="R462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -25009,6 +26397,9 @@
       <c r="Q463" t="n">
         <v>0</v>
       </c>
+      <c r="R463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -25062,6 +26453,9 @@
       <c r="Q464" t="n">
         <v>0</v>
       </c>
+      <c r="R464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -25115,6 +26509,9 @@
       <c r="Q465" t="n">
         <v>0</v>
       </c>
+      <c r="R465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -25168,6 +26565,9 @@
       <c r="Q466" t="n">
         <v>0</v>
       </c>
+      <c r="R466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -25221,6 +26621,9 @@
       <c r="Q467" t="n">
         <v>0</v>
       </c>
+      <c r="R467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -25274,6 +26677,9 @@
       <c r="Q468" t="n">
         <v>0</v>
       </c>
+      <c r="R468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -25327,6 +26733,9 @@
       <c r="Q469" t="n">
         <v>0</v>
       </c>
+      <c r="R469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -25380,6 +26789,9 @@
       <c r="Q470" t="n">
         <v>0</v>
       </c>
+      <c r="R470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -25433,6 +26845,9 @@
       <c r="Q471" t="n">
         <v>0</v>
       </c>
+      <c r="R471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -25486,6 +26901,9 @@
       <c r="Q472" t="n">
         <v>0</v>
       </c>
+      <c r="R472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -25539,6 +26957,9 @@
       <c r="Q473" t="n">
         <v>0</v>
       </c>
+      <c r="R473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -25592,6 +27013,9 @@
       <c r="Q474" t="n">
         <v>1</v>
       </c>
+      <c r="R474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -25645,6 +27069,9 @@
       <c r="Q475" t="n">
         <v>0</v>
       </c>
+      <c r="R475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -25698,6 +27125,9 @@
       <c r="Q476" t="n">
         <v>0</v>
       </c>
+      <c r="R476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -25751,6 +27181,9 @@
       <c r="Q477" t="n">
         <v>0</v>
       </c>
+      <c r="R477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -25804,6 +27237,9 @@
       <c r="Q478" t="n">
         <v>0</v>
       </c>
+      <c r="R478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -25857,6 +27293,9 @@
       <c r="Q479" t="n">
         <v>0</v>
       </c>
+      <c r="R479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -25910,6 +27349,9 @@
       <c r="Q480" t="n">
         <v>0</v>
       </c>
+      <c r="R480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -25963,6 +27405,9 @@
       <c r="Q481" t="n">
         <v>0</v>
       </c>
+      <c r="R481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -26016,6 +27461,9 @@
       <c r="Q482" t="n">
         <v>0</v>
       </c>
+      <c r="R482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -26069,6 +27517,9 @@
       <c r="Q483" t="n">
         <v>0</v>
       </c>
+      <c r="R483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -26122,6 +27573,9 @@
       <c r="Q484" t="n">
         <v>0</v>
       </c>
+      <c r="R484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -26175,6 +27629,9 @@
       <c r="Q485" t="n">
         <v>0</v>
       </c>
+      <c r="R485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -26228,6 +27685,9 @@
       <c r="Q486" t="n">
         <v>0</v>
       </c>
+      <c r="R486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -26281,6 +27741,9 @@
       <c r="Q487" t="n">
         <v>0</v>
       </c>
+      <c r="R487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -26334,6 +27797,9 @@
       <c r="Q488" t="n">
         <v>0</v>
       </c>
+      <c r="R488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -26387,6 +27853,9 @@
       <c r="Q489" t="n">
         <v>0</v>
       </c>
+      <c r="R489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -26440,6 +27909,9 @@
       <c r="Q490" t="n">
         <v>0</v>
       </c>
+      <c r="R490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -26493,6 +27965,9 @@
       <c r="Q491" t="n">
         <v>0</v>
       </c>
+      <c r="R491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -26546,6 +28021,9 @@
       <c r="Q492" t="n">
         <v>0</v>
       </c>
+      <c r="R492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -26599,6 +28077,9 @@
       <c r="Q493" t="n">
         <v>0</v>
       </c>
+      <c r="R493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -26652,6 +28133,9 @@
       <c r="Q494" t="n">
         <v>0</v>
       </c>
+      <c r="R494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -26705,6 +28189,9 @@
       <c r="Q495" t="n">
         <v>0</v>
       </c>
+      <c r="R495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -26758,6 +28245,9 @@
       <c r="Q496" t="n">
         <v>1</v>
       </c>
+      <c r="R496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -26811,6 +28301,9 @@
       <c r="Q497" t="n">
         <v>0</v>
       </c>
+      <c r="R497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -26864,6 +28357,9 @@
       <c r="Q498" t="n">
         <v>0</v>
       </c>
+      <c r="R498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -26917,6 +28413,9 @@
       <c r="Q499" t="n">
         <v>0</v>
       </c>
+      <c r="R499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -26970,6 +28469,9 @@
       <c r="Q500" t="n">
         <v>0</v>
       </c>
+      <c r="R500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -27023,6 +28525,9 @@
       <c r="Q501" t="n">
         <v>0</v>
       </c>
+      <c r="R501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -27076,6 +28581,9 @@
       <c r="Q502" t="n">
         <v>0</v>
       </c>
+      <c r="R502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -27129,6 +28637,9 @@
       <c r="Q503" t="n">
         <v>0</v>
       </c>
+      <c r="R503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -27182,6 +28693,9 @@
       <c r="Q504" t="n">
         <v>0</v>
       </c>
+      <c r="R504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -27235,6 +28749,9 @@
       <c r="Q505" t="n">
         <v>0</v>
       </c>
+      <c r="R505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -27288,6 +28805,9 @@
       <c r="Q506" t="n">
         <v>0</v>
       </c>
+      <c r="R506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -27341,6 +28861,9 @@
       <c r="Q507" t="n">
         <v>0</v>
       </c>
+      <c r="R507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -27394,6 +28917,9 @@
       <c r="Q508" t="n">
         <v>0</v>
       </c>
+      <c r="R508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -27447,6 +28973,9 @@
       <c r="Q509" t="n">
         <v>0</v>
       </c>
+      <c r="R509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -27500,6 +29029,9 @@
       <c r="Q510" t="n">
         <v>0</v>
       </c>
+      <c r="R510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -27553,6 +29085,9 @@
       <c r="Q511" t="n">
         <v>0</v>
       </c>
+      <c r="R511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -27606,6 +29141,9 @@
       <c r="Q512" t="n">
         <v>0</v>
       </c>
+      <c r="R512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -27659,6 +29197,9 @@
       <c r="Q513" t="n">
         <v>0</v>
       </c>
+      <c r="R513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -27712,6 +29253,9 @@
       <c r="Q514" t="n">
         <v>0</v>
       </c>
+      <c r="R514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -27765,6 +29309,9 @@
       <c r="Q515" t="n">
         <v>0</v>
       </c>
+      <c r="R515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -27818,6 +29365,9 @@
       <c r="Q516" t="n">
         <v>1</v>
       </c>
+      <c r="R516" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -27871,6 +29421,9 @@
       <c r="Q517" t="n">
         <v>0</v>
       </c>
+      <c r="R517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -27924,6 +29477,9 @@
       <c r="Q518" t="n">
         <v>0</v>
       </c>
+      <c r="R518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -27977,6 +29533,9 @@
       <c r="Q519" t="n">
         <v>0</v>
       </c>
+      <c r="R519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -28030,6 +29589,9 @@
       <c r="Q520" t="n">
         <v>0</v>
       </c>
+      <c r="R520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -28083,6 +29645,9 @@
       <c r="Q521" t="n">
         <v>0</v>
       </c>
+      <c r="R521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -28136,6 +29701,9 @@
       <c r="Q522" t="n">
         <v>0</v>
       </c>
+      <c r="R522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -28189,6 +29757,9 @@
       <c r="Q523" t="n">
         <v>0</v>
       </c>
+      <c r="R523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -28242,6 +29813,9 @@
       <c r="Q524" t="n">
         <v>0</v>
       </c>
+      <c r="R524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -28295,6 +29869,9 @@
       <c r="Q525" t="n">
         <v>0</v>
       </c>
+      <c r="R525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -28348,6 +29925,9 @@
       <c r="Q526" t="n">
         <v>0</v>
       </c>
+      <c r="R526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -28401,6 +29981,9 @@
       <c r="Q527" t="n">
         <v>0</v>
       </c>
+      <c r="R527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -28454,6 +30037,9 @@
       <c r="Q528" t="n">
         <v>0</v>
       </c>
+      <c r="R528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -28507,6 +30093,9 @@
       <c r="Q529" t="n">
         <v>0</v>
       </c>
+      <c r="R529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -28560,6 +30149,9 @@
       <c r="Q530" t="n">
         <v>1</v>
       </c>
+      <c r="R530" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -28613,6 +30205,9 @@
       <c r="Q531" t="n">
         <v>0</v>
       </c>
+      <c r="R531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -28666,6 +30261,9 @@
       <c r="Q532" t="n">
         <v>0</v>
       </c>
+      <c r="R532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -28719,6 +30317,9 @@
       <c r="Q533" t="n">
         <v>0</v>
       </c>
+      <c r="R533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -28772,6 +30373,9 @@
       <c r="Q534" t="n">
         <v>0</v>
       </c>
+      <c r="R534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -28825,6 +30429,9 @@
       <c r="Q535" t="n">
         <v>0</v>
       </c>
+      <c r="R535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -28878,6 +30485,9 @@
       <c r="Q536" t="n">
         <v>0</v>
       </c>
+      <c r="R536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -28931,6 +30541,9 @@
       <c r="Q537" t="n">
         <v>0</v>
       </c>
+      <c r="R537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -28984,6 +30597,9 @@
       <c r="Q538" t="n">
         <v>0</v>
       </c>
+      <c r="R538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -29037,6 +30653,9 @@
       <c r="Q539" t="n">
         <v>0</v>
       </c>
+      <c r="R539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -29090,6 +30709,9 @@
       <c r="Q540" t="n">
         <v>0</v>
       </c>
+      <c r="R540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -29143,6 +30765,9 @@
       <c r="Q541" t="n">
         <v>0</v>
       </c>
+      <c r="R541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -29196,6 +30821,9 @@
       <c r="Q542" t="n">
         <v>0</v>
       </c>
+      <c r="R542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -29249,6 +30877,9 @@
       <c r="Q543" t="n">
         <v>0</v>
       </c>
+      <c r="R543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -29302,6 +30933,9 @@
       <c r="Q544" t="n">
         <v>0</v>
       </c>
+      <c r="R544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -29355,6 +30989,9 @@
       <c r="Q545" t="n">
         <v>0</v>
       </c>
+      <c r="R545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -29408,6 +31045,9 @@
       <c r="Q546" t="n">
         <v>0</v>
       </c>
+      <c r="R546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -29461,6 +31101,9 @@
       <c r="Q547" t="n">
         <v>0</v>
       </c>
+      <c r="R547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -29514,6 +31157,9 @@
       <c r="Q548" t="n">
         <v>0</v>
       </c>
+      <c r="R548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -29567,6 +31213,9 @@
       <c r="Q549" t="n">
         <v>0</v>
       </c>
+      <c r="R549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -29620,6 +31269,9 @@
       <c r="Q550" t="n">
         <v>0</v>
       </c>
+      <c r="R550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -29673,6 +31325,9 @@
       <c r="Q551" t="n">
         <v>2</v>
       </c>
+      <c r="R551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
@@ -29726,6 +31381,9 @@
       <c r="Q552" t="n">
         <v>0</v>
       </c>
+      <c r="R552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -29779,6 +31437,9 @@
       <c r="Q553" t="n">
         <v>0</v>
       </c>
+      <c r="R553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -29832,6 +31493,9 @@
       <c r="Q554" t="n">
         <v>0</v>
       </c>
+      <c r="R554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -29885,6 +31549,9 @@
       <c r="Q555" t="n">
         <v>0</v>
       </c>
+      <c r="R555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -29938,6 +31605,9 @@
       <c r="Q556" t="n">
         <v>0</v>
       </c>
+      <c r="R556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -29991,6 +31661,9 @@
       <c r="Q557" t="n">
         <v>0</v>
       </c>
+      <c r="R557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
@@ -30044,6 +31717,9 @@
       <c r="Q558" t="n">
         <v>0</v>
       </c>
+      <c r="R558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -30097,6 +31773,9 @@
       <c r="Q559" t="n">
         <v>0</v>
       </c>
+      <c r="R559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -30150,6 +31829,9 @@
       <c r="Q560" t="n">
         <v>0</v>
       </c>
+      <c r="R560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -30203,6 +31885,9 @@
       <c r="Q561" t="n">
         <v>0</v>
       </c>
+      <c r="R561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -30256,6 +31941,9 @@
       <c r="Q562" t="n">
         <v>0</v>
       </c>
+      <c r="R562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -30309,6 +31997,9 @@
       <c r="Q563" t="n">
         <v>0</v>
       </c>
+      <c r="R563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -30362,6 +32053,9 @@
       <c r="Q564" t="n">
         <v>0</v>
       </c>
+      <c r="R564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -30415,6 +32109,9 @@
       <c r="Q565" t="n">
         <v>0</v>
       </c>
+      <c r="R565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -30468,6 +32165,9 @@
       <c r="Q566" t="n">
         <v>0</v>
       </c>
+      <c r="R566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
@@ -30521,6 +32221,9 @@
       <c r="Q567" t="n">
         <v>0</v>
       </c>
+      <c r="R567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
@@ -30574,6 +32277,9 @@
       <c r="Q568" t="n">
         <v>0</v>
       </c>
+      <c r="R568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -30627,6 +32333,9 @@
       <c r="Q569" t="n">
         <v>0</v>
       </c>
+      <c r="R569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -30680,6 +32389,9 @@
       <c r="Q570" t="n">
         <v>0</v>
       </c>
+      <c r="R570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -30733,6 +32445,9 @@
       <c r="Q571" t="n">
         <v>0</v>
       </c>
+      <c r="R571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -30786,6 +32501,9 @@
       <c r="Q572" t="n">
         <v>0</v>
       </c>
+      <c r="R572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -30839,6 +32557,9 @@
       <c r="Q573" t="n">
         <v>0</v>
       </c>
+      <c r="R573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -30892,6 +32613,9 @@
       <c r="Q574" t="n">
         <v>0</v>
       </c>
+      <c r="R574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -30945,6 +32669,9 @@
       <c r="Q575" t="n">
         <v>0</v>
       </c>
+      <c r="R575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -30998,6 +32725,9 @@
       <c r="Q576" t="n">
         <v>0</v>
       </c>
+      <c r="R576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
@@ -31051,6 +32781,9 @@
       <c r="Q577" t="n">
         <v>1</v>
       </c>
+      <c r="R577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -31104,6 +32837,9 @@
       <c r="Q578" t="n">
         <v>0</v>
       </c>
+      <c r="R578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -31157,6 +32893,9 @@
       <c r="Q579" t="n">
         <v>0</v>
       </c>
+      <c r="R579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -31210,6 +32949,9 @@
       <c r="Q580" t="n">
         <v>0</v>
       </c>
+      <c r="R580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -31263,6 +33005,9 @@
       <c r="Q581" t="n">
         <v>0</v>
       </c>
+      <c r="R581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
@@ -31316,6 +33061,9 @@
       <c r="Q582" t="n">
         <v>0</v>
       </c>
+      <c r="R582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -31369,6 +33117,9 @@
       <c r="Q583" t="n">
         <v>0</v>
       </c>
+      <c r="R583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -31422,6 +33173,9 @@
       <c r="Q584" t="n">
         <v>0</v>
       </c>
+      <c r="R584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -31475,6 +33229,9 @@
       <c r="Q585" t="n">
         <v>0</v>
       </c>
+      <c r="R585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
@@ -31528,6 +33285,9 @@
       <c r="Q586" t="n">
         <v>2</v>
       </c>
+      <c r="R586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -31581,6 +33341,9 @@
       <c r="Q587" t="n">
         <v>0</v>
       </c>
+      <c r="R587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -31634,6 +33397,9 @@
       <c r="Q588" t="n">
         <v>0</v>
       </c>
+      <c r="R588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -31687,6 +33453,9 @@
       <c r="Q589" t="n">
         <v>0</v>
       </c>
+      <c r="R589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -31740,6 +33509,9 @@
       <c r="Q590" t="n">
         <v>0</v>
       </c>
+      <c r="R590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -31793,6 +33565,9 @@
       <c r="Q591" t="n">
         <v>0</v>
       </c>
+      <c r="R591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -31846,6 +33621,9 @@
       <c r="Q592" t="n">
         <v>0</v>
       </c>
+      <c r="R592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -31899,6 +33677,9 @@
       <c r="Q593" t="n">
         <v>0</v>
       </c>
+      <c r="R593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -31952,6 +33733,9 @@
       <c r="Q594" t="n">
         <v>0</v>
       </c>
+      <c r="R594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
@@ -32005,6 +33789,9 @@
       <c r="Q595" t="n">
         <v>0</v>
       </c>
+      <c r="R595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
@@ -32058,6 +33845,9 @@
       <c r="Q596" t="n">
         <v>0</v>
       </c>
+      <c r="R596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -32111,6 +33901,9 @@
       <c r="Q597" t="n">
         <v>0</v>
       </c>
+      <c r="R597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -32164,6 +33957,9 @@
       <c r="Q598" t="n">
         <v>0</v>
       </c>
+      <c r="R598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
@@ -32217,6 +34013,9 @@
       <c r="Q599" t="n">
         <v>0</v>
       </c>
+      <c r="R599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -32270,6 +34069,9 @@
       <c r="Q600" t="n">
         <v>0</v>
       </c>
+      <c r="R600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
@@ -32323,6 +34125,9 @@
       <c r="Q601" t="n">
         <v>0</v>
       </c>
+      <c r="R601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
@@ -32376,6 +34181,9 @@
       <c r="Q602" t="n">
         <v>0</v>
       </c>
+      <c r="R602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -32429,6 +34237,9 @@
       <c r="Q603" t="n">
         <v>0</v>
       </c>
+      <c r="R603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -32482,6 +34293,9 @@
       <c r="Q604" t="n">
         <v>0</v>
       </c>
+      <c r="R604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -32535,6 +34349,9 @@
       <c r="Q605" t="n">
         <v>0</v>
       </c>
+      <c r="R605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
@@ -32588,6 +34405,9 @@
       <c r="Q606" t="n">
         <v>0</v>
       </c>
+      <c r="R606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -32641,6 +34461,9 @@
       <c r="Q607" t="n">
         <v>0</v>
       </c>
+      <c r="R607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -32694,6 +34517,9 @@
       <c r="Q608" t="n">
         <v>0</v>
       </c>
+      <c r="R608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -32747,6 +34573,9 @@
       <c r="Q609" t="n">
         <v>0</v>
       </c>
+      <c r="R609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -32800,6 +34629,9 @@
       <c r="Q610" t="n">
         <v>0</v>
       </c>
+      <c r="R610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
@@ -32853,6 +34685,9 @@
       <c r="Q611" t="n">
         <v>0</v>
       </c>
+      <c r="R611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
@@ -32906,6 +34741,9 @@
       <c r="Q612" t="n">
         <v>0</v>
       </c>
+      <c r="R612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
@@ -32959,6 +34797,9 @@
       <c r="Q613" t="n">
         <v>0</v>
       </c>
+      <c r="R613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
@@ -33012,6 +34853,9 @@
       <c r="Q614" t="n">
         <v>0</v>
       </c>
+      <c r="R614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
@@ -33065,6 +34909,9 @@
       <c r="Q615" t="n">
         <v>0</v>
       </c>
+      <c r="R615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
@@ -33118,6 +34965,9 @@
       <c r="Q616" t="n">
         <v>0</v>
       </c>
+      <c r="R616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
@@ -33171,6 +35021,9 @@
       <c r="Q617" t="n">
         <v>0</v>
       </c>
+      <c r="R617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
@@ -33224,6 +35077,9 @@
       <c r="Q618" t="n">
         <v>0</v>
       </c>
+      <c r="R618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
@@ -33277,6 +35133,9 @@
       <c r="Q619" t="n">
         <v>0</v>
       </c>
+      <c r="R619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
@@ -33330,6 +35189,9 @@
       <c r="Q620" t="n">
         <v>2</v>
       </c>
+      <c r="R620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
@@ -33383,6 +35245,9 @@
       <c r="Q621" t="n">
         <v>0</v>
       </c>
+      <c r="R621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
@@ -33436,6 +35301,9 @@
       <c r="Q622" t="n">
         <v>0</v>
       </c>
+      <c r="R622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
@@ -33489,6 +35357,9 @@
       <c r="Q623" t="n">
         <v>0</v>
       </c>
+      <c r="R623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
@@ -33542,6 +35413,9 @@
       <c r="Q624" t="n">
         <v>0</v>
       </c>
+      <c r="R624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
@@ -33595,6 +35469,9 @@
       <c r="Q625" t="n">
         <v>0</v>
       </c>
+      <c r="R625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
@@ -33648,6 +35525,9 @@
       <c r="Q626" t="n">
         <v>0</v>
       </c>
+      <c r="R626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
@@ -33701,6 +35581,9 @@
       <c r="Q627" t="n">
         <v>0</v>
       </c>
+      <c r="R627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
@@ -33754,6 +35637,9 @@
       <c r="Q628" t="n">
         <v>0</v>
       </c>
+      <c r="R628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
@@ -33807,6 +35693,9 @@
       <c r="Q629" t="n">
         <v>0</v>
       </c>
+      <c r="R629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
@@ -33860,6 +35749,9 @@
       <c r="Q630" t="n">
         <v>0</v>
       </c>
+      <c r="R630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
@@ -33913,6 +35805,9 @@
       <c r="Q631" t="n">
         <v>0</v>
       </c>
+      <c r="R631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
@@ -33966,6 +35861,9 @@
       <c r="Q632" t="n">
         <v>0</v>
       </c>
+      <c r="R632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
@@ -34019,6 +35917,9 @@
       <c r="Q633" t="n">
         <v>2</v>
       </c>
+      <c r="R633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
@@ -34072,6 +35973,9 @@
       <c r="Q634" t="n">
         <v>0</v>
       </c>
+      <c r="R634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
@@ -34125,6 +36029,9 @@
       <c r="Q635" t="n">
         <v>0</v>
       </c>
+      <c r="R635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
@@ -34178,6 +36085,9 @@
       <c r="Q636" t="n">
         <v>0</v>
       </c>
+      <c r="R636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
@@ -34231,6 +36141,9 @@
       <c r="Q637" t="n">
         <v>0</v>
       </c>
+      <c r="R637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
@@ -34284,6 +36197,9 @@
       <c r="Q638" t="n">
         <v>0</v>
       </c>
+      <c r="R638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
@@ -34337,6 +36253,9 @@
       <c r="Q639" t="n">
         <v>0</v>
       </c>
+      <c r="R639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
@@ -34390,6 +36309,9 @@
       <c r="Q640" t="n">
         <v>0</v>
       </c>
+      <c r="R640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
@@ -34443,6 +36365,9 @@
       <c r="Q641" t="n">
         <v>0</v>
       </c>
+      <c r="R641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
@@ -34496,6 +36421,9 @@
       <c r="Q642" t="n">
         <v>0</v>
       </c>
+      <c r="R642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
@@ -34549,6 +36477,9 @@
       <c r="Q643" t="n">
         <v>0</v>
       </c>
+      <c r="R643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
@@ -34602,6 +36533,9 @@
       <c r="Q644" t="n">
         <v>0</v>
       </c>
+      <c r="R644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
@@ -34655,6 +36589,9 @@
       <c r="Q645" t="n">
         <v>0</v>
       </c>
+      <c r="R645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
@@ -34708,6 +36645,9 @@
       <c r="Q646" t="n">
         <v>0</v>
       </c>
+      <c r="R646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
@@ -34761,6 +36701,9 @@
       <c r="Q647" t="n">
         <v>0</v>
       </c>
+      <c r="R647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
@@ -34814,6 +36757,9 @@
       <c r="Q648" t="n">
         <v>0</v>
       </c>
+      <c r="R648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
@@ -34867,6 +36813,9 @@
       <c r="Q649" t="n">
         <v>0</v>
       </c>
+      <c r="R649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
@@ -34920,6 +36869,9 @@
       <c r="Q650" t="n">
         <v>0</v>
       </c>
+      <c r="R650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
@@ -34973,6 +36925,9 @@
       <c r="Q651" t="n">
         <v>0</v>
       </c>
+      <c r="R651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
@@ -35026,6 +36981,9 @@
       <c r="Q652" t="n">
         <v>0</v>
       </c>
+      <c r="R652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
@@ -35079,6 +37037,9 @@
       <c r="Q653" t="n">
         <v>0</v>
       </c>
+      <c r="R653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
@@ -35132,6 +37093,9 @@
       <c r="Q654" t="n">
         <v>0</v>
       </c>
+      <c r="R654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
@@ -35185,6 +37149,9 @@
       <c r="Q655" t="n">
         <v>0</v>
       </c>
+      <c r="R655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
@@ -35238,6 +37205,9 @@
       <c r="Q656" t="n">
         <v>0</v>
       </c>
+      <c r="R656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
@@ -35291,6 +37261,9 @@
       <c r="Q657" t="n">
         <v>0</v>
       </c>
+      <c r="R657" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
@@ -35344,6 +37317,9 @@
       <c r="Q658" t="n">
         <v>0</v>
       </c>
+      <c r="R658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
@@ -35397,6 +37373,9 @@
       <c r="Q659" t="n">
         <v>0</v>
       </c>
+      <c r="R659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
@@ -35450,6 +37429,9 @@
       <c r="Q660" t="n">
         <v>0</v>
       </c>
+      <c r="R660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
@@ -35503,6 +37485,9 @@
       <c r="Q661" t="n">
         <v>0</v>
       </c>
+      <c r="R661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
@@ -35556,6 +37541,9 @@
       <c r="Q662" t="n">
         <v>0</v>
       </c>
+      <c r="R662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
@@ -35609,6 +37597,9 @@
       <c r="Q663" t="n">
         <v>0</v>
       </c>
+      <c r="R663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
@@ -35662,6 +37653,9 @@
       <c r="Q664" t="n">
         <v>0</v>
       </c>
+      <c r="R664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
@@ -35715,6 +37709,9 @@
       <c r="Q665" t="n">
         <v>0</v>
       </c>
+      <c r="R665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
@@ -35768,6 +37765,9 @@
       <c r="Q666" t="n">
         <v>0</v>
       </c>
+      <c r="R666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
@@ -35821,6 +37821,9 @@
       <c r="Q667" t="n">
         <v>0</v>
       </c>
+      <c r="R667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
@@ -35874,6 +37877,9 @@
       <c r="Q668" t="n">
         <v>0</v>
       </c>
+      <c r="R668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
@@ -35927,6 +37933,9 @@
       <c r="Q669" t="n">
         <v>0</v>
       </c>
+      <c r="R669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
@@ -35980,6 +37989,9 @@
       <c r="Q670" t="n">
         <v>0</v>
       </c>
+      <c r="R670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
@@ -36033,6 +38045,9 @@
       <c r="Q671" t="n">
         <v>0</v>
       </c>
+      <c r="R671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
@@ -36086,6 +38101,9 @@
       <c r="Q672" t="n">
         <v>0</v>
       </c>
+      <c r="R672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
@@ -36139,6 +38157,9 @@
       <c r="Q673" t="n">
         <v>0</v>
       </c>
+      <c r="R673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
@@ -36192,6 +38213,9 @@
       <c r="Q674" t="n">
         <v>0</v>
       </c>
+      <c r="R674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
@@ -36245,6 +38269,9 @@
       <c r="Q675" t="n">
         <v>0</v>
       </c>
+      <c r="R675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
@@ -36298,6 +38325,9 @@
       <c r="Q676" t="n">
         <v>0</v>
       </c>
+      <c r="R676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
@@ -36351,6 +38381,9 @@
       <c r="Q677" t="n">
         <v>0</v>
       </c>
+      <c r="R677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
@@ -36404,6 +38437,9 @@
       <c r="Q678" t="n">
         <v>0</v>
       </c>
+      <c r="R678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
@@ -36457,6 +38493,9 @@
       <c r="Q679" t="n">
         <v>0</v>
       </c>
+      <c r="R679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
@@ -36510,6 +38549,9 @@
       <c r="Q680" t="n">
         <v>0</v>
       </c>
+      <c r="R680" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
@@ -36563,6 +38605,9 @@
       <c r="Q681" t="n">
         <v>0</v>
       </c>
+      <c r="R681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
@@ -36616,6 +38661,9 @@
       <c r="Q682" t="n">
         <v>0</v>
       </c>
+      <c r="R682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
@@ -36669,6 +38717,9 @@
       <c r="Q683" t="n">
         <v>0</v>
       </c>
+      <c r="R683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
@@ -36722,6 +38773,9 @@
       <c r="Q684" t="n">
         <v>0</v>
       </c>
+      <c r="R684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
@@ -36775,6 +38829,9 @@
       <c r="Q685" t="n">
         <v>0</v>
       </c>
+      <c r="R685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
@@ -36828,6 +38885,9 @@
       <c r="Q686" t="n">
         <v>0</v>
       </c>
+      <c r="R686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
@@ -36881,6 +38941,9 @@
       <c r="Q687" t="n">
         <v>0</v>
       </c>
+      <c r="R687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
@@ -36934,6 +38997,9 @@
       <c r="Q688" t="n">
         <v>0</v>
       </c>
+      <c r="R688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
@@ -36987,6 +39053,9 @@
       <c r="Q689" t="n">
         <v>0</v>
       </c>
+      <c r="R689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
@@ -37040,6 +39109,9 @@
       <c r="Q690" t="n">
         <v>2</v>
       </c>
+      <c r="R690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
@@ -37093,6 +39165,9 @@
       <c r="Q691" t="n">
         <v>0</v>
       </c>
+      <c r="R691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
@@ -37146,6 +39221,9 @@
       <c r="Q692" t="n">
         <v>0</v>
       </c>
+      <c r="R692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
@@ -37199,6 +39277,9 @@
       <c r="Q693" t="n">
         <v>0</v>
       </c>
+      <c r="R693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
@@ -37252,6 +39333,9 @@
       <c r="Q694" t="n">
         <v>0</v>
       </c>
+      <c r="R694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
@@ -37305,6 +39389,9 @@
       <c r="Q695" t="n">
         <v>0</v>
       </c>
+      <c r="R695" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
@@ -37358,6 +39445,9 @@
       <c r="Q696" t="n">
         <v>0</v>
       </c>
+      <c r="R696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
@@ -37411,6 +39501,9 @@
       <c r="Q697" t="n">
         <v>0</v>
       </c>
+      <c r="R697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
@@ -37464,6 +39557,9 @@
       <c r="Q698" t="n">
         <v>0</v>
       </c>
+      <c r="R698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
@@ -37517,6 +39613,9 @@
       <c r="Q699" t="n">
         <v>0</v>
       </c>
+      <c r="R699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
@@ -37570,6 +39669,9 @@
       <c r="Q700" t="n">
         <v>0</v>
       </c>
+      <c r="R700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
@@ -37623,6 +39725,9 @@
       <c r="Q701" t="n">
         <v>0</v>
       </c>
+      <c r="R701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
@@ -37676,6 +39781,9 @@
       <c r="Q702" t="n">
         <v>0</v>
       </c>
+      <c r="R702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
@@ -37729,6 +39837,9 @@
       <c r="Q703" t="n">
         <v>0</v>
       </c>
+      <c r="R703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
@@ -37782,6 +39893,9 @@
       <c r="Q704" t="n">
         <v>0</v>
       </c>
+      <c r="R704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
@@ -37835,6 +39949,9 @@
       <c r="Q705" t="n">
         <v>0</v>
       </c>
+      <c r="R705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
@@ -37888,6 +40005,9 @@
       <c r="Q706" t="n">
         <v>0</v>
       </c>
+      <c r="R706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
@@ -37941,6 +40061,9 @@
       <c r="Q707" t="n">
         <v>0</v>
       </c>
+      <c r="R707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
@@ -37994,6 +40117,9 @@
       <c r="Q708" t="n">
         <v>0</v>
       </c>
+      <c r="R708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
@@ -38047,6 +40173,9 @@
       <c r="Q709" t="n">
         <v>2</v>
       </c>
+      <c r="R709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
@@ -38100,6 +40229,9 @@
       <c r="Q710" t="n">
         <v>0</v>
       </c>
+      <c r="R710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
@@ -38153,6 +40285,9 @@
       <c r="Q711" t="n">
         <v>0</v>
       </c>
+      <c r="R711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
@@ -38206,6 +40341,9 @@
       <c r="Q712" t="n">
         <v>0</v>
       </c>
+      <c r="R712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
@@ -38259,6 +40397,9 @@
       <c r="Q713" t="n">
         <v>0</v>
       </c>
+      <c r="R713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
@@ -38312,6 +40453,9 @@
       <c r="Q714" t="n">
         <v>0</v>
       </c>
+      <c r="R714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
@@ -38365,6 +40509,9 @@
       <c r="Q715" t="n">
         <v>0</v>
       </c>
+      <c r="R715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
@@ -38418,6 +40565,9 @@
       <c r="Q716" t="n">
         <v>0</v>
       </c>
+      <c r="R716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
@@ -38471,6 +40621,9 @@
       <c r="Q717" t="n">
         <v>0</v>
       </c>
+      <c r="R717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
@@ -38524,6 +40677,9 @@
       <c r="Q718" t="n">
         <v>0</v>
       </c>
+      <c r="R718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
@@ -38577,6 +40733,9 @@
       <c r="Q719" t="n">
         <v>0</v>
       </c>
+      <c r="R719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
@@ -38630,6 +40789,9 @@
       <c r="Q720" t="n">
         <v>0</v>
       </c>
+      <c r="R720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
@@ -38683,6 +40845,9 @@
       <c r="Q721" t="n">
         <v>0</v>
       </c>
+      <c r="R721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
@@ -38736,6 +40901,9 @@
       <c r="Q722" t="n">
         <v>0</v>
       </c>
+      <c r="R722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
@@ -38789,6 +40957,9 @@
       <c r="Q723" t="n">
         <v>0</v>
       </c>
+      <c r="R723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
@@ -38842,6 +41013,9 @@
       <c r="Q724" t="n">
         <v>0</v>
       </c>
+      <c r="R724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
@@ -38895,6 +41069,9 @@
       <c r="Q725" t="n">
         <v>0</v>
       </c>
+      <c r="R725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
@@ -38948,6 +41125,9 @@
       <c r="Q726" t="n">
         <v>0</v>
       </c>
+      <c r="R726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
@@ -39001,6 +41181,9 @@
       <c r="Q727" t="n">
         <v>0</v>
       </c>
+      <c r="R727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
@@ -39054,6 +41237,9 @@
       <c r="Q728" t="n">
         <v>0</v>
       </c>
+      <c r="R728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
@@ -39107,6 +41293,9 @@
       <c r="Q729" t="n">
         <v>0</v>
       </c>
+      <c r="R729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
@@ -39160,6 +41349,9 @@
       <c r="Q730" t="n">
         <v>0</v>
       </c>
+      <c r="R730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
@@ -39213,6 +41405,9 @@
       <c r="Q731" t="n">
         <v>0</v>
       </c>
+      <c r="R731" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
@@ -39266,6 +41461,9 @@
       <c r="Q732" t="n">
         <v>0</v>
       </c>
+      <c r="R732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
@@ -39319,6 +41517,9 @@
       <c r="Q733" t="n">
         <v>0</v>
       </c>
+      <c r="R733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
@@ -39372,6 +41573,9 @@
       <c r="Q734" t="n">
         <v>0</v>
       </c>
+      <c r="R734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
@@ -39425,6 +41629,9 @@
       <c r="Q735" t="n">
         <v>0</v>
       </c>
+      <c r="R735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
@@ -39478,6 +41685,9 @@
       <c r="Q736" t="n">
         <v>0</v>
       </c>
+      <c r="R736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
@@ -39531,6 +41741,9 @@
       <c r="Q737" t="n">
         <v>0</v>
       </c>
+      <c r="R737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
@@ -39584,6 +41797,9 @@
       <c r="Q738" t="n">
         <v>0</v>
       </c>
+      <c r="R738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
@@ -39637,6 +41853,9 @@
       <c r="Q739" t="n">
         <v>0</v>
       </c>
+      <c r="R739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
@@ -39690,6 +41909,9 @@
       <c r="Q740" t="n">
         <v>0</v>
       </c>
+      <c r="R740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
@@ -39743,6 +41965,9 @@
       <c r="Q741" t="n">
         <v>0</v>
       </c>
+      <c r="R741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
@@ -39796,6 +42021,9 @@
       <c r="Q742" t="n">
         <v>0</v>
       </c>
+      <c r="R742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
@@ -39849,6 +42077,9 @@
       <c r="Q743" t="n">
         <v>0</v>
       </c>
+      <c r="R743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
@@ -39902,6 +42133,9 @@
       <c r="Q744" t="n">
         <v>0</v>
       </c>
+      <c r="R744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
@@ -39955,6 +42189,9 @@
       <c r="Q745" t="n">
         <v>0</v>
       </c>
+      <c r="R745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
@@ -40008,6 +42245,9 @@
       <c r="Q746" t="n">
         <v>0</v>
       </c>
+      <c r="R746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
@@ -40061,6 +42301,9 @@
       <c r="Q747" t="n">
         <v>0</v>
       </c>
+      <c r="R747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
@@ -40114,6 +42357,9 @@
       <c r="Q748" t="n">
         <v>0</v>
       </c>
+      <c r="R748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
@@ -40167,6 +42413,9 @@
       <c r="Q749" t="n">
         <v>0</v>
       </c>
+      <c r="R749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
@@ -40220,6 +42469,9 @@
       <c r="Q750" t="n">
         <v>0</v>
       </c>
+      <c r="R750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
@@ -40273,6 +42525,9 @@
       <c r="Q751" t="n">
         <v>0</v>
       </c>
+      <c r="R751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
@@ -40326,6 +42581,9 @@
       <c r="Q752" t="n">
         <v>0</v>
       </c>
+      <c r="R752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
@@ -40379,6 +42637,9 @@
       <c r="Q753" t="n">
         <v>0</v>
       </c>
+      <c r="R753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
@@ -40432,6 +42693,9 @@
       <c r="Q754" t="n">
         <v>0</v>
       </c>
+      <c r="R754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
@@ -40485,6 +42749,9 @@
       <c r="Q755" t="n">
         <v>0</v>
       </c>
+      <c r="R755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
@@ -40538,6 +42805,9 @@
       <c r="Q756" t="n">
         <v>0</v>
       </c>
+      <c r="R756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
@@ -40591,6 +42861,9 @@
       <c r="Q757" t="n">
         <v>0</v>
       </c>
+      <c r="R757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
@@ -40644,6 +42917,9 @@
       <c r="Q758" t="n">
         <v>0</v>
       </c>
+      <c r="R758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
@@ -40697,6 +42973,9 @@
       <c r="Q759" t="n">
         <v>0</v>
       </c>
+      <c r="R759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
@@ -40750,6 +43029,9 @@
       <c r="Q760" t="n">
         <v>0</v>
       </c>
+      <c r="R760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
@@ -40803,6 +43085,9 @@
       <c r="Q761" t="n">
         <v>0</v>
       </c>
+      <c r="R761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
@@ -40856,6 +43141,9 @@
       <c r="Q762" t="n">
         <v>0</v>
       </c>
+      <c r="R762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
@@ -40909,6 +43197,9 @@
       <c r="Q763" t="n">
         <v>0</v>
       </c>
+      <c r="R763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
@@ -40962,6 +43253,9 @@
       <c r="Q764" t="n">
         <v>0</v>
       </c>
+      <c r="R764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
@@ -41015,6 +43309,9 @@
       <c r="Q765" t="n">
         <v>0</v>
       </c>
+      <c r="R765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
@@ -41068,6 +43365,9 @@
       <c r="Q766" t="n">
         <v>0</v>
       </c>
+      <c r="R766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
@@ -41121,6 +43421,9 @@
       <c r="Q767" t="n">
         <v>0</v>
       </c>
+      <c r="R767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
@@ -41174,6 +43477,9 @@
       <c r="Q768" t="n">
         <v>0</v>
       </c>
+      <c r="R768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
@@ -41227,6 +43533,9 @@
       <c r="Q769" t="n">
         <v>0</v>
       </c>
+      <c r="R769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
@@ -41280,6 +43589,9 @@
       <c r="Q770" t="n">
         <v>0</v>
       </c>
+      <c r="R770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
@@ -41333,6 +43645,9 @@
       <c r="Q771" t="n">
         <v>0</v>
       </c>
+      <c r="R771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
@@ -41386,6 +43701,9 @@
       <c r="Q772" t="n">
         <v>0</v>
       </c>
+      <c r="R772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
@@ -41439,6 +43757,9 @@
       <c r="Q773" t="n">
         <v>0</v>
       </c>
+      <c r="R773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
@@ -41492,6 +43813,9 @@
       <c r="Q774" t="n">
         <v>0</v>
       </c>
+      <c r="R774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
@@ -41545,6 +43869,9 @@
       <c r="Q775" t="n">
         <v>0</v>
       </c>
+      <c r="R775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
@@ -41598,6 +43925,9 @@
       <c r="Q776" t="n">
         <v>0</v>
       </c>
+      <c r="R776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
@@ -41651,6 +43981,9 @@
       <c r="Q777" t="n">
         <v>0</v>
       </c>
+      <c r="R777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
@@ -41704,6 +44037,9 @@
       <c r="Q778" t="n">
         <v>0</v>
       </c>
+      <c r="R778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
@@ -41757,6 +44093,9 @@
       <c r="Q779" t="n">
         <v>0</v>
       </c>
+      <c r="R779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
@@ -41810,6 +44149,9 @@
       <c r="Q780" t="n">
         <v>0</v>
       </c>
+      <c r="R780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
@@ -41863,6 +44205,9 @@
       <c r="Q781" t="n">
         <v>0</v>
       </c>
+      <c r="R781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
@@ -41916,6 +44261,9 @@
       <c r="Q782" t="n">
         <v>0</v>
       </c>
+      <c r="R782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
@@ -41969,6 +44317,9 @@
       <c r="Q783" t="n">
         <v>0</v>
       </c>
+      <c r="R783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
@@ -42022,6 +44373,9 @@
       <c r="Q784" t="n">
         <v>0</v>
       </c>
+      <c r="R784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
@@ -42075,6 +44429,9 @@
       <c r="Q785" t="n">
         <v>0</v>
       </c>
+      <c r="R785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
@@ -42128,6 +44485,9 @@
       <c r="Q786" t="n">
         <v>0</v>
       </c>
+      <c r="R786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
@@ -42181,6 +44541,9 @@
       <c r="Q787" t="n">
         <v>0</v>
       </c>
+      <c r="R787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
@@ -42234,6 +44597,9 @@
       <c r="Q788" t="n">
         <v>0</v>
       </c>
+      <c r="R788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
@@ -42287,6 +44653,9 @@
       <c r="Q789" t="n">
         <v>0</v>
       </c>
+      <c r="R789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
@@ -42340,6 +44709,9 @@
       <c r="Q790" t="n">
         <v>0</v>
       </c>
+      <c r="R790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
@@ -42393,6 +44765,9 @@
       <c r="Q791" t="n">
         <v>0</v>
       </c>
+      <c r="R791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
@@ -42446,6 +44821,9 @@
       <c r="Q792" t="n">
         <v>0</v>
       </c>
+      <c r="R792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
@@ -42499,6 +44877,9 @@
       <c r="Q793" t="n">
         <v>0</v>
       </c>
+      <c r="R793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
@@ -42552,6 +44933,9 @@
       <c r="Q794" t="n">
         <v>2</v>
       </c>
+      <c r="R794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
@@ -42605,6 +44989,279 @@
       <c r="Q795" t="n">
         <v>0</v>
       </c>
+      <c r="R795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B796" t="n">
+        <v>42.20000076293945</v>
+      </c>
+      <c r="C796" t="n">
+        <v>42.54999923706055</v>
+      </c>
+      <c r="D796" t="n">
+        <v>41.84999847412109</v>
+      </c>
+      <c r="E796" t="n">
+        <v>41.90000152587891</v>
+      </c>
+      <c r="F796" t="n">
+        <v>41.90000152587891</v>
+      </c>
+      <c r="G796" t="n">
+        <v>8597211</v>
+      </c>
+      <c r="H796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I796" t="n">
+        <v>6</v>
+      </c>
+      <c r="J796" t="n">
+        <v>10</v>
+      </c>
+      <c r="K796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N796" t="n">
+        <v>24</v>
+      </c>
+      <c r="O796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B797" t="n">
+        <v>42.34999847412109</v>
+      </c>
+      <c r="C797" t="n">
+        <v>42.56000137329102</v>
+      </c>
+      <c r="D797" t="n">
+        <v>41.81999969482422</v>
+      </c>
+      <c r="E797" t="n">
+        <v>42.11000061035156</v>
+      </c>
+      <c r="F797" t="n">
+        <v>42.11000061035156</v>
+      </c>
+      <c r="G797" t="n">
+        <v>4876845</v>
+      </c>
+      <c r="H797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I797" t="n">
+        <v>6</v>
+      </c>
+      <c r="J797" t="n">
+        <v>11</v>
+      </c>
+      <c r="K797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N797" t="n">
+        <v>24</v>
+      </c>
+      <c r="O797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B798" t="n">
+        <v>42.20999908447266</v>
+      </c>
+      <c r="C798" t="n">
+        <v>42.59000015258789</v>
+      </c>
+      <c r="D798" t="n">
+        <v>42.13999938964844</v>
+      </c>
+      <c r="E798" t="n">
+        <v>42.38999938964844</v>
+      </c>
+      <c r="F798" t="n">
+        <v>42.38999938964844</v>
+      </c>
+      <c r="G798" t="n">
+        <v>5996556</v>
+      </c>
+      <c r="H798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I798" t="n">
+        <v>6</v>
+      </c>
+      <c r="J798" t="n">
+        <v>12</v>
+      </c>
+      <c r="K798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N798" t="n">
+        <v>24</v>
+      </c>
+      <c r="O798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B799" t="n">
+        <v>42.59999847412109</v>
+      </c>
+      <c r="C799" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="D799" t="n">
+        <v>42.0099983215332</v>
+      </c>
+      <c r="E799" t="n">
+        <v>42.33000183105469</v>
+      </c>
+      <c r="F799" t="n">
+        <v>42.33000183105469</v>
+      </c>
+      <c r="G799" t="n">
+        <v>6172377</v>
+      </c>
+      <c r="H799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I799" t="n">
+        <v>6</v>
+      </c>
+      <c r="J799" t="n">
+        <v>13</v>
+      </c>
+      <c r="K799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N799" t="n">
+        <v>24</v>
+      </c>
+      <c r="O799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B800" t="n">
+        <v>42.47000122070312</v>
+      </c>
+      <c r="C800" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D800" t="n">
+        <v>42.13000106811523</v>
+      </c>
+      <c r="E800" t="n">
+        <v>42.22999954223633</v>
+      </c>
+      <c r="F800" t="n">
+        <v>42.22999954223633</v>
+      </c>
+      <c r="G800" t="n">
+        <v>5353260</v>
+      </c>
+      <c r="H800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I800" t="n">
+        <v>6</v>
+      </c>
+      <c r="J800" t="n">
+        <v>14</v>
+      </c>
+      <c r="K800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N800" t="n">
+        <v>24</v>
+      </c>
+      <c r="O800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R800" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -45045,7 +45045,9 @@
       <c r="Q796" t="n">
         <v>0</v>
       </c>
-      <c r="R796" t="inlineStr"/>
+      <c r="R796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
@@ -45099,7 +45101,9 @@
       <c r="Q797" t="n">
         <v>0</v>
       </c>
-      <c r="R797" t="inlineStr"/>
+      <c r="R797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
@@ -45153,7 +45157,9 @@
       <c r="Q798" t="n">
         <v>0</v>
       </c>
-      <c r="R798" t="inlineStr"/>
+      <c r="R798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
@@ -45207,7 +45213,9 @@
       <c r="Q799" t="n">
         <v>0</v>
       </c>
-      <c r="R799" t="inlineStr"/>
+      <c r="R799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
@@ -45261,7 +45269,9 @@
       <c r="Q800" t="n">
         <v>0</v>
       </c>
-      <c r="R800" t="inlineStr"/>
+      <c r="R800" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R800"/>
+  <dimension ref="A1:R801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45273,6 +45273,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="801">
+      <c r="A801" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B801" t="n">
+        <v>42.40000152587891</v>
+      </c>
+      <c r="C801" t="n">
+        <v>44.20000076293945</v>
+      </c>
+      <c r="D801" t="n">
+        <v>42.02999877929688</v>
+      </c>
+      <c r="E801" t="n">
+        <v>43.41999816894531</v>
+      </c>
+      <c r="F801" t="n">
+        <v>43.41999816894531</v>
+      </c>
+      <c r="G801" t="n">
+        <v>21436948</v>
+      </c>
+      <c r="H801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I801" t="n">
+        <v>6</v>
+      </c>
+      <c r="J801" t="n">
+        <v>18</v>
+      </c>
+      <c r="K801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N801" t="n">
+        <v>25</v>
+      </c>
+      <c r="O801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R801" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R801"/>
+  <dimension ref="A1:R802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44813,7 +44813,7 @@
         <v>23</v>
       </c>
       <c r="O792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P792" t="n">
         <v>0</v>
@@ -45325,7 +45325,63 @@
       <c r="Q801" t="n">
         <v>0</v>
       </c>
-      <c r="R801" t="inlineStr"/>
+      <c r="R801" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B802" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C802" t="n">
+        <v>43.79000091552734</v>
+      </c>
+      <c r="D802" t="n">
+        <v>42.70000076293945</v>
+      </c>
+      <c r="E802" t="n">
+        <v>42.88999938964844</v>
+      </c>
+      <c r="F802" t="n">
+        <v>42.88999938964844</v>
+      </c>
+      <c r="G802" t="n">
+        <v>7790353</v>
+      </c>
+      <c r="H802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I802" t="n">
+        <v>6</v>
+      </c>
+      <c r="J802" t="n">
+        <v>19</v>
+      </c>
+      <c r="K802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N802" t="n">
+        <v>25</v>
+      </c>
+      <c r="O802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R802" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R802"/>
+  <dimension ref="A1:R809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45381,7 +45381,387 @@
       <c r="Q802" t="n">
         <v>0</v>
       </c>
-      <c r="R802" t="inlineStr"/>
+      <c r="R802" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B803" t="n">
+        <v>43.04000091552734</v>
+      </c>
+      <c r="C803" t="n">
+        <v>43.18000030517578</v>
+      </c>
+      <c r="D803" t="n">
+        <v>42.61999893188477</v>
+      </c>
+      <c r="E803" t="n">
+        <v>42.88999938964844</v>
+      </c>
+      <c r="F803" t="n">
+        <v>42.88999938964844</v>
+      </c>
+      <c r="G803" t="n">
+        <v>6138657</v>
+      </c>
+      <c r="H803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I803" t="n">
+        <v>6</v>
+      </c>
+      <c r="J803" t="n">
+        <v>20</v>
+      </c>
+      <c r="K803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N803" t="n">
+        <v>25</v>
+      </c>
+      <c r="O803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B804" t="n">
+        <v>42.90000152587891</v>
+      </c>
+      <c r="C804" t="n">
+        <v>43.15000152587891</v>
+      </c>
+      <c r="D804" t="n">
+        <v>42.58000183105469</v>
+      </c>
+      <c r="E804" t="n">
+        <v>42.84000015258789</v>
+      </c>
+      <c r="F804" t="n">
+        <v>42.84000015258789</v>
+      </c>
+      <c r="G804" t="n">
+        <v>5947620</v>
+      </c>
+      <c r="H804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I804" t="n">
+        <v>6</v>
+      </c>
+      <c r="J804" t="n">
+        <v>21</v>
+      </c>
+      <c r="K804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N804" t="n">
+        <v>25</v>
+      </c>
+      <c r="O804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B805" t="n">
+        <v>42.7599983215332</v>
+      </c>
+      <c r="C805" t="n">
+        <v>42.91999816894531</v>
+      </c>
+      <c r="D805" t="n">
+        <v>42.31000137329102</v>
+      </c>
+      <c r="E805" t="n">
+        <v>42.61000061035156</v>
+      </c>
+      <c r="F805" t="n">
+        <v>42.61000061035156</v>
+      </c>
+      <c r="G805" t="n">
+        <v>4394760</v>
+      </c>
+      <c r="H805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I805" t="n">
+        <v>6</v>
+      </c>
+      <c r="J805" t="n">
+        <v>24</v>
+      </c>
+      <c r="K805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N805" t="n">
+        <v>26</v>
+      </c>
+      <c r="O805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B806" t="n">
+        <v>42.79000091552734</v>
+      </c>
+      <c r="C806" t="n">
+        <v>43</v>
+      </c>
+      <c r="D806" t="n">
+        <v>42.31999969482422</v>
+      </c>
+      <c r="E806" t="n">
+        <v>42.52000045776367</v>
+      </c>
+      <c r="F806" t="n">
+        <v>42.52000045776367</v>
+      </c>
+      <c r="G806" t="n">
+        <v>5424606</v>
+      </c>
+      <c r="H806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I806" t="n">
+        <v>6</v>
+      </c>
+      <c r="J806" t="n">
+        <v>25</v>
+      </c>
+      <c r="K806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N806" t="n">
+        <v>26</v>
+      </c>
+      <c r="O806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B807" t="n">
+        <v>42.34999847412109</v>
+      </c>
+      <c r="C807" t="n">
+        <v>42.63999938964844</v>
+      </c>
+      <c r="D807" t="n">
+        <v>41.54999923706055</v>
+      </c>
+      <c r="E807" t="n">
+        <v>41.70999908447266</v>
+      </c>
+      <c r="F807" t="n">
+        <v>41.70999908447266</v>
+      </c>
+      <c r="G807" t="n">
+        <v>7424629</v>
+      </c>
+      <c r="H807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I807" t="n">
+        <v>6</v>
+      </c>
+      <c r="J807" t="n">
+        <v>26</v>
+      </c>
+      <c r="K807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N807" t="n">
+        <v>26</v>
+      </c>
+      <c r="O807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B808" t="n">
+        <v>41.7400016784668</v>
+      </c>
+      <c r="C808" t="n">
+        <v>41.91999816894531</v>
+      </c>
+      <c r="D808" t="n">
+        <v>40.86000061035156</v>
+      </c>
+      <c r="E808" t="n">
+        <v>41.20000076293945</v>
+      </c>
+      <c r="F808" t="n">
+        <v>41.20000076293945</v>
+      </c>
+      <c r="G808" t="n">
+        <v>9031942</v>
+      </c>
+      <c r="H808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I808" t="n">
+        <v>6</v>
+      </c>
+      <c r="J808" t="n">
+        <v>27</v>
+      </c>
+      <c r="K808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N808" t="n">
+        <v>26</v>
+      </c>
+      <c r="O808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B809" t="n">
+        <v>41.4900016784668</v>
+      </c>
+      <c r="C809" t="n">
+        <v>41.59000015258789</v>
+      </c>
+      <c r="D809" t="n">
+        <v>41.04999923706055</v>
+      </c>
+      <c r="E809" t="n">
+        <v>41.20000076293945</v>
+      </c>
+      <c r="F809" t="n">
+        <v>41.20000076293945</v>
+      </c>
+      <c r="G809" t="n">
+        <v>3356704</v>
+      </c>
+      <c r="H809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I809" t="n">
+        <v>6</v>
+      </c>
+      <c r="J809" t="n">
+        <v>28</v>
+      </c>
+      <c r="K809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N809" t="n">
+        <v>26</v>
+      </c>
+      <c r="O809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R809" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -45437,7 +45437,9 @@
       <c r="Q803" t="n">
         <v>0</v>
       </c>
-      <c r="R803" t="inlineStr"/>
+      <c r="R803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
@@ -45491,7 +45493,9 @@
       <c r="Q804" t="n">
         <v>0</v>
       </c>
-      <c r="R804" t="inlineStr"/>
+      <c r="R804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
@@ -45545,7 +45549,9 @@
       <c r="Q805" t="n">
         <v>0</v>
       </c>
-      <c r="R805" t="inlineStr"/>
+      <c r="R805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
@@ -45599,7 +45605,9 @@
       <c r="Q806" t="n">
         <v>0</v>
       </c>
-      <c r="R806" t="inlineStr"/>
+      <c r="R806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
@@ -45653,7 +45661,9 @@
       <c r="Q807" t="n">
         <v>0</v>
       </c>
-      <c r="R807" t="inlineStr"/>
+      <c r="R807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
@@ -45707,7 +45717,9 @@
       <c r="Q808" t="n">
         <v>0</v>
       </c>
-      <c r="R808" t="inlineStr"/>
+      <c r="R808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
@@ -45761,7 +45773,9 @@
       <c r="Q809" t="n">
         <v>0</v>
       </c>
-      <c r="R809" t="inlineStr"/>
+      <c r="R809" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R809"/>
+  <dimension ref="A1:R814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45317,7 +45317,7 @@
         <v>25</v>
       </c>
       <c r="O801" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P801" t="n">
         <v>0</v>
@@ -45776,6 +45776,276 @@
       <c r="R809" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B810" t="n">
+        <v>41.20000076293945</v>
+      </c>
+      <c r="C810" t="n">
+        <v>42.06999969482422</v>
+      </c>
+      <c r="D810" t="n">
+        <v>41.15000152587891</v>
+      </c>
+      <c r="E810" t="n">
+        <v>41.43000030517578</v>
+      </c>
+      <c r="F810" t="n">
+        <v>41.43000030517578</v>
+      </c>
+      <c r="G810" t="n">
+        <v>5119278</v>
+      </c>
+      <c r="H810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I810" t="n">
+        <v>7</v>
+      </c>
+      <c r="J810" t="n">
+        <v>1</v>
+      </c>
+      <c r="K810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N810" t="n">
+        <v>27</v>
+      </c>
+      <c r="O810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B811" t="n">
+        <v>41.20999908447266</v>
+      </c>
+      <c r="C811" t="n">
+        <v>42</v>
+      </c>
+      <c r="D811" t="n">
+        <v>41.20000076293945</v>
+      </c>
+      <c r="E811" t="n">
+        <v>41.72000122070312</v>
+      </c>
+      <c r="F811" t="n">
+        <v>41.72000122070312</v>
+      </c>
+      <c r="G811" t="n">
+        <v>6542010</v>
+      </c>
+      <c r="H811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I811" t="n">
+        <v>7</v>
+      </c>
+      <c r="J811" t="n">
+        <v>2</v>
+      </c>
+      <c r="K811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N811" t="n">
+        <v>27</v>
+      </c>
+      <c r="O811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B812" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="C812" t="n">
+        <v>42.65000152587891</v>
+      </c>
+      <c r="D812" t="n">
+        <v>41.59999847412109</v>
+      </c>
+      <c r="E812" t="n">
+        <v>41.90000152587891</v>
+      </c>
+      <c r="F812" t="n">
+        <v>41.90000152587891</v>
+      </c>
+      <c r="G812" t="n">
+        <v>9581917</v>
+      </c>
+      <c r="H812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I812" t="n">
+        <v>7</v>
+      </c>
+      <c r="J812" t="n">
+        <v>3</v>
+      </c>
+      <c r="K812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N812" t="n">
+        <v>27</v>
+      </c>
+      <c r="O812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q812" t="n">
+        <v>2</v>
+      </c>
+      <c r="R812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B813" t="n">
+        <v>42.09999847412109</v>
+      </c>
+      <c r="C813" t="n">
+        <v>42.54999923706055</v>
+      </c>
+      <c r="D813" t="n">
+        <v>41.7599983215332</v>
+      </c>
+      <c r="E813" t="n">
+        <v>42.02999877929688</v>
+      </c>
+      <c r="F813" t="n">
+        <v>42.02999877929688</v>
+      </c>
+      <c r="G813" t="n">
+        <v>9565673</v>
+      </c>
+      <c r="H813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I813" t="n">
+        <v>7</v>
+      </c>
+      <c r="J813" t="n">
+        <v>4</v>
+      </c>
+      <c r="K813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N813" t="n">
+        <v>27</v>
+      </c>
+      <c r="O813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B814" t="n">
+        <v>42</v>
+      </c>
+      <c r="C814" t="n">
+        <v>42.13000106811523</v>
+      </c>
+      <c r="D814" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="E814" t="n">
+        <v>41.79000091552734</v>
+      </c>
+      <c r="F814" t="n">
+        <v>41.79000091552734</v>
+      </c>
+      <c r="G814" t="n">
+        <v>4071971</v>
+      </c>
+      <c r="H814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I814" t="n">
+        <v>7</v>
+      </c>
+      <c r="J814" t="n">
+        <v>5</v>
+      </c>
+      <c r="K814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N814" t="n">
+        <v>27</v>
+      </c>
+      <c r="O814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R814" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R814"/>
+  <dimension ref="A1:R823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45829,7 +45829,9 @@
       <c r="Q810" t="n">
         <v>0</v>
       </c>
-      <c r="R810" t="inlineStr"/>
+      <c r="R810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
@@ -45883,7 +45885,9 @@
       <c r="Q811" t="n">
         <v>0</v>
       </c>
-      <c r="R811" t="inlineStr"/>
+      <c r="R811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
@@ -45937,7 +45941,9 @@
       <c r="Q812" t="n">
         <v>2</v>
       </c>
-      <c r="R812" t="inlineStr"/>
+      <c r="R812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
@@ -45991,7 +45997,9 @@
       <c r="Q813" t="n">
         <v>0</v>
       </c>
-      <c r="R813" t="inlineStr"/>
+      <c r="R813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
@@ -46045,7 +46053,495 @@
       <c r="Q814" t="n">
         <v>0</v>
       </c>
-      <c r="R814" t="inlineStr"/>
+      <c r="R814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B815" t="n">
+        <v>41.88999938964844</v>
+      </c>
+      <c r="C815" t="n">
+        <v>41.91999816894531</v>
+      </c>
+      <c r="D815" t="n">
+        <v>41.13999938964844</v>
+      </c>
+      <c r="E815" t="n">
+        <v>41.22999954223633</v>
+      </c>
+      <c r="F815" t="n">
+        <v>41.22999954223633</v>
+      </c>
+      <c r="G815" t="n">
+        <v>4750903</v>
+      </c>
+      <c r="H815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I815" t="n">
+        <v>7</v>
+      </c>
+      <c r="J815" t="n">
+        <v>8</v>
+      </c>
+      <c r="K815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N815" t="n">
+        <v>28</v>
+      </c>
+      <c r="O815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B816" t="n">
+        <v>41.36999893188477</v>
+      </c>
+      <c r="C816" t="n">
+        <v>42.20000076293945</v>
+      </c>
+      <c r="D816" t="n">
+        <v>41.20999908447266</v>
+      </c>
+      <c r="E816" t="n">
+        <v>41.36000061035156</v>
+      </c>
+      <c r="F816" t="n">
+        <v>41.36000061035156</v>
+      </c>
+      <c r="G816" t="n">
+        <v>6130036</v>
+      </c>
+      <c r="H816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I816" t="n">
+        <v>7</v>
+      </c>
+      <c r="J816" t="n">
+        <v>9</v>
+      </c>
+      <c r="K816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N816" t="n">
+        <v>28</v>
+      </c>
+      <c r="O816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B817" t="n">
+        <v>41.47999954223633</v>
+      </c>
+      <c r="C817" t="n">
+        <v>41.58000183105469</v>
+      </c>
+      <c r="D817" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="E817" t="n">
+        <v>40.93000030517578</v>
+      </c>
+      <c r="F817" t="n">
+        <v>40.93000030517578</v>
+      </c>
+      <c r="G817" t="n">
+        <v>5563203</v>
+      </c>
+      <c r="H817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I817" t="n">
+        <v>7</v>
+      </c>
+      <c r="J817" t="n">
+        <v>10</v>
+      </c>
+      <c r="K817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N817" t="n">
+        <v>28</v>
+      </c>
+      <c r="O817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B818" t="n">
+        <v>41.20999908447266</v>
+      </c>
+      <c r="C818" t="n">
+        <v>41.7400016784668</v>
+      </c>
+      <c r="D818" t="n">
+        <v>41.15000152587891</v>
+      </c>
+      <c r="E818" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="F818" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="G818" t="n">
+        <v>7937710</v>
+      </c>
+      <c r="H818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I818" t="n">
+        <v>7</v>
+      </c>
+      <c r="J818" t="n">
+        <v>11</v>
+      </c>
+      <c r="K818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N818" t="n">
+        <v>28</v>
+      </c>
+      <c r="O818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B819" t="n">
+        <v>41.4900016784668</v>
+      </c>
+      <c r="C819" t="n">
+        <v>41.59999847412109</v>
+      </c>
+      <c r="D819" t="n">
+        <v>40.79999923706055</v>
+      </c>
+      <c r="E819" t="n">
+        <v>40.88000106811523</v>
+      </c>
+      <c r="F819" t="n">
+        <v>40.88000106811523</v>
+      </c>
+      <c r="G819" t="n">
+        <v>5864115</v>
+      </c>
+      <c r="H819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I819" t="n">
+        <v>7</v>
+      </c>
+      <c r="J819" t="n">
+        <v>12</v>
+      </c>
+      <c r="K819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N819" t="n">
+        <v>28</v>
+      </c>
+      <c r="O819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B820" t="n">
+        <v>41.04999923706055</v>
+      </c>
+      <c r="C820" t="n">
+        <v>41.29999923706055</v>
+      </c>
+      <c r="D820" t="n">
+        <v>40.68999862670898</v>
+      </c>
+      <c r="E820" t="n">
+        <v>41.02999877929688</v>
+      </c>
+      <c r="F820" t="n">
+        <v>41.02999877929688</v>
+      </c>
+      <c r="G820" t="n">
+        <v>7036409</v>
+      </c>
+      <c r="H820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I820" t="n">
+        <v>7</v>
+      </c>
+      <c r="J820" t="n">
+        <v>15</v>
+      </c>
+      <c r="K820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N820" t="n">
+        <v>29</v>
+      </c>
+      <c r="O820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B821" t="n">
+        <v>41.04000091552734</v>
+      </c>
+      <c r="C821" t="n">
+        <v>41.4900016784668</v>
+      </c>
+      <c r="D821" t="n">
+        <v>41.0099983215332</v>
+      </c>
+      <c r="E821" t="n">
+        <v>41.20000076293945</v>
+      </c>
+      <c r="F821" t="n">
+        <v>41.20000076293945</v>
+      </c>
+      <c r="G821" t="n">
+        <v>4821973</v>
+      </c>
+      <c r="H821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I821" t="n">
+        <v>7</v>
+      </c>
+      <c r="J821" t="n">
+        <v>16</v>
+      </c>
+      <c r="K821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N821" t="n">
+        <v>29</v>
+      </c>
+      <c r="O821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B822" t="n">
+        <v>41.09999847412109</v>
+      </c>
+      <c r="C822" t="n">
+        <v>41.15999984741211</v>
+      </c>
+      <c r="D822" t="n">
+        <v>40.59999847412109</v>
+      </c>
+      <c r="E822" t="n">
+        <v>40.65999984741211</v>
+      </c>
+      <c r="F822" t="n">
+        <v>40.65999984741211</v>
+      </c>
+      <c r="G822" t="n">
+        <v>4336618</v>
+      </c>
+      <c r="H822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I822" t="n">
+        <v>7</v>
+      </c>
+      <c r="J822" t="n">
+        <v>18</v>
+      </c>
+      <c r="K822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N822" t="n">
+        <v>29</v>
+      </c>
+      <c r="O822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B823" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="C823" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="D823" t="n">
+        <v>40</v>
+      </c>
+      <c r="E823" t="n">
+        <v>40.06999969482422</v>
+      </c>
+      <c r="F823" t="n">
+        <v>40.06999969482422</v>
+      </c>
+      <c r="G823" t="n">
+        <v>7343539</v>
+      </c>
+      <c r="H823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I823" t="n">
+        <v>7</v>
+      </c>
+      <c r="J823" t="n">
+        <v>19</v>
+      </c>
+      <c r="K823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N823" t="n">
+        <v>29</v>
+      </c>
+      <c r="O823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R823" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R823"/>
+  <dimension ref="A1:R833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46109,7 +46109,9 @@
       <c r="Q815" t="n">
         <v>0</v>
       </c>
-      <c r="R815" t="inlineStr"/>
+      <c r="R815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
@@ -46163,7 +46165,9 @@
       <c r="Q816" t="n">
         <v>0</v>
       </c>
-      <c r="R816" t="inlineStr"/>
+      <c r="R816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
@@ -46217,7 +46221,9 @@
       <c r="Q817" t="n">
         <v>0</v>
       </c>
-      <c r="R817" t="inlineStr"/>
+      <c r="R817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
@@ -46271,7 +46277,9 @@
       <c r="Q818" t="n">
         <v>0</v>
       </c>
-      <c r="R818" t="inlineStr"/>
+      <c r="R818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
@@ -46325,7 +46333,9 @@
       <c r="Q819" t="n">
         <v>0</v>
       </c>
-      <c r="R819" t="inlineStr"/>
+      <c r="R819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
@@ -46379,7 +46389,9 @@
       <c r="Q820" t="n">
         <v>0</v>
       </c>
-      <c r="R820" t="inlineStr"/>
+      <c r="R820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
@@ -46433,7 +46445,9 @@
       <c r="Q821" t="n">
         <v>0</v>
       </c>
-      <c r="R821" t="inlineStr"/>
+      <c r="R821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
@@ -46487,7 +46501,9 @@
       <c r="Q822" t="n">
         <v>0</v>
       </c>
-      <c r="R822" t="inlineStr"/>
+      <c r="R822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
@@ -46541,7 +46557,549 @@
       <c r="Q823" t="n">
         <v>0</v>
       </c>
-      <c r="R823" t="inlineStr"/>
+      <c r="R823" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B824" t="n">
+        <v>40.20000076293945</v>
+      </c>
+      <c r="C824" t="n">
+        <v>40.34000015258789</v>
+      </c>
+      <c r="D824" t="n">
+        <v>39.66999816894531</v>
+      </c>
+      <c r="E824" t="n">
+        <v>40.02000045776367</v>
+      </c>
+      <c r="F824" t="n">
+        <v>40.02000045776367</v>
+      </c>
+      <c r="G824" t="n">
+        <v>3771119</v>
+      </c>
+      <c r="H824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I824" t="n">
+        <v>7</v>
+      </c>
+      <c r="J824" t="n">
+        <v>22</v>
+      </c>
+      <c r="K824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N824" t="n">
+        <v>30</v>
+      </c>
+      <c r="O824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B825" t="n">
+        <v>40.13000106811523</v>
+      </c>
+      <c r="C825" t="n">
+        <v>43.54999923706055</v>
+      </c>
+      <c r="D825" t="n">
+        <v>39.93999862670898</v>
+      </c>
+      <c r="E825" t="n">
+        <v>42.2400016784668</v>
+      </c>
+      <c r="F825" t="n">
+        <v>42.2400016784668</v>
+      </c>
+      <c r="G825" t="n">
+        <v>69816550</v>
+      </c>
+      <c r="H825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I825" t="n">
+        <v>7</v>
+      </c>
+      <c r="J825" t="n">
+        <v>23</v>
+      </c>
+      <c r="K825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N825" t="n">
+        <v>30</v>
+      </c>
+      <c r="O825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B826" t="n">
+        <v>42.4900016784668</v>
+      </c>
+      <c r="C826" t="n">
+        <v>43.09999847412109</v>
+      </c>
+      <c r="D826" t="n">
+        <v>42.34000015258789</v>
+      </c>
+      <c r="E826" t="n">
+        <v>42.83000183105469</v>
+      </c>
+      <c r="F826" t="n">
+        <v>42.83000183105469</v>
+      </c>
+      <c r="G826" t="n">
+        <v>18430163</v>
+      </c>
+      <c r="H826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I826" t="n">
+        <v>7</v>
+      </c>
+      <c r="J826" t="n">
+        <v>24</v>
+      </c>
+      <c r="K826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N826" t="n">
+        <v>30</v>
+      </c>
+      <c r="O826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B827" t="n">
+        <v>42.38999938964844</v>
+      </c>
+      <c r="C827" t="n">
+        <v>43.18000030517578</v>
+      </c>
+      <c r="D827" t="n">
+        <v>42.0099983215332</v>
+      </c>
+      <c r="E827" t="n">
+        <v>42.2400016784668</v>
+      </c>
+      <c r="F827" t="n">
+        <v>42.2400016784668</v>
+      </c>
+      <c r="G827" t="n">
+        <v>18853381</v>
+      </c>
+      <c r="H827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I827" t="n">
+        <v>7</v>
+      </c>
+      <c r="J827" t="n">
+        <v>25</v>
+      </c>
+      <c r="K827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N827" t="n">
+        <v>30</v>
+      </c>
+      <c r="O827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B828" t="n">
+        <v>42.2599983215332</v>
+      </c>
+      <c r="C828" t="n">
+        <v>43.66999816894531</v>
+      </c>
+      <c r="D828" t="n">
+        <v>42.2400016784668</v>
+      </c>
+      <c r="E828" t="n">
+        <v>42.63000106811523</v>
+      </c>
+      <c r="F828" t="n">
+        <v>42.63000106811523</v>
+      </c>
+      <c r="G828" t="n">
+        <v>23876638</v>
+      </c>
+      <c r="H828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I828" t="n">
+        <v>7</v>
+      </c>
+      <c r="J828" t="n">
+        <v>26</v>
+      </c>
+      <c r="K828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N828" t="n">
+        <v>30</v>
+      </c>
+      <c r="O828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B829" t="n">
+        <v>42.95000076293945</v>
+      </c>
+      <c r="C829" t="n">
+        <v>43.45000076293945</v>
+      </c>
+      <c r="D829" t="n">
+        <v>41.70999908447266</v>
+      </c>
+      <c r="E829" t="n">
+        <v>41.93999862670898</v>
+      </c>
+      <c r="F829" t="n">
+        <v>41.93999862670898</v>
+      </c>
+      <c r="G829" t="n">
+        <v>35940172</v>
+      </c>
+      <c r="H829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I829" t="n">
+        <v>7</v>
+      </c>
+      <c r="J829" t="n">
+        <v>29</v>
+      </c>
+      <c r="K829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N829" t="n">
+        <v>31</v>
+      </c>
+      <c r="O829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B830" t="n">
+        <v>41.97999954223633</v>
+      </c>
+      <c r="C830" t="n">
+        <v>42.13999938964844</v>
+      </c>
+      <c r="D830" t="n">
+        <v>41.52000045776367</v>
+      </c>
+      <c r="E830" t="n">
+        <v>41.56999969482422</v>
+      </c>
+      <c r="F830" t="n">
+        <v>41.56999969482422</v>
+      </c>
+      <c r="G830" t="n">
+        <v>18931419</v>
+      </c>
+      <c r="H830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I830" t="n">
+        <v>7</v>
+      </c>
+      <c r="J830" t="n">
+        <v>30</v>
+      </c>
+      <c r="K830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N830" t="n">
+        <v>31</v>
+      </c>
+      <c r="O830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B831" t="n">
+        <v>41.79999923706055</v>
+      </c>
+      <c r="C831" t="n">
+        <v>42.2400016784668</v>
+      </c>
+      <c r="D831" t="n">
+        <v>41.22000122070312</v>
+      </c>
+      <c r="E831" t="n">
+        <v>41.34000015258789</v>
+      </c>
+      <c r="F831" t="n">
+        <v>41.34000015258789</v>
+      </c>
+      <c r="G831" t="n">
+        <v>21226352</v>
+      </c>
+      <c r="H831" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I831" t="n">
+        <v>7</v>
+      </c>
+      <c r="J831" t="n">
+        <v>31</v>
+      </c>
+      <c r="K831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N831" t="n">
+        <v>31</v>
+      </c>
+      <c r="O831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B832" t="n">
+        <v>41.29999923706055</v>
+      </c>
+      <c r="C832" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="D832" t="n">
+        <v>41.04999923706055</v>
+      </c>
+      <c r="E832" t="n">
+        <v>41.18000030517578</v>
+      </c>
+      <c r="F832" t="n">
+        <v>41.18000030517578</v>
+      </c>
+      <c r="G832" t="n">
+        <v>13932873</v>
+      </c>
+      <c r="H832" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I832" t="n">
+        <v>8</v>
+      </c>
+      <c r="J832" t="n">
+        <v>1</v>
+      </c>
+      <c r="K832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N832" t="n">
+        <v>31</v>
+      </c>
+      <c r="O832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B833" t="n">
+        <v>40.95000076293945</v>
+      </c>
+      <c r="C833" t="n">
+        <v>41.20000076293945</v>
+      </c>
+      <c r="D833" t="n">
+        <v>40.84000015258789</v>
+      </c>
+      <c r="E833" t="n">
+        <v>40.88999938964844</v>
+      </c>
+      <c r="F833" t="n">
+        <v>40.88999938964844</v>
+      </c>
+      <c r="G833" t="n">
+        <v>21622742</v>
+      </c>
+      <c r="H833" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I833" t="n">
+        <v>8</v>
+      </c>
+      <c r="J833" t="n">
+        <v>2</v>
+      </c>
+      <c r="K833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N833" t="n">
+        <v>31</v>
+      </c>
+      <c r="O833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R833" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R833"/>
+  <dimension ref="A1:R838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46613,7 +46613,9 @@
       <c r="Q824" t="n">
         <v>0</v>
       </c>
-      <c r="R824" t="inlineStr"/>
+      <c r="R824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
@@ -46667,7 +46669,9 @@
       <c r="Q825" t="n">
         <v>0</v>
       </c>
-      <c r="R825" t="inlineStr"/>
+      <c r="R825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
@@ -46721,7 +46725,9 @@
       <c r="Q826" t="n">
         <v>0</v>
       </c>
-      <c r="R826" t="inlineStr"/>
+      <c r="R826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
@@ -46775,7 +46781,9 @@
       <c r="Q827" t="n">
         <v>0</v>
       </c>
-      <c r="R827" t="inlineStr"/>
+      <c r="R827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
@@ -46821,7 +46829,7 @@
         <v>30</v>
       </c>
       <c r="O828" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P828" t="n">
         <v>0</v>
@@ -46829,7 +46837,9 @@
       <c r="Q828" t="n">
         <v>0</v>
       </c>
-      <c r="R828" t="inlineStr"/>
+      <c r="R828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
@@ -46883,7 +46893,9 @@
       <c r="Q829" t="n">
         <v>0</v>
       </c>
-      <c r="R829" t="inlineStr"/>
+      <c r="R829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
@@ -46937,7 +46949,9 @@
       <c r="Q830" t="n">
         <v>0</v>
       </c>
-      <c r="R830" t="inlineStr"/>
+      <c r="R830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
@@ -46991,7 +47005,9 @@
       <c r="Q831" t="n">
         <v>0</v>
       </c>
-      <c r="R831" t="inlineStr"/>
+      <c r="R831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
@@ -47045,7 +47061,9 @@
       <c r="Q832" t="n">
         <v>0</v>
       </c>
-      <c r="R832" t="inlineStr"/>
+      <c r="R832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
@@ -47099,7 +47117,279 @@
       <c r="Q833" t="n">
         <v>0</v>
       </c>
-      <c r="R833" t="inlineStr"/>
+      <c r="R833" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B834" t="n">
+        <v>40.04999923706055</v>
+      </c>
+      <c r="C834" t="n">
+        <v>40.40999984741211</v>
+      </c>
+      <c r="D834" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E834" t="n">
+        <v>39.65999984741211</v>
+      </c>
+      <c r="F834" t="n">
+        <v>39.65999984741211</v>
+      </c>
+      <c r="G834" t="n">
+        <v>11045538</v>
+      </c>
+      <c r="H834" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I834" t="n">
+        <v>8</v>
+      </c>
+      <c r="J834" t="n">
+        <v>5</v>
+      </c>
+      <c r="K834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N834" t="n">
+        <v>32</v>
+      </c>
+      <c r="O834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B835" t="n">
+        <v>40.27999877929688</v>
+      </c>
+      <c r="C835" t="n">
+        <v>40.56000137329102</v>
+      </c>
+      <c r="D835" t="n">
+        <v>38.81999969482422</v>
+      </c>
+      <c r="E835" t="n">
+        <v>38.95999908447266</v>
+      </c>
+      <c r="F835" t="n">
+        <v>38.95999908447266</v>
+      </c>
+      <c r="G835" t="n">
+        <v>21988518</v>
+      </c>
+      <c r="H835" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I835" t="n">
+        <v>8</v>
+      </c>
+      <c r="J835" t="n">
+        <v>6</v>
+      </c>
+      <c r="K835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N835" t="n">
+        <v>32</v>
+      </c>
+      <c r="O835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B836" t="n">
+        <v>39.59000015258789</v>
+      </c>
+      <c r="C836" t="n">
+        <v>40.52000045776367</v>
+      </c>
+      <c r="D836" t="n">
+        <v>38.81000137329102</v>
+      </c>
+      <c r="E836" t="n">
+        <v>38.90000152587891</v>
+      </c>
+      <c r="F836" t="n">
+        <v>38.90000152587891</v>
+      </c>
+      <c r="G836" t="n">
+        <v>26708716</v>
+      </c>
+      <c r="H836" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I836" t="n">
+        <v>8</v>
+      </c>
+      <c r="J836" t="n">
+        <v>7</v>
+      </c>
+      <c r="K836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N836" t="n">
+        <v>32</v>
+      </c>
+      <c r="O836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B837" t="n">
+        <v>39.38999938964844</v>
+      </c>
+      <c r="C837" t="n">
+        <v>39.52999877929688</v>
+      </c>
+      <c r="D837" t="n">
+        <v>39.09999847412109</v>
+      </c>
+      <c r="E837" t="n">
+        <v>39.34000015258789</v>
+      </c>
+      <c r="F837" t="n">
+        <v>39.34000015258789</v>
+      </c>
+      <c r="G837" t="n">
+        <v>5370780</v>
+      </c>
+      <c r="H837" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I837" t="n">
+        <v>8</v>
+      </c>
+      <c r="J837" t="n">
+        <v>8</v>
+      </c>
+      <c r="K837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N837" t="n">
+        <v>32</v>
+      </c>
+      <c r="O837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B838" t="n">
+        <v>39.79999923706055</v>
+      </c>
+      <c r="C838" t="n">
+        <v>39.90000152587891</v>
+      </c>
+      <c r="D838" t="n">
+        <v>39.40000152587891</v>
+      </c>
+      <c r="E838" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F838" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="G838" t="n">
+        <v>8518851</v>
+      </c>
+      <c r="H838" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I838" t="n">
+        <v>8</v>
+      </c>
+      <c r="J838" t="n">
+        <v>9</v>
+      </c>
+      <c r="K838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N838" t="n">
+        <v>32</v>
+      </c>
+      <c r="O838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R838" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R838"/>
+  <dimension ref="A1:R842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47173,7 +47173,9 @@
       <c r="Q834" t="n">
         <v>0</v>
       </c>
-      <c r="R834" t="inlineStr"/>
+      <c r="R834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
@@ -47227,7 +47229,9 @@
       <c r="Q835" t="n">
         <v>0</v>
       </c>
-      <c r="R835" t="inlineStr"/>
+      <c r="R835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
@@ -47281,7 +47285,9 @@
       <c r="Q836" t="n">
         <v>0</v>
       </c>
-      <c r="R836" t="inlineStr"/>
+      <c r="R836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
@@ -47335,7 +47341,9 @@
       <c r="Q837" t="n">
         <v>0</v>
       </c>
-      <c r="R837" t="inlineStr"/>
+      <c r="R837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
@@ -47389,7 +47397,225 @@
       <c r="Q838" t="n">
         <v>0</v>
       </c>
-      <c r="R838" t="inlineStr"/>
+      <c r="R838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B839" t="n">
+        <v>39.45000076293945</v>
+      </c>
+      <c r="C839" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="D839" t="n">
+        <v>38.93000030517578</v>
+      </c>
+      <c r="E839" t="n">
+        <v>39.11999893188477</v>
+      </c>
+      <c r="F839" t="n">
+        <v>39.11999893188477</v>
+      </c>
+      <c r="G839" t="n">
+        <v>6621868</v>
+      </c>
+      <c r="H839" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I839" t="n">
+        <v>8</v>
+      </c>
+      <c r="J839" t="n">
+        <v>12</v>
+      </c>
+      <c r="K839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N839" t="n">
+        <v>33</v>
+      </c>
+      <c r="O839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q839" t="n">
+        <v>2</v>
+      </c>
+      <c r="R839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B840" t="n">
+        <v>39.45999908447266</v>
+      </c>
+      <c r="C840" t="n">
+        <v>40.56000137329102</v>
+      </c>
+      <c r="D840" t="n">
+        <v>39.38999938964844</v>
+      </c>
+      <c r="E840" t="n">
+        <v>39.66999816894531</v>
+      </c>
+      <c r="F840" t="n">
+        <v>39.66999816894531</v>
+      </c>
+      <c r="G840" t="n">
+        <v>50368154</v>
+      </c>
+      <c r="H840" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I840" t="n">
+        <v>8</v>
+      </c>
+      <c r="J840" t="n">
+        <v>13</v>
+      </c>
+      <c r="K840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N840" t="n">
+        <v>33</v>
+      </c>
+      <c r="O840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B841" t="n">
+        <v>40.11000061035156</v>
+      </c>
+      <c r="C841" t="n">
+        <v>40.4900016784668</v>
+      </c>
+      <c r="D841" t="n">
+        <v>38.86999893188477</v>
+      </c>
+      <c r="E841" t="n">
+        <v>39.06999969482422</v>
+      </c>
+      <c r="F841" t="n">
+        <v>39.06999969482422</v>
+      </c>
+      <c r="G841" t="n">
+        <v>9023549</v>
+      </c>
+      <c r="H841" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I841" t="n">
+        <v>8</v>
+      </c>
+      <c r="J841" t="n">
+        <v>14</v>
+      </c>
+      <c r="K841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N841" t="n">
+        <v>33</v>
+      </c>
+      <c r="O841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B842" t="n">
+        <v>39.47000122070312</v>
+      </c>
+      <c r="C842" t="n">
+        <v>39.54999923706055</v>
+      </c>
+      <c r="D842" t="n">
+        <v>38.90000152587891</v>
+      </c>
+      <c r="E842" t="n">
+        <v>39.15999984741211</v>
+      </c>
+      <c r="F842" t="n">
+        <v>39.15999984741211</v>
+      </c>
+      <c r="G842" t="n">
+        <v>4418107</v>
+      </c>
+      <c r="H842" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I842" t="n">
+        <v>8</v>
+      </c>
+      <c r="J842" t="n">
+        <v>16</v>
+      </c>
+      <c r="K842" t="n">
+        <v>0</v>
+      </c>
+      <c r="L842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M842" t="n">
+        <v>0</v>
+      </c>
+      <c r="N842" t="n">
+        <v>33</v>
+      </c>
+      <c r="O842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q842" t="n">
+        <v>0</v>
+      </c>
+      <c r="R842" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R842"/>
+  <dimension ref="A1:R847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47453,7 +47453,9 @@
       <c r="Q839" t="n">
         <v>2</v>
       </c>
-      <c r="R839" t="inlineStr"/>
+      <c r="R839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
@@ -47507,7 +47509,9 @@
       <c r="Q840" t="n">
         <v>0</v>
       </c>
-      <c r="R840" t="inlineStr"/>
+      <c r="R840" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
@@ -47561,7 +47565,9 @@
       <c r="Q841" t="n">
         <v>0</v>
       </c>
-      <c r="R841" t="inlineStr"/>
+      <c r="R841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
@@ -47615,7 +47621,279 @@
       <c r="Q842" t="n">
         <v>0</v>
       </c>
-      <c r="R842" t="inlineStr"/>
+      <c r="R842" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B843" t="n">
+        <v>39.81000137329102</v>
+      </c>
+      <c r="C843" t="n">
+        <v>39.81000137329102</v>
+      </c>
+      <c r="D843" t="n">
+        <v>38.79999923706055</v>
+      </c>
+      <c r="E843" t="n">
+        <v>38.88000106811523</v>
+      </c>
+      <c r="F843" t="n">
+        <v>38.88000106811523</v>
+      </c>
+      <c r="G843" t="n">
+        <v>12890277</v>
+      </c>
+      <c r="H843" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I843" t="n">
+        <v>8</v>
+      </c>
+      <c r="J843" t="n">
+        <v>19</v>
+      </c>
+      <c r="K843" t="n">
+        <v>0</v>
+      </c>
+      <c r="L843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M843" t="n">
+        <v>0</v>
+      </c>
+      <c r="N843" t="n">
+        <v>34</v>
+      </c>
+      <c r="O843" t="n">
+        <v>0</v>
+      </c>
+      <c r="P843" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q843" t="n">
+        <v>0</v>
+      </c>
+      <c r="R843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B844" t="n">
+        <v>39.02999877929688</v>
+      </c>
+      <c r="C844" t="n">
+        <v>39.38000106811523</v>
+      </c>
+      <c r="D844" t="n">
+        <v>38.90000152587891</v>
+      </c>
+      <c r="E844" t="n">
+        <v>39.13999938964844</v>
+      </c>
+      <c r="F844" t="n">
+        <v>39.13999938964844</v>
+      </c>
+      <c r="G844" t="n">
+        <v>4974013</v>
+      </c>
+      <c r="H844" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I844" t="n">
+        <v>8</v>
+      </c>
+      <c r="J844" t="n">
+        <v>20</v>
+      </c>
+      <c r="K844" t="n">
+        <v>0</v>
+      </c>
+      <c r="L844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M844" t="n">
+        <v>0</v>
+      </c>
+      <c r="N844" t="n">
+        <v>34</v>
+      </c>
+      <c r="O844" t="n">
+        <v>0</v>
+      </c>
+      <c r="P844" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q844" t="n">
+        <v>0</v>
+      </c>
+      <c r="R844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B845" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="C845" t="n">
+        <v>39.68000030517578</v>
+      </c>
+      <c r="D845" t="n">
+        <v>39.18999862670898</v>
+      </c>
+      <c r="E845" t="n">
+        <v>39.47999954223633</v>
+      </c>
+      <c r="F845" t="n">
+        <v>39.47999954223633</v>
+      </c>
+      <c r="G845" t="n">
+        <v>5183785</v>
+      </c>
+      <c r="H845" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I845" t="n">
+        <v>8</v>
+      </c>
+      <c r="J845" t="n">
+        <v>21</v>
+      </c>
+      <c r="K845" t="n">
+        <v>0</v>
+      </c>
+      <c r="L845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M845" t="n">
+        <v>0</v>
+      </c>
+      <c r="N845" t="n">
+        <v>34</v>
+      </c>
+      <c r="O845" t="n">
+        <v>0</v>
+      </c>
+      <c r="P845" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q845" t="n">
+        <v>0</v>
+      </c>
+      <c r="R845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B846" t="n">
+        <v>39.72000122070312</v>
+      </c>
+      <c r="C846" t="n">
+        <v>39.93999862670898</v>
+      </c>
+      <c r="D846" t="n">
+        <v>39.59999847412109</v>
+      </c>
+      <c r="E846" t="n">
+        <v>39.70000076293945</v>
+      </c>
+      <c r="F846" t="n">
+        <v>39.70000076293945</v>
+      </c>
+      <c r="G846" t="n">
+        <v>4916680</v>
+      </c>
+      <c r="H846" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I846" t="n">
+        <v>8</v>
+      </c>
+      <c r="J846" t="n">
+        <v>22</v>
+      </c>
+      <c r="K846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M846" t="n">
+        <v>0</v>
+      </c>
+      <c r="N846" t="n">
+        <v>34</v>
+      </c>
+      <c r="O846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q846" t="n">
+        <v>0</v>
+      </c>
+      <c r="R846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B847" t="n">
+        <v>39.93999862670898</v>
+      </c>
+      <c r="C847" t="n">
+        <v>41.29000091552734</v>
+      </c>
+      <c r="D847" t="n">
+        <v>39.65000152587891</v>
+      </c>
+      <c r="E847" t="n">
+        <v>40.86999893188477</v>
+      </c>
+      <c r="F847" t="n">
+        <v>40.86999893188477</v>
+      </c>
+      <c r="G847" t="n">
+        <v>30634801</v>
+      </c>
+      <c r="H847" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I847" t="n">
+        <v>8</v>
+      </c>
+      <c r="J847" t="n">
+        <v>23</v>
+      </c>
+      <c r="K847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M847" t="n">
+        <v>0</v>
+      </c>
+      <c r="N847" t="n">
+        <v>34</v>
+      </c>
+      <c r="O847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q847" t="n">
+        <v>0</v>
+      </c>
+      <c r="R847" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R847"/>
+  <dimension ref="A1:R852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47677,7 +47677,9 @@
       <c r="Q843" t="n">
         <v>0</v>
       </c>
-      <c r="R843" t="inlineStr"/>
+      <c r="R843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
@@ -47731,7 +47733,9 @@
       <c r="Q844" t="n">
         <v>0</v>
       </c>
-      <c r="R844" t="inlineStr"/>
+      <c r="R844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
@@ -47785,7 +47789,9 @@
       <c r="Q845" t="n">
         <v>0</v>
       </c>
-      <c r="R845" t="inlineStr"/>
+      <c r="R845" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
@@ -47839,7 +47845,9 @@
       <c r="Q846" t="n">
         <v>0</v>
       </c>
-      <c r="R846" t="inlineStr"/>
+      <c r="R846" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
@@ -47893,7 +47901,279 @@
       <c r="Q847" t="n">
         <v>0</v>
       </c>
-      <c r="R847" t="inlineStr"/>
+      <c r="R847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B848" t="n">
+        <v>41.18000030517578</v>
+      </c>
+      <c r="C848" t="n">
+        <v>41.27000045776367</v>
+      </c>
+      <c r="D848" t="n">
+        <v>40.40999984741211</v>
+      </c>
+      <c r="E848" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F848" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="G848" t="n">
+        <v>7677380</v>
+      </c>
+      <c r="H848" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I848" t="n">
+        <v>8</v>
+      </c>
+      <c r="J848" t="n">
+        <v>26</v>
+      </c>
+      <c r="K848" t="n">
+        <v>0</v>
+      </c>
+      <c r="L848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M848" t="n">
+        <v>0</v>
+      </c>
+      <c r="N848" t="n">
+        <v>35</v>
+      </c>
+      <c r="O848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q848" t="n">
+        <v>0</v>
+      </c>
+      <c r="R848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B849" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="C849" t="n">
+        <v>40.59999847412109</v>
+      </c>
+      <c r="D849" t="n">
+        <v>40</v>
+      </c>
+      <c r="E849" t="n">
+        <v>40.31999969482422</v>
+      </c>
+      <c r="F849" t="n">
+        <v>40.31999969482422</v>
+      </c>
+      <c r="G849" t="n">
+        <v>11854704</v>
+      </c>
+      <c r="H849" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I849" t="n">
+        <v>8</v>
+      </c>
+      <c r="J849" t="n">
+        <v>27</v>
+      </c>
+      <c r="K849" t="n">
+        <v>0</v>
+      </c>
+      <c r="L849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M849" t="n">
+        <v>0</v>
+      </c>
+      <c r="N849" t="n">
+        <v>35</v>
+      </c>
+      <c r="O849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P849" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q849" t="n">
+        <v>0</v>
+      </c>
+      <c r="R849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B850" t="n">
+        <v>40.34999847412109</v>
+      </c>
+      <c r="C850" t="n">
+        <v>41.11999893188477</v>
+      </c>
+      <c r="D850" t="n">
+        <v>40</v>
+      </c>
+      <c r="E850" t="n">
+        <v>40.56999969482422</v>
+      </c>
+      <c r="F850" t="n">
+        <v>40.56999969482422</v>
+      </c>
+      <c r="G850" t="n">
+        <v>26389945</v>
+      </c>
+      <c r="H850" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I850" t="n">
+        <v>8</v>
+      </c>
+      <c r="J850" t="n">
+        <v>28</v>
+      </c>
+      <c r="K850" t="n">
+        <v>0</v>
+      </c>
+      <c r="L850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M850" t="n">
+        <v>0</v>
+      </c>
+      <c r="N850" t="n">
+        <v>35</v>
+      </c>
+      <c r="O850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q850" t="n">
+        <v>0</v>
+      </c>
+      <c r="R850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B851" t="n">
+        <v>40.59999847412109</v>
+      </c>
+      <c r="C851" t="n">
+        <v>40.65000152587891</v>
+      </c>
+      <c r="D851" t="n">
+        <v>39.0099983215332</v>
+      </c>
+      <c r="E851" t="n">
+        <v>39.43000030517578</v>
+      </c>
+      <c r="F851" t="n">
+        <v>39.43000030517578</v>
+      </c>
+      <c r="G851" t="n">
+        <v>28977966</v>
+      </c>
+      <c r="H851" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I851" t="n">
+        <v>8</v>
+      </c>
+      <c r="J851" t="n">
+        <v>29</v>
+      </c>
+      <c r="K851" t="n">
+        <v>0</v>
+      </c>
+      <c r="L851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M851" t="n">
+        <v>0</v>
+      </c>
+      <c r="N851" t="n">
+        <v>35</v>
+      </c>
+      <c r="O851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q851" t="n">
+        <v>0</v>
+      </c>
+      <c r="R851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B852" t="n">
+        <v>40</v>
+      </c>
+      <c r="C852" t="n">
+        <v>40</v>
+      </c>
+      <c r="D852" t="n">
+        <v>39.59999847412109</v>
+      </c>
+      <c r="E852" t="n">
+        <v>39.72000122070312</v>
+      </c>
+      <c r="F852" t="n">
+        <v>39.72000122070312</v>
+      </c>
+      <c r="G852" t="n">
+        <v>4470602</v>
+      </c>
+      <c r="H852" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I852" t="n">
+        <v>8</v>
+      </c>
+      <c r="J852" t="n">
+        <v>30</v>
+      </c>
+      <c r="K852" t="n">
+        <v>0</v>
+      </c>
+      <c r="L852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M852" t="n">
+        <v>0</v>
+      </c>
+      <c r="N852" t="n">
+        <v>35</v>
+      </c>
+      <c r="O852" t="n">
+        <v>0</v>
+      </c>
+      <c r="P852" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q852" t="n">
+        <v>0</v>
+      </c>
+      <c r="R852" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R852"/>
+  <dimension ref="A1:R857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47669,7 +47669,7 @@
         <v>34</v>
       </c>
       <c r="O843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P843" t="n">
         <v>0</v>
@@ -47957,7 +47957,9 @@
       <c r="Q848" t="n">
         <v>0</v>
       </c>
-      <c r="R848" t="inlineStr"/>
+      <c r="R848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
@@ -48011,7 +48013,9 @@
       <c r="Q849" t="n">
         <v>0</v>
       </c>
-      <c r="R849" t="inlineStr"/>
+      <c r="R849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
@@ -48065,7 +48069,9 @@
       <c r="Q850" t="n">
         <v>0</v>
       </c>
-      <c r="R850" t="inlineStr"/>
+      <c r="R850" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
@@ -48119,7 +48125,9 @@
       <c r="Q851" t="n">
         <v>0</v>
       </c>
-      <c r="R851" t="inlineStr"/>
+      <c r="R851" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
@@ -48173,7 +48181,279 @@
       <c r="Q852" t="n">
         <v>0</v>
       </c>
-      <c r="R852" t="inlineStr"/>
+      <c r="R852" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B853" t="n">
+        <v>39.79999923706055</v>
+      </c>
+      <c r="C853" t="n">
+        <v>39.90000152587891</v>
+      </c>
+      <c r="D853" t="n">
+        <v>38.93999862670898</v>
+      </c>
+      <c r="E853" t="n">
+        <v>39.16999816894531</v>
+      </c>
+      <c r="F853" t="n">
+        <v>39.16999816894531</v>
+      </c>
+      <c r="G853" t="n">
+        <v>8650680</v>
+      </c>
+      <c r="H853" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I853" t="n">
+        <v>9</v>
+      </c>
+      <c r="J853" t="n">
+        <v>2</v>
+      </c>
+      <c r="K853" t="n">
+        <v>0</v>
+      </c>
+      <c r="L853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M853" t="n">
+        <v>0</v>
+      </c>
+      <c r="N853" t="n">
+        <v>36</v>
+      </c>
+      <c r="O853" t="n">
+        <v>0</v>
+      </c>
+      <c r="P853" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q853" t="n">
+        <v>0</v>
+      </c>
+      <c r="R853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B854" t="n">
+        <v>39.08000183105469</v>
+      </c>
+      <c r="C854" t="n">
+        <v>39.58000183105469</v>
+      </c>
+      <c r="D854" t="n">
+        <v>38.84999847412109</v>
+      </c>
+      <c r="E854" t="n">
+        <v>38.93999862670898</v>
+      </c>
+      <c r="F854" t="n">
+        <v>38.93999862670898</v>
+      </c>
+      <c r="G854" t="n">
+        <v>7980127</v>
+      </c>
+      <c r="H854" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I854" t="n">
+        <v>9</v>
+      </c>
+      <c r="J854" t="n">
+        <v>3</v>
+      </c>
+      <c r="K854" t="n">
+        <v>0</v>
+      </c>
+      <c r="L854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M854" t="n">
+        <v>0</v>
+      </c>
+      <c r="N854" t="n">
+        <v>36</v>
+      </c>
+      <c r="O854" t="n">
+        <v>0</v>
+      </c>
+      <c r="P854" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q854" t="n">
+        <v>0</v>
+      </c>
+      <c r="R854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B855" t="n">
+        <v>38.70000076293945</v>
+      </c>
+      <c r="C855" t="n">
+        <v>39.79999923706055</v>
+      </c>
+      <c r="D855" t="n">
+        <v>38.70000076293945</v>
+      </c>
+      <c r="E855" t="n">
+        <v>38.88999938964844</v>
+      </c>
+      <c r="F855" t="n">
+        <v>38.88999938964844</v>
+      </c>
+      <c r="G855" t="n">
+        <v>7061246</v>
+      </c>
+      <c r="H855" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I855" t="n">
+        <v>9</v>
+      </c>
+      <c r="J855" t="n">
+        <v>4</v>
+      </c>
+      <c r="K855" t="n">
+        <v>0</v>
+      </c>
+      <c r="L855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M855" t="n">
+        <v>0</v>
+      </c>
+      <c r="N855" t="n">
+        <v>36</v>
+      </c>
+      <c r="O855" t="n">
+        <v>0</v>
+      </c>
+      <c r="P855" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q855" t="n">
+        <v>0</v>
+      </c>
+      <c r="R855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B856" t="n">
+        <v>39.09000015258789</v>
+      </c>
+      <c r="C856" t="n">
+        <v>44.38000106811523</v>
+      </c>
+      <c r="D856" t="n">
+        <v>38.81999969482422</v>
+      </c>
+      <c r="E856" t="n">
+        <v>43.06999969482422</v>
+      </c>
+      <c r="F856" t="n">
+        <v>43.06999969482422</v>
+      </c>
+      <c r="G856" t="n">
+        <v>106753071</v>
+      </c>
+      <c r="H856" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I856" t="n">
+        <v>9</v>
+      </c>
+      <c r="J856" t="n">
+        <v>5</v>
+      </c>
+      <c r="K856" t="n">
+        <v>0</v>
+      </c>
+      <c r="L856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M856" t="n">
+        <v>0</v>
+      </c>
+      <c r="N856" t="n">
+        <v>36</v>
+      </c>
+      <c r="O856" t="n">
+        <v>0</v>
+      </c>
+      <c r="P856" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q856" t="n">
+        <v>0</v>
+      </c>
+      <c r="R856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B857" t="n">
+        <v>43.20000076293945</v>
+      </c>
+      <c r="C857" t="n">
+        <v>43.90000152587891</v>
+      </c>
+      <c r="D857" t="n">
+        <v>40.11000061035156</v>
+      </c>
+      <c r="E857" t="n">
+        <v>40.56999969482422</v>
+      </c>
+      <c r="F857" t="n">
+        <v>40.56999969482422</v>
+      </c>
+      <c r="G857" t="n">
+        <v>66739497</v>
+      </c>
+      <c r="H857" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I857" t="n">
+        <v>9</v>
+      </c>
+      <c r="J857" t="n">
+        <v>6</v>
+      </c>
+      <c r="K857" t="n">
+        <v>0</v>
+      </c>
+      <c r="L857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M857" t="n">
+        <v>0</v>
+      </c>
+      <c r="N857" t="n">
+        <v>36</v>
+      </c>
+      <c r="O857" t="n">
+        <v>0</v>
+      </c>
+      <c r="P857" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q857" t="n">
+        <v>0</v>
+      </c>
+      <c r="R857" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R857"/>
+  <dimension ref="A1:R862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48237,7 +48237,9 @@
       <c r="Q853" t="n">
         <v>0</v>
       </c>
-      <c r="R853" t="inlineStr"/>
+      <c r="R853" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
@@ -48291,7 +48293,9 @@
       <c r="Q854" t="n">
         <v>0</v>
       </c>
-      <c r="R854" t="inlineStr"/>
+      <c r="R854" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
@@ -48345,7 +48349,9 @@
       <c r="Q855" t="n">
         <v>0</v>
       </c>
-      <c r="R855" t="inlineStr"/>
+      <c r="R855" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
@@ -48399,7 +48405,9 @@
       <c r="Q856" t="n">
         <v>0</v>
       </c>
-      <c r="R856" t="inlineStr"/>
+      <c r="R856" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
@@ -48453,7 +48461,279 @@
       <c r="Q857" t="n">
         <v>0</v>
       </c>
-      <c r="R857" t="inlineStr"/>
+      <c r="R857" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B858" t="n">
+        <v>40.90000152587891</v>
+      </c>
+      <c r="C858" t="n">
+        <v>41.93999862670898</v>
+      </c>
+      <c r="D858" t="n">
+        <v>40.58000183105469</v>
+      </c>
+      <c r="E858" t="n">
+        <v>41.36000061035156</v>
+      </c>
+      <c r="F858" t="n">
+        <v>41.36000061035156</v>
+      </c>
+      <c r="G858" t="n">
+        <v>26666463</v>
+      </c>
+      <c r="H858" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I858" t="n">
+        <v>9</v>
+      </c>
+      <c r="J858" t="n">
+        <v>9</v>
+      </c>
+      <c r="K858" t="n">
+        <v>0</v>
+      </c>
+      <c r="L858" t="n">
+        <v>0</v>
+      </c>
+      <c r="M858" t="n">
+        <v>0</v>
+      </c>
+      <c r="N858" t="n">
+        <v>37</v>
+      </c>
+      <c r="O858" t="n">
+        <v>0</v>
+      </c>
+      <c r="P858" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q858" t="n">
+        <v>0</v>
+      </c>
+      <c r="R858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B859" t="n">
+        <v>42.45999908447266</v>
+      </c>
+      <c r="C859" t="n">
+        <v>42.79000091552734</v>
+      </c>
+      <c r="D859" t="n">
+        <v>41.72999954223633</v>
+      </c>
+      <c r="E859" t="n">
+        <v>42.41999816894531</v>
+      </c>
+      <c r="F859" t="n">
+        <v>42.41999816894531</v>
+      </c>
+      <c r="G859" t="n">
+        <v>27803718</v>
+      </c>
+      <c r="H859" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I859" t="n">
+        <v>9</v>
+      </c>
+      <c r="J859" t="n">
+        <v>10</v>
+      </c>
+      <c r="K859" t="n">
+        <v>0</v>
+      </c>
+      <c r="L859" t="n">
+        <v>0</v>
+      </c>
+      <c r="M859" t="n">
+        <v>0</v>
+      </c>
+      <c r="N859" t="n">
+        <v>37</v>
+      </c>
+      <c r="O859" t="n">
+        <v>0</v>
+      </c>
+      <c r="P859" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q859" t="n">
+        <v>0</v>
+      </c>
+      <c r="R859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B860" t="n">
+        <v>43</v>
+      </c>
+      <c r="C860" t="n">
+        <v>43.11999893188477</v>
+      </c>
+      <c r="D860" t="n">
+        <v>41.61000061035156</v>
+      </c>
+      <c r="E860" t="n">
+        <v>41.79000091552734</v>
+      </c>
+      <c r="F860" t="n">
+        <v>41.79000091552734</v>
+      </c>
+      <c r="G860" t="n">
+        <v>11293757</v>
+      </c>
+      <c r="H860" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I860" t="n">
+        <v>9</v>
+      </c>
+      <c r="J860" t="n">
+        <v>11</v>
+      </c>
+      <c r="K860" t="n">
+        <v>0</v>
+      </c>
+      <c r="L860" t="n">
+        <v>0</v>
+      </c>
+      <c r="M860" t="n">
+        <v>0</v>
+      </c>
+      <c r="N860" t="n">
+        <v>37</v>
+      </c>
+      <c r="O860" t="n">
+        <v>0</v>
+      </c>
+      <c r="P860" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q860" t="n">
+        <v>0</v>
+      </c>
+      <c r="R860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B861" t="n">
+        <v>41.9900016784668</v>
+      </c>
+      <c r="C861" t="n">
+        <v>42.09000015258789</v>
+      </c>
+      <c r="D861" t="n">
+        <v>40.09999847412109</v>
+      </c>
+      <c r="E861" t="n">
+        <v>41.09000015258789</v>
+      </c>
+      <c r="F861" t="n">
+        <v>41.09000015258789</v>
+      </c>
+      <c r="G861" t="n">
+        <v>10160966</v>
+      </c>
+      <c r="H861" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I861" t="n">
+        <v>9</v>
+      </c>
+      <c r="J861" t="n">
+        <v>12</v>
+      </c>
+      <c r="K861" t="n">
+        <v>0</v>
+      </c>
+      <c r="L861" t="n">
+        <v>0</v>
+      </c>
+      <c r="M861" t="n">
+        <v>0</v>
+      </c>
+      <c r="N861" t="n">
+        <v>37</v>
+      </c>
+      <c r="O861" t="n">
+        <v>0</v>
+      </c>
+      <c r="P861" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q861" t="n">
+        <v>0</v>
+      </c>
+      <c r="R861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B862" t="n">
+        <v>41.22999954223633</v>
+      </c>
+      <c r="C862" t="n">
+        <v>42.38000106811523</v>
+      </c>
+      <c r="D862" t="n">
+        <v>41</v>
+      </c>
+      <c r="E862" t="n">
+        <v>41.97999954223633</v>
+      </c>
+      <c r="F862" t="n">
+        <v>41.97999954223633</v>
+      </c>
+      <c r="G862" t="n">
+        <v>14314013</v>
+      </c>
+      <c r="H862" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I862" t="n">
+        <v>9</v>
+      </c>
+      <c r="J862" t="n">
+        <v>13</v>
+      </c>
+      <c r="K862" t="n">
+        <v>0</v>
+      </c>
+      <c r="L862" t="n">
+        <v>0</v>
+      </c>
+      <c r="M862" t="n">
+        <v>0</v>
+      </c>
+      <c r="N862" t="n">
+        <v>37</v>
+      </c>
+      <c r="O862" t="n">
+        <v>0</v>
+      </c>
+      <c r="P862" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q862" t="n">
+        <v>0</v>
+      </c>
+      <c r="R862" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R862"/>
+  <dimension ref="A1:R867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48341,7 +48341,7 @@
         <v>36</v>
       </c>
       <c r="O855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P855" t="n">
         <v>0</v>
@@ -48397,7 +48397,7 @@
         <v>36</v>
       </c>
       <c r="O856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P856" t="n">
         <v>0</v>
@@ -48517,7 +48517,9 @@
       <c r="Q858" t="n">
         <v>0</v>
       </c>
-      <c r="R858" t="inlineStr"/>
+      <c r="R858" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
@@ -48571,7 +48573,9 @@
       <c r="Q859" t="n">
         <v>0</v>
       </c>
-      <c r="R859" t="inlineStr"/>
+      <c r="R859" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
@@ -48625,7 +48629,9 @@
       <c r="Q860" t="n">
         <v>0</v>
       </c>
-      <c r="R860" t="inlineStr"/>
+      <c r="R860" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
@@ -48679,7 +48685,9 @@
       <c r="Q861" t="n">
         <v>0</v>
       </c>
-      <c r="R861" t="inlineStr"/>
+      <c r="R861" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
@@ -48733,7 +48741,279 @@
       <c r="Q862" t="n">
         <v>0</v>
       </c>
-      <c r="R862" t="inlineStr"/>
+      <c r="R862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B863" t="n">
+        <v>42.25</v>
+      </c>
+      <c r="C863" t="n">
+        <v>42.70000076293945</v>
+      </c>
+      <c r="D863" t="n">
+        <v>41.52000045776367</v>
+      </c>
+      <c r="E863" t="n">
+        <v>42.20000076293945</v>
+      </c>
+      <c r="F863" t="n">
+        <v>42.20000076293945</v>
+      </c>
+      <c r="G863" t="n">
+        <v>17387307</v>
+      </c>
+      <c r="H863" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I863" t="n">
+        <v>9</v>
+      </c>
+      <c r="J863" t="n">
+        <v>16</v>
+      </c>
+      <c r="K863" t="n">
+        <v>0</v>
+      </c>
+      <c r="L863" t="n">
+        <v>0</v>
+      </c>
+      <c r="M863" t="n">
+        <v>0</v>
+      </c>
+      <c r="N863" t="n">
+        <v>38</v>
+      </c>
+      <c r="O863" t="n">
+        <v>0</v>
+      </c>
+      <c r="P863" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q863" t="n">
+        <v>0</v>
+      </c>
+      <c r="R863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B864" t="n">
+        <v>42.18999862670898</v>
+      </c>
+      <c r="C864" t="n">
+        <v>42.95000076293945</v>
+      </c>
+      <c r="D864" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="E864" t="n">
+        <v>41.59000015258789</v>
+      </c>
+      <c r="F864" t="n">
+        <v>41.59000015258789</v>
+      </c>
+      <c r="G864" t="n">
+        <v>19633549</v>
+      </c>
+      <c r="H864" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I864" t="n">
+        <v>9</v>
+      </c>
+      <c r="J864" t="n">
+        <v>17</v>
+      </c>
+      <c r="K864" t="n">
+        <v>0</v>
+      </c>
+      <c r="L864" t="n">
+        <v>0</v>
+      </c>
+      <c r="M864" t="n">
+        <v>0</v>
+      </c>
+      <c r="N864" t="n">
+        <v>38</v>
+      </c>
+      <c r="O864" t="n">
+        <v>0</v>
+      </c>
+      <c r="P864" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q864" t="n">
+        <v>0</v>
+      </c>
+      <c r="R864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B865" t="n">
+        <v>41.58000183105469</v>
+      </c>
+      <c r="C865" t="n">
+        <v>41.68000030517578</v>
+      </c>
+      <c r="D865" t="n">
+        <v>40.84999847412109</v>
+      </c>
+      <c r="E865" t="n">
+        <v>40.9900016784668</v>
+      </c>
+      <c r="F865" t="n">
+        <v>40.9900016784668</v>
+      </c>
+      <c r="G865" t="n">
+        <v>7951485</v>
+      </c>
+      <c r="H865" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I865" t="n">
+        <v>9</v>
+      </c>
+      <c r="J865" t="n">
+        <v>18</v>
+      </c>
+      <c r="K865" t="n">
+        <v>0</v>
+      </c>
+      <c r="L865" t="n">
+        <v>0</v>
+      </c>
+      <c r="M865" t="n">
+        <v>0</v>
+      </c>
+      <c r="N865" t="n">
+        <v>38</v>
+      </c>
+      <c r="O865" t="n">
+        <v>0</v>
+      </c>
+      <c r="P865" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q865" t="n">
+        <v>0</v>
+      </c>
+      <c r="R865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B866" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="C866" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="D866" t="n">
+        <v>39.81999969482422</v>
+      </c>
+      <c r="E866" t="n">
+        <v>40.45999908447266</v>
+      </c>
+      <c r="F866" t="n">
+        <v>40.45999908447266</v>
+      </c>
+      <c r="G866" t="n">
+        <v>10408560</v>
+      </c>
+      <c r="H866" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I866" t="n">
+        <v>9</v>
+      </c>
+      <c r="J866" t="n">
+        <v>19</v>
+      </c>
+      <c r="K866" t="n">
+        <v>0</v>
+      </c>
+      <c r="L866" t="n">
+        <v>0</v>
+      </c>
+      <c r="M866" t="n">
+        <v>0</v>
+      </c>
+      <c r="N866" t="n">
+        <v>38</v>
+      </c>
+      <c r="O866" t="n">
+        <v>0</v>
+      </c>
+      <c r="P866" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q866" t="n">
+        <v>1</v>
+      </c>
+      <c r="R866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B867" t="n">
+        <v>40.59000015258789</v>
+      </c>
+      <c r="C867" t="n">
+        <v>41.95000076293945</v>
+      </c>
+      <c r="D867" t="n">
+        <v>40.15000152587891</v>
+      </c>
+      <c r="E867" t="n">
+        <v>41.63999938964844</v>
+      </c>
+      <c r="F867" t="n">
+        <v>41.63999938964844</v>
+      </c>
+      <c r="G867" t="n">
+        <v>42596998</v>
+      </c>
+      <c r="H867" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I867" t="n">
+        <v>9</v>
+      </c>
+      <c r="J867" t="n">
+        <v>20</v>
+      </c>
+      <c r="K867" t="n">
+        <v>0</v>
+      </c>
+      <c r="L867" t="n">
+        <v>0</v>
+      </c>
+      <c r="M867" t="n">
+        <v>0</v>
+      </c>
+      <c r="N867" t="n">
+        <v>38</v>
+      </c>
+      <c r="O867" t="n">
+        <v>0</v>
+      </c>
+      <c r="P867" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q867" t="n">
+        <v>2</v>
+      </c>
+      <c r="R867" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R867"/>
+  <dimension ref="A1:R872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48797,7 +48797,9 @@
       <c r="Q863" t="n">
         <v>0</v>
       </c>
-      <c r="R863" t="inlineStr"/>
+      <c r="R863" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
@@ -48851,7 +48853,9 @@
       <c r="Q864" t="n">
         <v>0</v>
       </c>
-      <c r="R864" t="inlineStr"/>
+      <c r="R864" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
@@ -48905,7 +48909,9 @@
       <c r="Q865" t="n">
         <v>0</v>
       </c>
-      <c r="R865" t="inlineStr"/>
+      <c r="R865" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
@@ -48959,7 +48965,9 @@
       <c r="Q866" t="n">
         <v>1</v>
       </c>
-      <c r="R866" t="inlineStr"/>
+      <c r="R866" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
@@ -49013,7 +49021,279 @@
       <c r="Q867" t="n">
         <v>2</v>
       </c>
-      <c r="R867" t="inlineStr"/>
+      <c r="R867" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B868" t="n">
+        <v>41.68000030517578</v>
+      </c>
+      <c r="C868" t="n">
+        <v>42.65000152587891</v>
+      </c>
+      <c r="D868" t="n">
+        <v>41.20000076293945</v>
+      </c>
+      <c r="E868" t="n">
+        <v>41.52999877929688</v>
+      </c>
+      <c r="F868" t="n">
+        <v>41.52999877929688</v>
+      </c>
+      <c r="G868" t="n">
+        <v>20764774</v>
+      </c>
+      <c r="H868" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I868" t="n">
+        <v>9</v>
+      </c>
+      <c r="J868" t="n">
+        <v>23</v>
+      </c>
+      <c r="K868" t="n">
+        <v>0</v>
+      </c>
+      <c r="L868" t="n">
+        <v>0</v>
+      </c>
+      <c r="M868" t="n">
+        <v>0</v>
+      </c>
+      <c r="N868" t="n">
+        <v>39</v>
+      </c>
+      <c r="O868" t="n">
+        <v>0</v>
+      </c>
+      <c r="P868" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q868" t="n">
+        <v>0</v>
+      </c>
+      <c r="R868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B869" t="n">
+        <v>41.47999954223633</v>
+      </c>
+      <c r="C869" t="n">
+        <v>41.47999954223633</v>
+      </c>
+      <c r="D869" t="n">
+        <v>40.88000106811523</v>
+      </c>
+      <c r="E869" t="n">
+        <v>40.97999954223633</v>
+      </c>
+      <c r="F869" t="n">
+        <v>40.97999954223633</v>
+      </c>
+      <c r="G869" t="n">
+        <v>8188900</v>
+      </c>
+      <c r="H869" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I869" t="n">
+        <v>9</v>
+      </c>
+      <c r="J869" t="n">
+        <v>24</v>
+      </c>
+      <c r="K869" t="n">
+        <v>0</v>
+      </c>
+      <c r="L869" t="n">
+        <v>0</v>
+      </c>
+      <c r="M869" t="n">
+        <v>0</v>
+      </c>
+      <c r="N869" t="n">
+        <v>39</v>
+      </c>
+      <c r="O869" t="n">
+        <v>0</v>
+      </c>
+      <c r="P869" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q869" t="n">
+        <v>0</v>
+      </c>
+      <c r="R869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B870" t="n">
+        <v>39.29999923706055</v>
+      </c>
+      <c r="C870" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D870" t="n">
+        <v>32.77999877929688</v>
+      </c>
+      <c r="E870" t="n">
+        <v>34.31999969482422</v>
+      </c>
+      <c r="F870" t="n">
+        <v>34.31999969482422</v>
+      </c>
+      <c r="G870" t="n">
+        <v>837150009</v>
+      </c>
+      <c r="H870" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I870" t="n">
+        <v>9</v>
+      </c>
+      <c r="J870" t="n">
+        <v>25</v>
+      </c>
+      <c r="K870" t="n">
+        <v>0</v>
+      </c>
+      <c r="L870" t="n">
+        <v>0</v>
+      </c>
+      <c r="M870" t="n">
+        <v>0</v>
+      </c>
+      <c r="N870" t="n">
+        <v>39</v>
+      </c>
+      <c r="O870" t="n">
+        <v>0</v>
+      </c>
+      <c r="P870" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q870" t="n">
+        <v>0</v>
+      </c>
+      <c r="R870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B871" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C871" t="n">
+        <v>36.84999847412109</v>
+      </c>
+      <c r="D871" t="n">
+        <v>34.40000152587891</v>
+      </c>
+      <c r="E871" t="n">
+        <v>36.58000183105469</v>
+      </c>
+      <c r="F871" t="n">
+        <v>36.58000183105469</v>
+      </c>
+      <c r="G871" t="n">
+        <v>210671221</v>
+      </c>
+      <c r="H871" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I871" t="n">
+        <v>9</v>
+      </c>
+      <c r="J871" t="n">
+        <v>26</v>
+      </c>
+      <c r="K871" t="n">
+        <v>0</v>
+      </c>
+      <c r="L871" t="n">
+        <v>0</v>
+      </c>
+      <c r="M871" t="n">
+        <v>0</v>
+      </c>
+      <c r="N871" t="n">
+        <v>39</v>
+      </c>
+      <c r="O871" t="n">
+        <v>0</v>
+      </c>
+      <c r="P871" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>0</v>
+      </c>
+      <c r="R871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B872" t="n">
+        <v>36.93999862670898</v>
+      </c>
+      <c r="C872" t="n">
+        <v>36.95000076293945</v>
+      </c>
+      <c r="D872" t="n">
+        <v>34.59999847412109</v>
+      </c>
+      <c r="E872" t="n">
+        <v>34.81000137329102</v>
+      </c>
+      <c r="F872" t="n">
+        <v>34.81000137329102</v>
+      </c>
+      <c r="G872" t="n">
+        <v>120932826</v>
+      </c>
+      <c r="H872" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I872" t="n">
+        <v>9</v>
+      </c>
+      <c r="J872" t="n">
+        <v>27</v>
+      </c>
+      <c r="K872" t="n">
+        <v>0</v>
+      </c>
+      <c r="L872" t="n">
+        <v>0</v>
+      </c>
+      <c r="M872" t="n">
+        <v>0</v>
+      </c>
+      <c r="N872" t="n">
+        <v>39</v>
+      </c>
+      <c r="O872" t="n">
+        <v>0</v>
+      </c>
+      <c r="P872" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>0</v>
+      </c>
+      <c r="R872" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R872"/>
+  <dimension ref="A1:R876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49077,7 +49077,9 @@
       <c r="Q868" t="n">
         <v>0</v>
       </c>
-      <c r="R868" t="inlineStr"/>
+      <c r="R868" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
@@ -49131,7 +49133,9 @@
       <c r="Q869" t="n">
         <v>0</v>
       </c>
-      <c r="R869" t="inlineStr"/>
+      <c r="R869" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
@@ -49185,7 +49189,9 @@
       <c r="Q870" t="n">
         <v>0</v>
       </c>
-      <c r="R870" t="inlineStr"/>
+      <c r="R870" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
@@ -49239,7 +49245,9 @@
       <c r="Q871" t="n">
         <v>0</v>
       </c>
-      <c r="R871" t="inlineStr"/>
+      <c r="R871" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
@@ -49293,7 +49301,225 @@
       <c r="Q872" t="n">
         <v>0</v>
       </c>
-      <c r="R872" t="inlineStr"/>
+      <c r="R872" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B873" t="n">
+        <v>34.81000137329102</v>
+      </c>
+      <c r="C873" t="n">
+        <v>34.93999862670898</v>
+      </c>
+      <c r="D873" t="n">
+        <v>33.86000061035156</v>
+      </c>
+      <c r="E873" t="n">
+        <v>34.02000045776367</v>
+      </c>
+      <c r="F873" t="n">
+        <v>34.02000045776367</v>
+      </c>
+      <c r="G873" t="n">
+        <v>71890004</v>
+      </c>
+      <c r="H873" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I873" t="n">
+        <v>9</v>
+      </c>
+      <c r="J873" t="n">
+        <v>30</v>
+      </c>
+      <c r="K873" t="n">
+        <v>0</v>
+      </c>
+      <c r="L873" t="n">
+        <v>0</v>
+      </c>
+      <c r="M873" t="n">
+        <v>0</v>
+      </c>
+      <c r="N873" t="n">
+        <v>40</v>
+      </c>
+      <c r="O873" t="n">
+        <v>0</v>
+      </c>
+      <c r="P873" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>0</v>
+      </c>
+      <c r="R873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B874" t="n">
+        <v>34.09999847412109</v>
+      </c>
+      <c r="C874" t="n">
+        <v>34.59999847412109</v>
+      </c>
+      <c r="D874" t="n">
+        <v>33.90999984741211</v>
+      </c>
+      <c r="E874" t="n">
+        <v>34</v>
+      </c>
+      <c r="F874" t="n">
+        <v>34</v>
+      </c>
+      <c r="G874" t="n">
+        <v>36576235</v>
+      </c>
+      <c r="H874" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I874" t="n">
+        <v>10</v>
+      </c>
+      <c r="J874" t="n">
+        <v>1</v>
+      </c>
+      <c r="K874" t="n">
+        <v>0</v>
+      </c>
+      <c r="L874" t="n">
+        <v>0</v>
+      </c>
+      <c r="M874" t="n">
+        <v>0</v>
+      </c>
+      <c r="N874" t="n">
+        <v>40</v>
+      </c>
+      <c r="O874" t="n">
+        <v>0</v>
+      </c>
+      <c r="P874" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q874" t="n">
+        <v>0</v>
+      </c>
+      <c r="R874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B875" t="n">
+        <v>33.65000152587891</v>
+      </c>
+      <c r="C875" t="n">
+        <v>33.95000076293945</v>
+      </c>
+      <c r="D875" t="n">
+        <v>33.0099983215332</v>
+      </c>
+      <c r="E875" t="n">
+        <v>33.20000076293945</v>
+      </c>
+      <c r="F875" t="n">
+        <v>33.20000076293945</v>
+      </c>
+      <c r="G875" t="n">
+        <v>26627413</v>
+      </c>
+      <c r="H875" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I875" t="n">
+        <v>10</v>
+      </c>
+      <c r="J875" t="n">
+        <v>3</v>
+      </c>
+      <c r="K875" t="n">
+        <v>0</v>
+      </c>
+      <c r="L875" t="n">
+        <v>0</v>
+      </c>
+      <c r="M875" t="n">
+        <v>0</v>
+      </c>
+      <c r="N875" t="n">
+        <v>40</v>
+      </c>
+      <c r="O875" t="n">
+        <v>0</v>
+      </c>
+      <c r="P875" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>0</v>
+      </c>
+      <c r="R875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B876" t="n">
+        <v>33.45999908447266</v>
+      </c>
+      <c r="C876" t="n">
+        <v>33.68999862670898</v>
+      </c>
+      <c r="D876" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E876" t="n">
+        <v>33.31999969482422</v>
+      </c>
+      <c r="F876" t="n">
+        <v>33.31999969482422</v>
+      </c>
+      <c r="G876" t="n">
+        <v>25448756</v>
+      </c>
+      <c r="H876" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I876" t="n">
+        <v>10</v>
+      </c>
+      <c r="J876" t="n">
+        <v>4</v>
+      </c>
+      <c r="K876" t="n">
+        <v>0</v>
+      </c>
+      <c r="L876" t="n">
+        <v>0</v>
+      </c>
+      <c r="M876" t="n">
+        <v>0</v>
+      </c>
+      <c r="N876" t="n">
+        <v>40</v>
+      </c>
+      <c r="O876" t="n">
+        <v>0</v>
+      </c>
+      <c r="P876" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>0</v>
+      </c>
+      <c r="R876" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R876"/>
+  <dimension ref="A1:R881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49357,7 +49357,9 @@
       <c r="Q873" t="n">
         <v>0</v>
       </c>
-      <c r="R873" t="inlineStr"/>
+      <c r="R873" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
@@ -49411,7 +49413,9 @@
       <c r="Q874" t="n">
         <v>0</v>
       </c>
-      <c r="R874" t="inlineStr"/>
+      <c r="R874" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
@@ -49465,7 +49469,9 @@
       <c r="Q875" t="n">
         <v>0</v>
       </c>
-      <c r="R875" t="inlineStr"/>
+      <c r="R875" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
@@ -49519,7 +49525,279 @@
       <c r="Q876" t="n">
         <v>0</v>
       </c>
-      <c r="R876" t="inlineStr"/>
+      <c r="R876" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B877" t="n">
+        <v>33.65999984741211</v>
+      </c>
+      <c r="C877" t="n">
+        <v>33.77999877929688</v>
+      </c>
+      <c r="D877" t="n">
+        <v>31.60000038146973</v>
+      </c>
+      <c r="E877" t="n">
+        <v>32.09000015258789</v>
+      </c>
+      <c r="F877" t="n">
+        <v>32.09000015258789</v>
+      </c>
+      <c r="G877" t="n">
+        <v>26475054</v>
+      </c>
+      <c r="H877" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I877" t="n">
+        <v>10</v>
+      </c>
+      <c r="J877" t="n">
+        <v>7</v>
+      </c>
+      <c r="K877" t="n">
+        <v>0</v>
+      </c>
+      <c r="L877" t="n">
+        <v>0</v>
+      </c>
+      <c r="M877" t="n">
+        <v>0</v>
+      </c>
+      <c r="N877" t="n">
+        <v>41</v>
+      </c>
+      <c r="O877" t="n">
+        <v>0</v>
+      </c>
+      <c r="P877" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q877" t="n">
+        <v>0</v>
+      </c>
+      <c r="R877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B878" t="n">
+        <v>32.09999847412109</v>
+      </c>
+      <c r="C878" t="n">
+        <v>33.13999938964844</v>
+      </c>
+      <c r="D878" t="n">
+        <v>31.71999931335449</v>
+      </c>
+      <c r="E878" t="n">
+        <v>32.84999847412109</v>
+      </c>
+      <c r="F878" t="n">
+        <v>32.84999847412109</v>
+      </c>
+      <c r="G878" t="n">
+        <v>29807139</v>
+      </c>
+      <c r="H878" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I878" t="n">
+        <v>10</v>
+      </c>
+      <c r="J878" t="n">
+        <v>8</v>
+      </c>
+      <c r="K878" t="n">
+        <v>0</v>
+      </c>
+      <c r="L878" t="n">
+        <v>0</v>
+      </c>
+      <c r="M878" t="n">
+        <v>0</v>
+      </c>
+      <c r="N878" t="n">
+        <v>41</v>
+      </c>
+      <c r="O878" t="n">
+        <v>0</v>
+      </c>
+      <c r="P878" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q878" t="n">
+        <v>0</v>
+      </c>
+      <c r="R878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B879" t="n">
+        <v>33.31000137329102</v>
+      </c>
+      <c r="C879" t="n">
+        <v>34.58000183105469</v>
+      </c>
+      <c r="D879" t="n">
+        <v>33.11000061035156</v>
+      </c>
+      <c r="E879" t="n">
+        <v>34.09000015258789</v>
+      </c>
+      <c r="F879" t="n">
+        <v>34.09000015258789</v>
+      </c>
+      <c r="G879" t="n">
+        <v>55964013</v>
+      </c>
+      <c r="H879" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I879" t="n">
+        <v>10</v>
+      </c>
+      <c r="J879" t="n">
+        <v>9</v>
+      </c>
+      <c r="K879" t="n">
+        <v>0</v>
+      </c>
+      <c r="L879" t="n">
+        <v>0</v>
+      </c>
+      <c r="M879" t="n">
+        <v>0</v>
+      </c>
+      <c r="N879" t="n">
+        <v>41</v>
+      </c>
+      <c r="O879" t="n">
+        <v>0</v>
+      </c>
+      <c r="P879" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q879" t="n">
+        <v>0</v>
+      </c>
+      <c r="R879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B880" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C880" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="D880" t="n">
+        <v>34.09999847412109</v>
+      </c>
+      <c r="E880" t="n">
+        <v>34.36000061035156</v>
+      </c>
+      <c r="F880" t="n">
+        <v>34.36000061035156</v>
+      </c>
+      <c r="G880" t="n">
+        <v>35036351</v>
+      </c>
+      <c r="H880" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I880" t="n">
+        <v>10</v>
+      </c>
+      <c r="J880" t="n">
+        <v>10</v>
+      </c>
+      <c r="K880" t="n">
+        <v>0</v>
+      </c>
+      <c r="L880" t="n">
+        <v>0</v>
+      </c>
+      <c r="M880" t="n">
+        <v>0</v>
+      </c>
+      <c r="N880" t="n">
+        <v>41</v>
+      </c>
+      <c r="O880" t="n">
+        <v>0</v>
+      </c>
+      <c r="P880" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>0</v>
+      </c>
+      <c r="R880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B881" t="n">
+        <v>34.4900016784668</v>
+      </c>
+      <c r="C881" t="n">
+        <v>34.54999923706055</v>
+      </c>
+      <c r="D881" t="n">
+        <v>33.9900016784668</v>
+      </c>
+      <c r="E881" t="n">
+        <v>34.18999862670898</v>
+      </c>
+      <c r="F881" t="n">
+        <v>34.18999862670898</v>
+      </c>
+      <c r="G881" t="n">
+        <v>10307445</v>
+      </c>
+      <c r="H881" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I881" t="n">
+        <v>10</v>
+      </c>
+      <c r="J881" t="n">
+        <v>11</v>
+      </c>
+      <c r="K881" t="n">
+        <v>0</v>
+      </c>
+      <c r="L881" t="n">
+        <v>0</v>
+      </c>
+      <c r="M881" t="n">
+        <v>0</v>
+      </c>
+      <c r="N881" t="n">
+        <v>41</v>
+      </c>
+      <c r="O881" t="n">
+        <v>0</v>
+      </c>
+      <c r="P881" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>0</v>
+      </c>
+      <c r="R881" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R881"/>
+  <dimension ref="A1:R886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49581,7 +49581,9 @@
       <c r="Q877" t="n">
         <v>0</v>
       </c>
-      <c r="R877" t="inlineStr"/>
+      <c r="R877" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
@@ -49635,7 +49637,9 @@
       <c r="Q878" t="n">
         <v>0</v>
       </c>
-      <c r="R878" t="inlineStr"/>
+      <c r="R878" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
@@ -49689,7 +49693,9 @@
       <c r="Q879" t="n">
         <v>0</v>
       </c>
-      <c r="R879" t="inlineStr"/>
+      <c r="R879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -49743,7 +49749,9 @@
       <c r="Q880" t="n">
         <v>0</v>
       </c>
-      <c r="R880" t="inlineStr"/>
+      <c r="R880" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -49797,7 +49805,279 @@
       <c r="Q881" t="n">
         <v>0</v>
       </c>
-      <c r="R881" t="inlineStr"/>
+      <c r="R881" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B882" t="n">
+        <v>34.70000076293945</v>
+      </c>
+      <c r="C882" t="n">
+        <v>34.70000076293945</v>
+      </c>
+      <c r="D882" t="n">
+        <v>33.22000122070312</v>
+      </c>
+      <c r="E882" t="n">
+        <v>33.43999862670898</v>
+      </c>
+      <c r="F882" t="n">
+        <v>33.43999862670898</v>
+      </c>
+      <c r="G882" t="n">
+        <v>37182023</v>
+      </c>
+      <c r="H882" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I882" t="n">
+        <v>10</v>
+      </c>
+      <c r="J882" t="n">
+        <v>14</v>
+      </c>
+      <c r="K882" t="n">
+        <v>0</v>
+      </c>
+      <c r="L882" t="n">
+        <v>0</v>
+      </c>
+      <c r="M882" t="n">
+        <v>0</v>
+      </c>
+      <c r="N882" t="n">
+        <v>42</v>
+      </c>
+      <c r="O882" t="n">
+        <v>0</v>
+      </c>
+      <c r="P882" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>0</v>
+      </c>
+      <c r="R882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B883" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C883" t="n">
+        <v>33.7400016784668</v>
+      </c>
+      <c r="D883" t="n">
+        <v>32.90000152587891</v>
+      </c>
+      <c r="E883" t="n">
+        <v>32.97000122070312</v>
+      </c>
+      <c r="F883" t="n">
+        <v>32.97000122070312</v>
+      </c>
+      <c r="G883" t="n">
+        <v>14500570</v>
+      </c>
+      <c r="H883" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I883" t="n">
+        <v>10</v>
+      </c>
+      <c r="J883" t="n">
+        <v>15</v>
+      </c>
+      <c r="K883" t="n">
+        <v>0</v>
+      </c>
+      <c r="L883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M883" t="n">
+        <v>0</v>
+      </c>
+      <c r="N883" t="n">
+        <v>42</v>
+      </c>
+      <c r="O883" t="n">
+        <v>0</v>
+      </c>
+      <c r="P883" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>0</v>
+      </c>
+      <c r="R883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B884" t="n">
+        <v>33</v>
+      </c>
+      <c r="C884" t="n">
+        <v>33.20000076293945</v>
+      </c>
+      <c r="D884" t="n">
+        <v>32.31999969482422</v>
+      </c>
+      <c r="E884" t="n">
+        <v>32.45000076293945</v>
+      </c>
+      <c r="F884" t="n">
+        <v>32.45000076293945</v>
+      </c>
+      <c r="G884" t="n">
+        <v>17106042</v>
+      </c>
+      <c r="H884" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I884" t="n">
+        <v>10</v>
+      </c>
+      <c r="J884" t="n">
+        <v>16</v>
+      </c>
+      <c r="K884" t="n">
+        <v>0</v>
+      </c>
+      <c r="L884" t="n">
+        <v>0</v>
+      </c>
+      <c r="M884" t="n">
+        <v>0</v>
+      </c>
+      <c r="N884" t="n">
+        <v>42</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+      <c r="P884" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
+      <c r="R884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B885" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C885" t="n">
+        <v>32.59999847412109</v>
+      </c>
+      <c r="D885" t="n">
+        <v>31.93000030517578</v>
+      </c>
+      <c r="E885" t="n">
+        <v>32.04000091552734</v>
+      </c>
+      <c r="F885" t="n">
+        <v>32.04000091552734</v>
+      </c>
+      <c r="G885" t="n">
+        <v>13173691</v>
+      </c>
+      <c r="H885" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I885" t="n">
+        <v>10</v>
+      </c>
+      <c r="J885" t="n">
+        <v>17</v>
+      </c>
+      <c r="K885" t="n">
+        <v>0</v>
+      </c>
+      <c r="L885" t="n">
+        <v>0</v>
+      </c>
+      <c r="M885" t="n">
+        <v>0</v>
+      </c>
+      <c r="N885" t="n">
+        <v>42</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+      <c r="P885" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>0</v>
+      </c>
+      <c r="R885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B886" t="n">
+        <v>32.04000091552734</v>
+      </c>
+      <c r="C886" t="n">
+        <v>32.34999847412109</v>
+      </c>
+      <c r="D886" t="n">
+        <v>31.55999946594238</v>
+      </c>
+      <c r="E886" t="n">
+        <v>32</v>
+      </c>
+      <c r="F886" t="n">
+        <v>32</v>
+      </c>
+      <c r="G886" t="n">
+        <v>13506786</v>
+      </c>
+      <c r="H886" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I886" t="n">
+        <v>10</v>
+      </c>
+      <c r="J886" t="n">
+        <v>18</v>
+      </c>
+      <c r="K886" t="n">
+        <v>0</v>
+      </c>
+      <c r="L886" t="n">
+        <v>0</v>
+      </c>
+      <c r="M886" t="n">
+        <v>0</v>
+      </c>
+      <c r="N886" t="n">
+        <v>42</v>
+      </c>
+      <c r="O886" t="n">
+        <v>0</v>
+      </c>
+      <c r="P886" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>0</v>
+      </c>
+      <c r="R886" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R886"/>
+  <dimension ref="A1:R891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49861,7 +49861,9 @@
       <c r="Q882" t="n">
         <v>0</v>
       </c>
-      <c r="R882" t="inlineStr"/>
+      <c r="R882" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
@@ -49915,7 +49917,9 @@
       <c r="Q883" t="n">
         <v>0</v>
       </c>
-      <c r="R883" t="inlineStr"/>
+      <c r="R883" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
@@ -49969,7 +49973,9 @@
       <c r="Q884" t="n">
         <v>0</v>
       </c>
-      <c r="R884" t="inlineStr"/>
+      <c r="R884" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
@@ -50023,7 +50029,9 @@
       <c r="Q885" t="n">
         <v>0</v>
       </c>
-      <c r="R885" t="inlineStr"/>
+      <c r="R885" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
@@ -50077,7 +50085,279 @@
       <c r="Q886" t="n">
         <v>0</v>
       </c>
-      <c r="R886" t="inlineStr"/>
+      <c r="R886" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B887" t="n">
+        <v>32.29999923706055</v>
+      </c>
+      <c r="C887" t="n">
+        <v>32.84999847412109</v>
+      </c>
+      <c r="D887" t="n">
+        <v>31.60000038146973</v>
+      </c>
+      <c r="E887" t="n">
+        <v>31.79999923706055</v>
+      </c>
+      <c r="F887" t="n">
+        <v>31.79999923706055</v>
+      </c>
+      <c r="G887" t="n">
+        <v>16243101</v>
+      </c>
+      <c r="H887" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I887" t="n">
+        <v>10</v>
+      </c>
+      <c r="J887" t="n">
+        <v>21</v>
+      </c>
+      <c r="K887" t="n">
+        <v>0</v>
+      </c>
+      <c r="L887" t="n">
+        <v>0</v>
+      </c>
+      <c r="M887" t="n">
+        <v>0</v>
+      </c>
+      <c r="N887" t="n">
+        <v>43</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0</v>
+      </c>
+      <c r="P887" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q887" t="n">
+        <v>0</v>
+      </c>
+      <c r="R887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B888" t="n">
+        <v>31.79000091552734</v>
+      </c>
+      <c r="C888" t="n">
+        <v>31.8799991607666</v>
+      </c>
+      <c r="D888" t="n">
+        <v>30.11000061035156</v>
+      </c>
+      <c r="E888" t="n">
+        <v>30.29999923706055</v>
+      </c>
+      <c r="F888" t="n">
+        <v>30.29999923706055</v>
+      </c>
+      <c r="G888" t="n">
+        <v>16919348</v>
+      </c>
+      <c r="H888" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I888" t="n">
+        <v>10</v>
+      </c>
+      <c r="J888" t="n">
+        <v>22</v>
+      </c>
+      <c r="K888" t="n">
+        <v>0</v>
+      </c>
+      <c r="L888" t="n">
+        <v>0</v>
+      </c>
+      <c r="M888" t="n">
+        <v>0</v>
+      </c>
+      <c r="N888" t="n">
+        <v>43</v>
+      </c>
+      <c r="O888" t="n">
+        <v>0</v>
+      </c>
+      <c r="P888" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q888" t="n">
+        <v>0</v>
+      </c>
+      <c r="R888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B889" t="n">
+        <v>30.27000045776367</v>
+      </c>
+      <c r="C889" t="n">
+        <v>30.48999977111816</v>
+      </c>
+      <c r="D889" t="n">
+        <v>28.40999984741211</v>
+      </c>
+      <c r="E889" t="n">
+        <v>30.11000061035156</v>
+      </c>
+      <c r="F889" t="n">
+        <v>30.11000061035156</v>
+      </c>
+      <c r="G889" t="n">
+        <v>21682612</v>
+      </c>
+      <c r="H889" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I889" t="n">
+        <v>10</v>
+      </c>
+      <c r="J889" t="n">
+        <v>23</v>
+      </c>
+      <c r="K889" t="n">
+        <v>0</v>
+      </c>
+      <c r="L889" t="n">
+        <v>0</v>
+      </c>
+      <c r="M889" t="n">
+        <v>0</v>
+      </c>
+      <c r="N889" t="n">
+        <v>43</v>
+      </c>
+      <c r="O889" t="n">
+        <v>0</v>
+      </c>
+      <c r="P889" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q889" t="n">
+        <v>0</v>
+      </c>
+      <c r="R889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B890" t="n">
+        <v>30.11000061035156</v>
+      </c>
+      <c r="C890" t="n">
+        <v>30.29000091552734</v>
+      </c>
+      <c r="D890" t="n">
+        <v>29.81999969482422</v>
+      </c>
+      <c r="E890" t="n">
+        <v>29.88999938964844</v>
+      </c>
+      <c r="F890" t="n">
+        <v>29.88999938964844</v>
+      </c>
+      <c r="G890" t="n">
+        <v>9060972</v>
+      </c>
+      <c r="H890" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I890" t="n">
+        <v>10</v>
+      </c>
+      <c r="J890" t="n">
+        <v>24</v>
+      </c>
+      <c r="K890" t="n">
+        <v>0</v>
+      </c>
+      <c r="L890" t="n">
+        <v>0</v>
+      </c>
+      <c r="M890" t="n">
+        <v>0</v>
+      </c>
+      <c r="N890" t="n">
+        <v>43</v>
+      </c>
+      <c r="O890" t="n">
+        <v>0</v>
+      </c>
+      <c r="P890" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q890" t="n">
+        <v>0</v>
+      </c>
+      <c r="R890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B891" t="n">
+        <v>29.89999961853027</v>
+      </c>
+      <c r="C891" t="n">
+        <v>30.03000068664551</v>
+      </c>
+      <c r="D891" t="n">
+        <v>28.70000076293945</v>
+      </c>
+      <c r="E891" t="n">
+        <v>28.88999938964844</v>
+      </c>
+      <c r="F891" t="n">
+        <v>28.88999938964844</v>
+      </c>
+      <c r="G891" t="n">
+        <v>15958938</v>
+      </c>
+      <c r="H891" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I891" t="n">
+        <v>10</v>
+      </c>
+      <c r="J891" t="n">
+        <v>25</v>
+      </c>
+      <c r="K891" t="n">
+        <v>0</v>
+      </c>
+      <c r="L891" t="n">
+        <v>0</v>
+      </c>
+      <c r="M891" t="n">
+        <v>0</v>
+      </c>
+      <c r="N891" t="n">
+        <v>43</v>
+      </c>
+      <c r="O891" t="n">
+        <v>0</v>
+      </c>
+      <c r="P891" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q891" t="n">
+        <v>0</v>
+      </c>
+      <c r="R891" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R891"/>
+  <dimension ref="A1:R896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50141,7 +50141,9 @@
       <c r="Q887" t="n">
         <v>0</v>
       </c>
-      <c r="R887" t="inlineStr"/>
+      <c r="R887" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
@@ -50195,7 +50197,9 @@
       <c r="Q888" t="n">
         <v>0</v>
       </c>
-      <c r="R888" t="inlineStr"/>
+      <c r="R888" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
@@ -50249,7 +50253,9 @@
       <c r="Q889" t="n">
         <v>0</v>
       </c>
-      <c r="R889" t="inlineStr"/>
+      <c r="R889" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
@@ -50303,7 +50309,9 @@
       <c r="Q890" t="n">
         <v>0</v>
       </c>
-      <c r="R890" t="inlineStr"/>
+      <c r="R890" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
@@ -50357,7 +50365,279 @@
       <c r="Q891" t="n">
         <v>0</v>
       </c>
-      <c r="R891" t="inlineStr"/>
+      <c r="R891" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B892" t="n">
+        <v>29.04999923706055</v>
+      </c>
+      <c r="C892" t="n">
+        <v>30.04999923706055</v>
+      </c>
+      <c r="D892" t="n">
+        <v>28.51000022888184</v>
+      </c>
+      <c r="E892" t="n">
+        <v>29.70000076293945</v>
+      </c>
+      <c r="F892" t="n">
+        <v>29.70000076293945</v>
+      </c>
+      <c r="G892" t="n">
+        <v>15112941</v>
+      </c>
+      <c r="H892" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I892" t="n">
+        <v>10</v>
+      </c>
+      <c r="J892" t="n">
+        <v>28</v>
+      </c>
+      <c r="K892" t="n">
+        <v>0</v>
+      </c>
+      <c r="L892" t="n">
+        <v>0</v>
+      </c>
+      <c r="M892" t="n">
+        <v>0</v>
+      </c>
+      <c r="N892" t="n">
+        <v>44</v>
+      </c>
+      <c r="O892" t="n">
+        <v>0</v>
+      </c>
+      <c r="P892" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q892" t="n">
+        <v>0</v>
+      </c>
+      <c r="R892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B893" t="n">
+        <v>29.79000091552734</v>
+      </c>
+      <c r="C893" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="D893" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E893" t="n">
+        <v>29.85000038146973</v>
+      </c>
+      <c r="F893" t="n">
+        <v>29.85000038146973</v>
+      </c>
+      <c r="G893" t="n">
+        <v>8125159</v>
+      </c>
+      <c r="H893" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I893" t="n">
+        <v>10</v>
+      </c>
+      <c r="J893" t="n">
+        <v>29</v>
+      </c>
+      <c r="K893" t="n">
+        <v>0</v>
+      </c>
+      <c r="L893" t="n">
+        <v>0</v>
+      </c>
+      <c r="M893" t="n">
+        <v>0</v>
+      </c>
+      <c r="N893" t="n">
+        <v>44</v>
+      </c>
+      <c r="O893" t="n">
+        <v>0</v>
+      </c>
+      <c r="P893" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q893" t="n">
+        <v>0</v>
+      </c>
+      <c r="R893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B894" t="n">
+        <v>29.95999908447266</v>
+      </c>
+      <c r="C894" t="n">
+        <v>32.70000076293945</v>
+      </c>
+      <c r="D894" t="n">
+        <v>29.76000022888184</v>
+      </c>
+      <c r="E894" t="n">
+        <v>32.40999984741211</v>
+      </c>
+      <c r="F894" t="n">
+        <v>32.40999984741211</v>
+      </c>
+      <c r="G894" t="n">
+        <v>36700375</v>
+      </c>
+      <c r="H894" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I894" t="n">
+        <v>10</v>
+      </c>
+      <c r="J894" t="n">
+        <v>30</v>
+      </c>
+      <c r="K894" t="n">
+        <v>0</v>
+      </c>
+      <c r="L894" t="n">
+        <v>0</v>
+      </c>
+      <c r="M894" t="n">
+        <v>0</v>
+      </c>
+      <c r="N894" t="n">
+        <v>44</v>
+      </c>
+      <c r="O894" t="n">
+        <v>0</v>
+      </c>
+      <c r="P894" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q894" t="n">
+        <v>0</v>
+      </c>
+      <c r="R894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B895" t="n">
+        <v>32</v>
+      </c>
+      <c r="C895" t="n">
+        <v>33.36999893188477</v>
+      </c>
+      <c r="D895" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="E895" t="n">
+        <v>33.04000091552734</v>
+      </c>
+      <c r="F895" t="n">
+        <v>33.04000091552734</v>
+      </c>
+      <c r="G895" t="n">
+        <v>20268571</v>
+      </c>
+      <c r="H895" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I895" t="n">
+        <v>10</v>
+      </c>
+      <c r="J895" t="n">
+        <v>31</v>
+      </c>
+      <c r="K895" t="n">
+        <v>0</v>
+      </c>
+      <c r="L895" t="n">
+        <v>0</v>
+      </c>
+      <c r="M895" t="n">
+        <v>0</v>
+      </c>
+      <c r="N895" t="n">
+        <v>44</v>
+      </c>
+      <c r="O895" t="n">
+        <v>0</v>
+      </c>
+      <c r="P895" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q895" t="n">
+        <v>0</v>
+      </c>
+      <c r="R895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B896" t="n">
+        <v>33.2400016784668</v>
+      </c>
+      <c r="C896" t="n">
+        <v>33.54999923706055</v>
+      </c>
+      <c r="D896" t="n">
+        <v>33.11000061035156</v>
+      </c>
+      <c r="E896" t="n">
+        <v>33.47999954223633</v>
+      </c>
+      <c r="F896" t="n">
+        <v>33.47999954223633</v>
+      </c>
+      <c r="G896" t="n">
+        <v>2639768</v>
+      </c>
+      <c r="H896" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I896" t="n">
+        <v>11</v>
+      </c>
+      <c r="J896" t="n">
+        <v>1</v>
+      </c>
+      <c r="K896" t="n">
+        <v>0</v>
+      </c>
+      <c r="L896" t="n">
+        <v>0</v>
+      </c>
+      <c r="M896" t="n">
+        <v>0</v>
+      </c>
+      <c r="N896" t="n">
+        <v>44</v>
+      </c>
+      <c r="O896" t="n">
+        <v>0</v>
+      </c>
+      <c r="P896" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q896" t="n">
+        <v>0</v>
+      </c>
+      <c r="R896" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R896"/>
+  <dimension ref="A1:R901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50245,7 +50245,7 @@
         <v>43</v>
       </c>
       <c r="O889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P889" t="n">
         <v>0</v>
@@ -50421,7 +50421,9 @@
       <c r="Q892" t="n">
         <v>0</v>
       </c>
-      <c r="R892" t="inlineStr"/>
+      <c r="R892" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
@@ -50475,7 +50477,9 @@
       <c r="Q893" t="n">
         <v>0</v>
       </c>
-      <c r="R893" t="inlineStr"/>
+      <c r="R893" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
@@ -50529,7 +50533,9 @@
       <c r="Q894" t="n">
         <v>0</v>
       </c>
-      <c r="R894" t="inlineStr"/>
+      <c r="R894" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
@@ -50583,7 +50589,9 @@
       <c r="Q895" t="n">
         <v>0</v>
       </c>
-      <c r="R895" t="inlineStr"/>
+      <c r="R895" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
@@ -50637,7 +50645,279 @@
       <c r="Q896" t="n">
         <v>0</v>
       </c>
-      <c r="R896" t="inlineStr"/>
+      <c r="R896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B897" t="n">
+        <v>33.34999847412109</v>
+      </c>
+      <c r="C897" t="n">
+        <v>33.61999893188477</v>
+      </c>
+      <c r="D897" t="n">
+        <v>31.90999984741211</v>
+      </c>
+      <c r="E897" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="F897" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="G897" t="n">
+        <v>16628462</v>
+      </c>
+      <c r="H897" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I897" t="n">
+        <v>11</v>
+      </c>
+      <c r="J897" t="n">
+        <v>4</v>
+      </c>
+      <c r="K897" t="n">
+        <v>0</v>
+      </c>
+      <c r="L897" t="n">
+        <v>0</v>
+      </c>
+      <c r="M897" t="n">
+        <v>0</v>
+      </c>
+      <c r="N897" t="n">
+        <v>45</v>
+      </c>
+      <c r="O897" t="n">
+        <v>0</v>
+      </c>
+      <c r="P897" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q897" t="n">
+        <v>0</v>
+      </c>
+      <c r="R897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B898" t="n">
+        <v>32.79999923706055</v>
+      </c>
+      <c r="C898" t="n">
+        <v>33.09000015258789</v>
+      </c>
+      <c r="D898" t="n">
+        <v>32.33000183105469</v>
+      </c>
+      <c r="E898" t="n">
+        <v>32.54000091552734</v>
+      </c>
+      <c r="F898" t="n">
+        <v>32.54000091552734</v>
+      </c>
+      <c r="G898" t="n">
+        <v>9439111</v>
+      </c>
+      <c r="H898" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I898" t="n">
+        <v>11</v>
+      </c>
+      <c r="J898" t="n">
+        <v>5</v>
+      </c>
+      <c r="K898" t="n">
+        <v>0</v>
+      </c>
+      <c r="L898" t="n">
+        <v>0</v>
+      </c>
+      <c r="M898" t="n">
+        <v>0</v>
+      </c>
+      <c r="N898" t="n">
+        <v>45</v>
+      </c>
+      <c r="O898" t="n">
+        <v>0</v>
+      </c>
+      <c r="P898" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q898" t="n">
+        <v>0</v>
+      </c>
+      <c r="R898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B899" t="n">
+        <v>32.63000106811523</v>
+      </c>
+      <c r="C899" t="n">
+        <v>33.95000076293945</v>
+      </c>
+      <c r="D899" t="n">
+        <v>32.40999984741211</v>
+      </c>
+      <c r="E899" t="n">
+        <v>33.45999908447266</v>
+      </c>
+      <c r="F899" t="n">
+        <v>33.45999908447266</v>
+      </c>
+      <c r="G899" t="n">
+        <v>19817461</v>
+      </c>
+      <c r="H899" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I899" t="n">
+        <v>11</v>
+      </c>
+      <c r="J899" t="n">
+        <v>6</v>
+      </c>
+      <c r="K899" t="n">
+        <v>0</v>
+      </c>
+      <c r="L899" t="n">
+        <v>0</v>
+      </c>
+      <c r="M899" t="n">
+        <v>0</v>
+      </c>
+      <c r="N899" t="n">
+        <v>45</v>
+      </c>
+      <c r="O899" t="n">
+        <v>0</v>
+      </c>
+      <c r="P899" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q899" t="n">
+        <v>0</v>
+      </c>
+      <c r="R899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B900" t="n">
+        <v>33.43000030517578</v>
+      </c>
+      <c r="C900" t="n">
+        <v>33.52999877929688</v>
+      </c>
+      <c r="D900" t="n">
+        <v>32.72000122070312</v>
+      </c>
+      <c r="E900" t="n">
+        <v>32.95000076293945</v>
+      </c>
+      <c r="F900" t="n">
+        <v>32.95000076293945</v>
+      </c>
+      <c r="G900" t="n">
+        <v>9065382</v>
+      </c>
+      <c r="H900" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I900" t="n">
+        <v>11</v>
+      </c>
+      <c r="J900" t="n">
+        <v>7</v>
+      </c>
+      <c r="K900" t="n">
+        <v>0</v>
+      </c>
+      <c r="L900" t="n">
+        <v>0</v>
+      </c>
+      <c r="M900" t="n">
+        <v>0</v>
+      </c>
+      <c r="N900" t="n">
+        <v>45</v>
+      </c>
+      <c r="O900" t="n">
+        <v>0</v>
+      </c>
+      <c r="P900" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q900" t="n">
+        <v>1</v>
+      </c>
+      <c r="R900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B901" t="n">
+        <v>32.90999984741211</v>
+      </c>
+      <c r="C901" t="n">
+        <v>33.09000015258789</v>
+      </c>
+      <c r="D901" t="n">
+        <v>32</v>
+      </c>
+      <c r="E901" t="n">
+        <v>32.18000030517578</v>
+      </c>
+      <c r="F901" t="n">
+        <v>32.18000030517578</v>
+      </c>
+      <c r="G901" t="n">
+        <v>7532480</v>
+      </c>
+      <c r="H901" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I901" t="n">
+        <v>11</v>
+      </c>
+      <c r="J901" t="n">
+        <v>8</v>
+      </c>
+      <c r="K901" t="n">
+        <v>0</v>
+      </c>
+      <c r="L901" t="n">
+        <v>0</v>
+      </c>
+      <c r="M901" t="n">
+        <v>0</v>
+      </c>
+      <c r="N901" t="n">
+        <v>45</v>
+      </c>
+      <c r="O901" t="n">
+        <v>0</v>
+      </c>
+      <c r="P901" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q901" t="n">
+        <v>0</v>
+      </c>
+      <c r="R901" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R901"/>
+  <dimension ref="A1:R905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50701,7 +50701,9 @@
       <c r="Q897" t="n">
         <v>0</v>
       </c>
-      <c r="R897" t="inlineStr"/>
+      <c r="R897" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
@@ -50755,7 +50757,9 @@
       <c r="Q898" t="n">
         <v>0</v>
       </c>
-      <c r="R898" t="inlineStr"/>
+      <c r="R898" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
@@ -50809,7 +50813,9 @@
       <c r="Q899" t="n">
         <v>0</v>
       </c>
-      <c r="R899" t="inlineStr"/>
+      <c r="R899" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
@@ -50863,7 +50869,9 @@
       <c r="Q900" t="n">
         <v>1</v>
       </c>
-      <c r="R900" t="inlineStr"/>
+      <c r="R900" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
@@ -50917,7 +50925,225 @@
       <c r="Q901" t="n">
         <v>0</v>
       </c>
-      <c r="R901" t="inlineStr"/>
+      <c r="R901" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B902" t="n">
+        <v>32.09000015258789</v>
+      </c>
+      <c r="C902" t="n">
+        <v>32.09000015258789</v>
+      </c>
+      <c r="D902" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="E902" t="n">
+        <v>31.54999923706055</v>
+      </c>
+      <c r="F902" t="n">
+        <v>31.54999923706055</v>
+      </c>
+      <c r="G902" t="n">
+        <v>8676100</v>
+      </c>
+      <c r="H902" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I902" t="n">
+        <v>11</v>
+      </c>
+      <c r="J902" t="n">
+        <v>11</v>
+      </c>
+      <c r="K902" t="n">
+        <v>0</v>
+      </c>
+      <c r="L902" t="n">
+        <v>0</v>
+      </c>
+      <c r="M902" t="n">
+        <v>0</v>
+      </c>
+      <c r="N902" t="n">
+        <v>46</v>
+      </c>
+      <c r="O902" t="n">
+        <v>0</v>
+      </c>
+      <c r="P902" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q902" t="n">
+        <v>0</v>
+      </c>
+      <c r="R902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B903" t="n">
+        <v>31.54999923706055</v>
+      </c>
+      <c r="C903" t="n">
+        <v>32.18000030517578</v>
+      </c>
+      <c r="D903" t="n">
+        <v>31.06999969482422</v>
+      </c>
+      <c r="E903" t="n">
+        <v>31.27000045776367</v>
+      </c>
+      <c r="F903" t="n">
+        <v>31.27000045776367</v>
+      </c>
+      <c r="G903" t="n">
+        <v>6300090</v>
+      </c>
+      <c r="H903" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I903" t="n">
+        <v>11</v>
+      </c>
+      <c r="J903" t="n">
+        <v>12</v>
+      </c>
+      <c r="K903" t="n">
+        <v>0</v>
+      </c>
+      <c r="L903" t="n">
+        <v>0</v>
+      </c>
+      <c r="M903" t="n">
+        <v>0</v>
+      </c>
+      <c r="N903" t="n">
+        <v>46</v>
+      </c>
+      <c r="O903" t="n">
+        <v>0</v>
+      </c>
+      <c r="P903" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q903" t="n">
+        <v>0</v>
+      </c>
+      <c r="R903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B904" t="n">
+        <v>31.38999938964844</v>
+      </c>
+      <c r="C904" t="n">
+        <v>31.38999938964844</v>
+      </c>
+      <c r="D904" t="n">
+        <v>29.95999908447266</v>
+      </c>
+      <c r="E904" t="n">
+        <v>30.03000068664551</v>
+      </c>
+      <c r="F904" t="n">
+        <v>30.03000068664551</v>
+      </c>
+      <c r="G904" t="n">
+        <v>9094352</v>
+      </c>
+      <c r="H904" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I904" t="n">
+        <v>11</v>
+      </c>
+      <c r="J904" t="n">
+        <v>13</v>
+      </c>
+      <c r="K904" t="n">
+        <v>0</v>
+      </c>
+      <c r="L904" t="n">
+        <v>0</v>
+      </c>
+      <c r="M904" t="n">
+        <v>0</v>
+      </c>
+      <c r="N904" t="n">
+        <v>46</v>
+      </c>
+      <c r="O904" t="n">
+        <v>0</v>
+      </c>
+      <c r="P904" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q904" t="n">
+        <v>0</v>
+      </c>
+      <c r="R904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B905" t="n">
+        <v>30.38999938964844</v>
+      </c>
+      <c r="C905" t="n">
+        <v>30.55999946594238</v>
+      </c>
+      <c r="D905" t="n">
+        <v>29.92000007629395</v>
+      </c>
+      <c r="E905" t="n">
+        <v>30.10000038146973</v>
+      </c>
+      <c r="F905" t="n">
+        <v>30.10000038146973</v>
+      </c>
+      <c r="G905" t="n">
+        <v>7607757</v>
+      </c>
+      <c r="H905" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I905" t="n">
+        <v>11</v>
+      </c>
+      <c r="J905" t="n">
+        <v>14</v>
+      </c>
+      <c r="K905" t="n">
+        <v>0</v>
+      </c>
+      <c r="L905" t="n">
+        <v>0</v>
+      </c>
+      <c r="M905" t="n">
+        <v>0</v>
+      </c>
+      <c r="N905" t="n">
+        <v>46</v>
+      </c>
+      <c r="O905" t="n">
+        <v>0</v>
+      </c>
+      <c r="P905" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q905" t="n">
+        <v>0</v>
+      </c>
+      <c r="R905" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R905"/>
+  <dimension ref="A1:R909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50805,7 +50805,7 @@
         <v>45</v>
       </c>
       <c r="O899" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P899" t="n">
         <v>0</v>
@@ -50981,7 +50981,9 @@
       <c r="Q902" t="n">
         <v>0</v>
       </c>
-      <c r="R902" t="inlineStr"/>
+      <c r="R902" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
@@ -51035,7 +51037,9 @@
       <c r="Q903" t="n">
         <v>0</v>
       </c>
-      <c r="R903" t="inlineStr"/>
+      <c r="R903" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
@@ -51089,7 +51093,9 @@
       <c r="Q904" t="n">
         <v>0</v>
       </c>
-      <c r="R904" t="inlineStr"/>
+      <c r="R904" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
@@ -51143,7 +51149,225 @@
       <c r="Q905" t="n">
         <v>0</v>
       </c>
-      <c r="R905" t="inlineStr"/>
+      <c r="R905" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B906" t="n">
+        <v>29.70000076293945</v>
+      </c>
+      <c r="C906" t="n">
+        <v>30.57999992370605</v>
+      </c>
+      <c r="D906" t="n">
+        <v>29.04999923706055</v>
+      </c>
+      <c r="E906" t="n">
+        <v>29.95000076293945</v>
+      </c>
+      <c r="F906" t="n">
+        <v>29.95000076293945</v>
+      </c>
+      <c r="G906" t="n">
+        <v>11989732</v>
+      </c>
+      <c r="H906" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I906" t="n">
+        <v>11</v>
+      </c>
+      <c r="J906" t="n">
+        <v>18</v>
+      </c>
+      <c r="K906" t="n">
+        <v>0</v>
+      </c>
+      <c r="L906" t="n">
+        <v>0</v>
+      </c>
+      <c r="M906" t="n">
+        <v>0</v>
+      </c>
+      <c r="N906" t="n">
+        <v>47</v>
+      </c>
+      <c r="O906" t="n">
+        <v>0</v>
+      </c>
+      <c r="P906" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q906" t="n">
+        <v>0</v>
+      </c>
+      <c r="R906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B907" t="n">
+        <v>30.10000038146973</v>
+      </c>
+      <c r="C907" t="n">
+        <v>30.95000076293945</v>
+      </c>
+      <c r="D907" t="n">
+        <v>30.01000022888184</v>
+      </c>
+      <c r="E907" t="n">
+        <v>30.15999984741211</v>
+      </c>
+      <c r="F907" t="n">
+        <v>30.15999984741211</v>
+      </c>
+      <c r="G907" t="n">
+        <v>8716975</v>
+      </c>
+      <c r="H907" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I907" t="n">
+        <v>11</v>
+      </c>
+      <c r="J907" t="n">
+        <v>19</v>
+      </c>
+      <c r="K907" t="n">
+        <v>0</v>
+      </c>
+      <c r="L907" t="n">
+        <v>0</v>
+      </c>
+      <c r="M907" t="n">
+        <v>0</v>
+      </c>
+      <c r="N907" t="n">
+        <v>47</v>
+      </c>
+      <c r="O907" t="n">
+        <v>0</v>
+      </c>
+      <c r="P907" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q907" t="n">
+        <v>0</v>
+      </c>
+      <c r="R907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B908" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="C908" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="D908" t="n">
+        <v>29.40999984741211</v>
+      </c>
+      <c r="E908" t="n">
+        <v>29.52000045776367</v>
+      </c>
+      <c r="F908" t="n">
+        <v>29.52000045776367</v>
+      </c>
+      <c r="G908" t="n">
+        <v>8879409</v>
+      </c>
+      <c r="H908" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I908" t="n">
+        <v>11</v>
+      </c>
+      <c r="J908" t="n">
+        <v>21</v>
+      </c>
+      <c r="K908" t="n">
+        <v>0</v>
+      </c>
+      <c r="L908" t="n">
+        <v>0</v>
+      </c>
+      <c r="M908" t="n">
+        <v>0</v>
+      </c>
+      <c r="N908" t="n">
+        <v>47</v>
+      </c>
+      <c r="O908" t="n">
+        <v>0</v>
+      </c>
+      <c r="P908" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q908" t="n">
+        <v>0</v>
+      </c>
+      <c r="R908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B909" t="n">
+        <v>29.63999938964844</v>
+      </c>
+      <c r="C909" t="n">
+        <v>32.90000152587891</v>
+      </c>
+      <c r="D909" t="n">
+        <v>29.42000007629395</v>
+      </c>
+      <c r="E909" t="n">
+        <v>32.02999877929688</v>
+      </c>
+      <c r="F909" t="n">
+        <v>32.02999877929688</v>
+      </c>
+      <c r="G909" t="n">
+        <v>27918746</v>
+      </c>
+      <c r="H909" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I909" t="n">
+        <v>11</v>
+      </c>
+      <c r="J909" t="n">
+        <v>22</v>
+      </c>
+      <c r="K909" t="n">
+        <v>0</v>
+      </c>
+      <c r="L909" t="n">
+        <v>0</v>
+      </c>
+      <c r="M909" t="n">
+        <v>0</v>
+      </c>
+      <c r="N909" t="n">
+        <v>47</v>
+      </c>
+      <c r="O909" t="n">
+        <v>0</v>
+      </c>
+      <c r="P909" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q909" t="n">
+        <v>0</v>
+      </c>
+      <c r="R909" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R909"/>
+  <dimension ref="A1:R914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51205,7 +51205,9 @@
       <c r="Q906" t="n">
         <v>0</v>
       </c>
-      <c r="R906" t="inlineStr"/>
+      <c r="R906" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
@@ -51259,7 +51261,9 @@
       <c r="Q907" t="n">
         <v>0</v>
       </c>
-      <c r="R907" t="inlineStr"/>
+      <c r="R907" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
@@ -51313,7 +51317,9 @@
       <c r="Q908" t="n">
         <v>0</v>
       </c>
-      <c r="R908" t="inlineStr"/>
+      <c r="R908" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
@@ -51367,7 +51373,279 @@
       <c r="Q909" t="n">
         <v>0</v>
       </c>
-      <c r="R909" t="inlineStr"/>
+      <c r="R909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B910" t="n">
+        <v>16.29999923706055</v>
+      </c>
+      <c r="C910" t="n">
+        <v>16.9950008392334</v>
+      </c>
+      <c r="D910" t="n">
+        <v>16.29999923706055</v>
+      </c>
+      <c r="E910" t="n">
+        <v>16.71500015258789</v>
+      </c>
+      <c r="F910" t="n">
+        <v>16.71500015258789</v>
+      </c>
+      <c r="G910" t="n">
+        <v>80472826</v>
+      </c>
+      <c r="H910" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I910" t="n">
+        <v>11</v>
+      </c>
+      <c r="J910" t="n">
+        <v>25</v>
+      </c>
+      <c r="K910" t="n">
+        <v>0</v>
+      </c>
+      <c r="L910" t="n">
+        <v>0</v>
+      </c>
+      <c r="M910" t="n">
+        <v>0</v>
+      </c>
+      <c r="N910" t="n">
+        <v>48</v>
+      </c>
+      <c r="O910" t="n">
+        <v>0</v>
+      </c>
+      <c r="P910" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q910" t="n">
+        <v>0</v>
+      </c>
+      <c r="R910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B911" t="n">
+        <v>16.84499931335449</v>
+      </c>
+      <c r="C911" t="n">
+        <v>16.84499931335449</v>
+      </c>
+      <c r="D911" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="E911" t="n">
+        <v>16.31999969482422</v>
+      </c>
+      <c r="F911" t="n">
+        <v>16.31999969482422</v>
+      </c>
+      <c r="G911" t="n">
+        <v>19522636</v>
+      </c>
+      <c r="H911" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I911" t="n">
+        <v>11</v>
+      </c>
+      <c r="J911" t="n">
+        <v>26</v>
+      </c>
+      <c r="K911" t="n">
+        <v>0</v>
+      </c>
+      <c r="L911" t="n">
+        <v>0</v>
+      </c>
+      <c r="M911" t="n">
+        <v>0</v>
+      </c>
+      <c r="N911" t="n">
+        <v>48</v>
+      </c>
+      <c r="O911" t="n">
+        <v>0</v>
+      </c>
+      <c r="P911" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>0</v>
+      </c>
+      <c r="R911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B912" t="n">
+        <v>16.31999969482422</v>
+      </c>
+      <c r="C912" t="n">
+        <v>16.45000076293945</v>
+      </c>
+      <c r="D912" t="n">
+        <v>15.52000045776367</v>
+      </c>
+      <c r="E912" t="n">
+        <v>16.07500076293945</v>
+      </c>
+      <c r="F912" t="n">
+        <v>16.07500076293945</v>
+      </c>
+      <c r="G912" t="n">
+        <v>35818148</v>
+      </c>
+      <c r="H912" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I912" t="n">
+        <v>11</v>
+      </c>
+      <c r="J912" t="n">
+        <v>27</v>
+      </c>
+      <c r="K912" t="n">
+        <v>0</v>
+      </c>
+      <c r="L912" t="n">
+        <v>0</v>
+      </c>
+      <c r="M912" t="n">
+        <v>0</v>
+      </c>
+      <c r="N912" t="n">
+        <v>48</v>
+      </c>
+      <c r="O912" t="n">
+        <v>0</v>
+      </c>
+      <c r="P912" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>0</v>
+      </c>
+      <c r="R912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B913" t="n">
+        <v>16.09499931335449</v>
+      </c>
+      <c r="C913" t="n">
+        <v>16.84499931335449</v>
+      </c>
+      <c r="D913" t="n">
+        <v>15.38000011444092</v>
+      </c>
+      <c r="E913" t="n">
+        <v>16.32500076293945</v>
+      </c>
+      <c r="F913" t="n">
+        <v>16.32500076293945</v>
+      </c>
+      <c r="G913" t="n">
+        <v>69258892</v>
+      </c>
+      <c r="H913" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I913" t="n">
+        <v>11</v>
+      </c>
+      <c r="J913" t="n">
+        <v>28</v>
+      </c>
+      <c r="K913" t="n">
+        <v>0</v>
+      </c>
+      <c r="L913" t="n">
+        <v>0</v>
+      </c>
+      <c r="M913" t="n">
+        <v>0</v>
+      </c>
+      <c r="N913" t="n">
+        <v>48</v>
+      </c>
+      <c r="O913" t="n">
+        <v>0</v>
+      </c>
+      <c r="P913" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q913" t="n">
+        <v>0</v>
+      </c>
+      <c r="R913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B914" t="n">
+        <v>17.04000091552734</v>
+      </c>
+      <c r="C914" t="n">
+        <v>19</v>
+      </c>
+      <c r="D914" t="n">
+        <v>17.04000091552734</v>
+      </c>
+      <c r="E914" t="n">
+        <v>17.98999977111816</v>
+      </c>
+      <c r="F914" t="n">
+        <v>17.98999977111816</v>
+      </c>
+      <c r="G914" t="n">
+        <v>169984161</v>
+      </c>
+      <c r="H914" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I914" t="n">
+        <v>11</v>
+      </c>
+      <c r="J914" t="n">
+        <v>29</v>
+      </c>
+      <c r="K914" t="n">
+        <v>0</v>
+      </c>
+      <c r="L914" t="n">
+        <v>0</v>
+      </c>
+      <c r="M914" t="n">
+        <v>0</v>
+      </c>
+      <c r="N914" t="n">
+        <v>48</v>
+      </c>
+      <c r="O914" t="n">
+        <v>0</v>
+      </c>
+      <c r="P914" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q914" t="n">
+        <v>0</v>
+      </c>
+      <c r="R914" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R914"/>
+  <dimension ref="A1:R919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51429,7 +51429,9 @@
       <c r="Q910" t="n">
         <v>0</v>
       </c>
-      <c r="R910" t="inlineStr"/>
+      <c r="R910" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
@@ -51483,7 +51485,9 @@
       <c r="Q911" t="n">
         <v>0</v>
       </c>
-      <c r="R911" t="inlineStr"/>
+      <c r="R911" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
@@ -51537,7 +51541,9 @@
       <c r="Q912" t="n">
         <v>0</v>
       </c>
-      <c r="R912" t="inlineStr"/>
+      <c r="R912" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
@@ -51591,7 +51597,9 @@
       <c r="Q913" t="n">
         <v>0</v>
       </c>
-      <c r="R913" t="inlineStr"/>
+      <c r="R913" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
@@ -51645,7 +51653,279 @@
       <c r="Q914" t="n">
         <v>0</v>
       </c>
-      <c r="R914" t="inlineStr"/>
+      <c r="R914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B915" t="n">
+        <v>17.79999923706055</v>
+      </c>
+      <c r="C915" t="n">
+        <v>17.79999923706055</v>
+      </c>
+      <c r="D915" t="n">
+        <v>16.89999961853027</v>
+      </c>
+      <c r="E915" t="n">
+        <v>17.27000045776367</v>
+      </c>
+      <c r="F915" t="n">
+        <v>17.27000045776367</v>
+      </c>
+      <c r="G915" t="n">
+        <v>46201912</v>
+      </c>
+      <c r="H915" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I915" t="n">
+        <v>12</v>
+      </c>
+      <c r="J915" t="n">
+        <v>2</v>
+      </c>
+      <c r="K915" t="n">
+        <v>0</v>
+      </c>
+      <c r="L915" t="n">
+        <v>0</v>
+      </c>
+      <c r="M915" t="n">
+        <v>0</v>
+      </c>
+      <c r="N915" t="n">
+        <v>49</v>
+      </c>
+      <c r="O915" t="n">
+        <v>0</v>
+      </c>
+      <c r="P915" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q915" t="n">
+        <v>0</v>
+      </c>
+      <c r="R915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B916" t="n">
+        <v>17.20000076293945</v>
+      </c>
+      <c r="C916" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="D916" t="n">
+        <v>16.89999961853027</v>
+      </c>
+      <c r="E916" t="n">
+        <v>16.96999931335449</v>
+      </c>
+      <c r="F916" t="n">
+        <v>16.96999931335449</v>
+      </c>
+      <c r="G916" t="n">
+        <v>27449519</v>
+      </c>
+      <c r="H916" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I916" t="n">
+        <v>12</v>
+      </c>
+      <c r="J916" t="n">
+        <v>3</v>
+      </c>
+      <c r="K916" t="n">
+        <v>0</v>
+      </c>
+      <c r="L916" t="n">
+        <v>0</v>
+      </c>
+      <c r="M916" t="n">
+        <v>0</v>
+      </c>
+      <c r="N916" t="n">
+        <v>49</v>
+      </c>
+      <c r="O916" t="n">
+        <v>0</v>
+      </c>
+      <c r="P916" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q916" t="n">
+        <v>0</v>
+      </c>
+      <c r="R916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B917" t="n">
+        <v>16.95000076293945</v>
+      </c>
+      <c r="C917" t="n">
+        <v>16.97999954223633</v>
+      </c>
+      <c r="D917" t="n">
+        <v>16.30999946594238</v>
+      </c>
+      <c r="E917" t="n">
+        <v>16.36000061035156</v>
+      </c>
+      <c r="F917" t="n">
+        <v>16.36000061035156</v>
+      </c>
+      <c r="G917" t="n">
+        <v>44240579</v>
+      </c>
+      <c r="H917" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I917" t="n">
+        <v>12</v>
+      </c>
+      <c r="J917" t="n">
+        <v>4</v>
+      </c>
+      <c r="K917" t="n">
+        <v>0</v>
+      </c>
+      <c r="L917" t="n">
+        <v>0</v>
+      </c>
+      <c r="M917" t="n">
+        <v>0</v>
+      </c>
+      <c r="N917" t="n">
+        <v>49</v>
+      </c>
+      <c r="O917" t="n">
+        <v>0</v>
+      </c>
+      <c r="P917" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q917" t="n">
+        <v>0</v>
+      </c>
+      <c r="R917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B918" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C918" t="n">
+        <v>17.01000022888184</v>
+      </c>
+      <c r="D918" t="n">
+        <v>16.36000061035156</v>
+      </c>
+      <c r="E918" t="n">
+        <v>16.6299991607666</v>
+      </c>
+      <c r="F918" t="n">
+        <v>16.6299991607666</v>
+      </c>
+      <c r="G918" t="n">
+        <v>46002962</v>
+      </c>
+      <c r="H918" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I918" t="n">
+        <v>12</v>
+      </c>
+      <c r="J918" t="n">
+        <v>5</v>
+      </c>
+      <c r="K918" t="n">
+        <v>0</v>
+      </c>
+      <c r="L918" t="n">
+        <v>0</v>
+      </c>
+      <c r="M918" t="n">
+        <v>0</v>
+      </c>
+      <c r="N918" t="n">
+        <v>49</v>
+      </c>
+      <c r="O918" t="n">
+        <v>0</v>
+      </c>
+      <c r="P918" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q918" t="n">
+        <v>0</v>
+      </c>
+      <c r="R918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B919" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="C919" t="n">
+        <v>16.92000007629395</v>
+      </c>
+      <c r="D919" t="n">
+        <v>16.46999931335449</v>
+      </c>
+      <c r="E919" t="n">
+        <v>16.76000022888184</v>
+      </c>
+      <c r="F919" t="n">
+        <v>16.76000022888184</v>
+      </c>
+      <c r="G919" t="n">
+        <v>18989435</v>
+      </c>
+      <c r="H919" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I919" t="n">
+        <v>12</v>
+      </c>
+      <c r="J919" t="n">
+        <v>6</v>
+      </c>
+      <c r="K919" t="n">
+        <v>0</v>
+      </c>
+      <c r="L919" t="n">
+        <v>0</v>
+      </c>
+      <c r="M919" t="n">
+        <v>0</v>
+      </c>
+      <c r="N919" t="n">
+        <v>49</v>
+      </c>
+      <c r="O919" t="n">
+        <v>0</v>
+      </c>
+      <c r="P919" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q919" t="n">
+        <v>0</v>
+      </c>
+      <c r="R919" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R919"/>
+  <dimension ref="A1:R929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51589,7 +51589,7 @@
         <v>48</v>
       </c>
       <c r="O913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P913" t="n">
         <v>0</v>
@@ -51709,7 +51709,9 @@
       <c r="Q915" t="n">
         <v>0</v>
       </c>
-      <c r="R915" t="inlineStr"/>
+      <c r="R915" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
@@ -51763,7 +51765,9 @@
       <c r="Q916" t="n">
         <v>0</v>
       </c>
-      <c r="R916" t="inlineStr"/>
+      <c r="R916" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
@@ -51817,7 +51821,9 @@
       <c r="Q917" t="n">
         <v>0</v>
       </c>
-      <c r="R917" t="inlineStr"/>
+      <c r="R917" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
@@ -51871,7 +51877,9 @@
       <c r="Q918" t="n">
         <v>0</v>
       </c>
-      <c r="R918" t="inlineStr"/>
+      <c r="R918" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
@@ -51925,7 +51933,529 @@
       <c r="Q919" t="n">
         <v>0</v>
       </c>
-      <c r="R919" t="inlineStr"/>
+      <c r="R919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B920" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="C920" t="n">
+        <v>17.32999992370605</v>
+      </c>
+      <c r="D920" t="n">
+        <v>16.92000007629395</v>
+      </c>
+      <c r="E920" t="n">
+        <v>17.04000091552734</v>
+      </c>
+      <c r="F920" t="inlineStr"/>
+      <c r="G920" t="n">
+        <v>28740745</v>
+      </c>
+      <c r="H920" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I920" t="n">
+        <v>12</v>
+      </c>
+      <c r="J920" t="n">
+        <v>9</v>
+      </c>
+      <c r="K920" t="n">
+        <v>0</v>
+      </c>
+      <c r="L920" t="n">
+        <v>0</v>
+      </c>
+      <c r="M920" t="n">
+        <v>0</v>
+      </c>
+      <c r="N920" t="n">
+        <v>50</v>
+      </c>
+      <c r="O920" t="n">
+        <v>0</v>
+      </c>
+      <c r="P920" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q920" t="n">
+        <v>0</v>
+      </c>
+      <c r="R920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B921" t="n">
+        <v>17.10000038146973</v>
+      </c>
+      <c r="C921" t="n">
+        <v>17.21999931335449</v>
+      </c>
+      <c r="D921" t="n">
+        <v>16.78000068664551</v>
+      </c>
+      <c r="E921" t="n">
+        <v>16.8799991607666</v>
+      </c>
+      <c r="F921" t="inlineStr"/>
+      <c r="G921" t="n">
+        <v>21423313</v>
+      </c>
+      <c r="H921" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I921" t="n">
+        <v>12</v>
+      </c>
+      <c r="J921" t="n">
+        <v>10</v>
+      </c>
+      <c r="K921" t="n">
+        <v>0</v>
+      </c>
+      <c r="L921" t="n">
+        <v>0</v>
+      </c>
+      <c r="M921" t="n">
+        <v>0</v>
+      </c>
+      <c r="N921" t="n">
+        <v>50</v>
+      </c>
+      <c r="O921" t="n">
+        <v>0</v>
+      </c>
+      <c r="P921" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q921" t="n">
+        <v>0</v>
+      </c>
+      <c r="R921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B922" t="n">
+        <v>16.8799991607666</v>
+      </c>
+      <c r="C922" t="n">
+        <v>17.15999984741211</v>
+      </c>
+      <c r="D922" t="n">
+        <v>16.6200008392334</v>
+      </c>
+      <c r="E922" t="n">
+        <v>16.98999977111816</v>
+      </c>
+      <c r="F922" t="inlineStr"/>
+      <c r="G922" t="n">
+        <v>17699871</v>
+      </c>
+      <c r="H922" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I922" t="n">
+        <v>12</v>
+      </c>
+      <c r="J922" t="n">
+        <v>11</v>
+      </c>
+      <c r="K922" t="n">
+        <v>0</v>
+      </c>
+      <c r="L922" t="n">
+        <v>0</v>
+      </c>
+      <c r="M922" t="n">
+        <v>0</v>
+      </c>
+      <c r="N922" t="n">
+        <v>50</v>
+      </c>
+      <c r="O922" t="n">
+        <v>0</v>
+      </c>
+      <c r="P922" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q922" t="n">
+        <v>0</v>
+      </c>
+      <c r="R922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B923" t="n">
+        <v>16.98999977111816</v>
+      </c>
+      <c r="C923" t="n">
+        <v>16.98999977111816</v>
+      </c>
+      <c r="D923" t="n">
+        <v>16.61000061035156</v>
+      </c>
+      <c r="E923" t="n">
+        <v>16.65999984741211</v>
+      </c>
+      <c r="F923" t="inlineStr"/>
+      <c r="G923" t="n">
+        <v>14809690</v>
+      </c>
+      <c r="H923" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I923" t="n">
+        <v>12</v>
+      </c>
+      <c r="J923" t="n">
+        <v>12</v>
+      </c>
+      <c r="K923" t="n">
+        <v>0</v>
+      </c>
+      <c r="L923" t="n">
+        <v>0</v>
+      </c>
+      <c r="M923" t="n">
+        <v>0</v>
+      </c>
+      <c r="N923" t="n">
+        <v>50</v>
+      </c>
+      <c r="O923" t="n">
+        <v>0</v>
+      </c>
+      <c r="P923" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q923" t="n">
+        <v>0</v>
+      </c>
+      <c r="R923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B924" t="n">
+        <v>16.60000038146973</v>
+      </c>
+      <c r="C924" t="n">
+        <v>16.70999908447266</v>
+      </c>
+      <c r="D924" t="n">
+        <v>16.21999931335449</v>
+      </c>
+      <c r="E924" t="n">
+        <v>16.55999946594238</v>
+      </c>
+      <c r="F924" t="inlineStr"/>
+      <c r="G924" t="n">
+        <v>13827243</v>
+      </c>
+      <c r="H924" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I924" t="n">
+        <v>12</v>
+      </c>
+      <c r="J924" t="n">
+        <v>13</v>
+      </c>
+      <c r="K924" t="n">
+        <v>0</v>
+      </c>
+      <c r="L924" t="n">
+        <v>0</v>
+      </c>
+      <c r="M924" t="n">
+        <v>0</v>
+      </c>
+      <c r="N924" t="n">
+        <v>50</v>
+      </c>
+      <c r="O924" t="n">
+        <v>0</v>
+      </c>
+      <c r="P924" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q924" t="n">
+        <v>1</v>
+      </c>
+      <c r="R924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B925" t="n">
+        <v>17.02000045776367</v>
+      </c>
+      <c r="C925" t="n">
+        <v>17.60000038146973</v>
+      </c>
+      <c r="D925" t="n">
+        <v>17</v>
+      </c>
+      <c r="E925" t="n">
+        <v>17.06999969482422</v>
+      </c>
+      <c r="F925" t="inlineStr"/>
+      <c r="G925" t="n">
+        <v>56760268</v>
+      </c>
+      <c r="H925" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I925" t="n">
+        <v>12</v>
+      </c>
+      <c r="J925" t="n">
+        <v>16</v>
+      </c>
+      <c r="K925" t="n">
+        <v>0</v>
+      </c>
+      <c r="L925" t="n">
+        <v>0</v>
+      </c>
+      <c r="M925" t="n">
+        <v>0</v>
+      </c>
+      <c r="N925" t="n">
+        <v>51</v>
+      </c>
+      <c r="O925" t="n">
+        <v>0</v>
+      </c>
+      <c r="P925" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q925" t="n">
+        <v>0</v>
+      </c>
+      <c r="R925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B926" t="n">
+        <v>17.09000015258789</v>
+      </c>
+      <c r="C926" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="D926" t="n">
+        <v>17</v>
+      </c>
+      <c r="E926" t="n">
+        <v>17.02000045776367</v>
+      </c>
+      <c r="F926" t="inlineStr"/>
+      <c r="G926" t="n">
+        <v>18865986</v>
+      </c>
+      <c r="H926" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I926" t="n">
+        <v>12</v>
+      </c>
+      <c r="J926" t="n">
+        <v>17</v>
+      </c>
+      <c r="K926" t="n">
+        <v>0</v>
+      </c>
+      <c r="L926" t="n">
+        <v>0</v>
+      </c>
+      <c r="M926" t="n">
+        <v>0</v>
+      </c>
+      <c r="N926" t="n">
+        <v>51</v>
+      </c>
+      <c r="O926" t="n">
+        <v>0</v>
+      </c>
+      <c r="P926" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q926" t="n">
+        <v>0</v>
+      </c>
+      <c r="R926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B927" t="n">
+        <v>17.05999946594238</v>
+      </c>
+      <c r="C927" t="n">
+        <v>17.06999969482422</v>
+      </c>
+      <c r="D927" t="n">
+        <v>16.68000030517578</v>
+      </c>
+      <c r="E927" t="n">
+        <v>16.8700008392334</v>
+      </c>
+      <c r="F927" t="inlineStr"/>
+      <c r="G927" t="n">
+        <v>15194134</v>
+      </c>
+      <c r="H927" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I927" t="n">
+        <v>12</v>
+      </c>
+      <c r="J927" t="n">
+        <v>18</v>
+      </c>
+      <c r="K927" t="n">
+        <v>0</v>
+      </c>
+      <c r="L927" t="n">
+        <v>0</v>
+      </c>
+      <c r="M927" t="n">
+        <v>0</v>
+      </c>
+      <c r="N927" t="n">
+        <v>51</v>
+      </c>
+      <c r="O927" t="n">
+        <v>0</v>
+      </c>
+      <c r="P927" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q927" t="n">
+        <v>0</v>
+      </c>
+      <c r="R927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B928" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C928" t="n">
+        <v>16.76000022888184</v>
+      </c>
+      <c r="D928" t="n">
+        <v>16.39999961853027</v>
+      </c>
+      <c r="E928" t="n">
+        <v>16.57999992370605</v>
+      </c>
+      <c r="F928" t="inlineStr"/>
+      <c r="G928" t="n">
+        <v>14844840</v>
+      </c>
+      <c r="H928" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I928" t="n">
+        <v>12</v>
+      </c>
+      <c r="J928" t="n">
+        <v>19</v>
+      </c>
+      <c r="K928" t="n">
+        <v>0</v>
+      </c>
+      <c r="L928" t="n">
+        <v>0</v>
+      </c>
+      <c r="M928" t="n">
+        <v>0</v>
+      </c>
+      <c r="N928" t="n">
+        <v>51</v>
+      </c>
+      <c r="O928" t="n">
+        <v>0</v>
+      </c>
+      <c r="P928" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q928" t="n">
+        <v>0</v>
+      </c>
+      <c r="R928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B929" t="n">
+        <v>16.68000030517578</v>
+      </c>
+      <c r="C929" t="n">
+        <v>16.81999969482422</v>
+      </c>
+      <c r="D929" t="n">
+        <v>16.03000068664551</v>
+      </c>
+      <c r="E929" t="n">
+        <v>16.18000030517578</v>
+      </c>
+      <c r="F929" t="inlineStr"/>
+      <c r="G929" t="n">
+        <v>14926352</v>
+      </c>
+      <c r="H929" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I929" t="n">
+        <v>12</v>
+      </c>
+      <c r="J929" t="n">
+        <v>20</v>
+      </c>
+      <c r="K929" t="n">
+        <v>0</v>
+      </c>
+      <c r="L929" t="n">
+        <v>0</v>
+      </c>
+      <c r="M929" t="n">
+        <v>0</v>
+      </c>
+      <c r="N929" t="n">
+        <v>51</v>
+      </c>
+      <c r="O929" t="n">
+        <v>0</v>
+      </c>
+      <c r="P929" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q929" t="n">
+        <v>0</v>
+      </c>
+      <c r="R929" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R929"/>
+  <dimension ref="A1:R933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51987,7 +51987,9 @@
       <c r="Q920" t="n">
         <v>0</v>
       </c>
-      <c r="R920" t="inlineStr"/>
+      <c r="R920" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
@@ -52039,7 +52041,9 @@
       <c r="Q921" t="n">
         <v>0</v>
       </c>
-      <c r="R921" t="inlineStr"/>
+      <c r="R921" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
@@ -52091,7 +52095,9 @@
       <c r="Q922" t="n">
         <v>0</v>
       </c>
-      <c r="R922" t="inlineStr"/>
+      <c r="R922" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
@@ -52143,7 +52149,9 @@
       <c r="Q923" t="n">
         <v>0</v>
       </c>
-      <c r="R923" t="inlineStr"/>
+      <c r="R923" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
@@ -52195,7 +52203,9 @@
       <c r="Q924" t="n">
         <v>1</v>
       </c>
-      <c r="R924" t="inlineStr"/>
+      <c r="R924" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
@@ -52247,7 +52257,9 @@
       <c r="Q925" t="n">
         <v>0</v>
       </c>
-      <c r="R925" t="inlineStr"/>
+      <c r="R925" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
@@ -52299,7 +52311,9 @@
       <c r="Q926" t="n">
         <v>0</v>
       </c>
-      <c r="R926" t="inlineStr"/>
+      <c r="R926" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
@@ -52351,7 +52365,9 @@
       <c r="Q927" t="n">
         <v>0</v>
       </c>
-      <c r="R927" t="inlineStr"/>
+      <c r="R927" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
@@ -52403,7 +52419,9 @@
       <c r="Q928" t="n">
         <v>0</v>
       </c>
-      <c r="R928" t="inlineStr"/>
+      <c r="R928" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
@@ -52455,7 +52473,217 @@
       <c r="Q929" t="n">
         <v>0</v>
       </c>
-      <c r="R929" t="inlineStr"/>
+      <c r="R929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B930" t="n">
+        <v>16.31999969482422</v>
+      </c>
+      <c r="C930" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="D930" t="n">
+        <v>15.8100004196167</v>
+      </c>
+      <c r="E930" t="n">
+        <v>16.6200008392334</v>
+      </c>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="n">
+        <v>26838793</v>
+      </c>
+      <c r="H930" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I930" t="n">
+        <v>12</v>
+      </c>
+      <c r="J930" t="n">
+        <v>23</v>
+      </c>
+      <c r="K930" t="n">
+        <v>0</v>
+      </c>
+      <c r="L930" t="n">
+        <v>0</v>
+      </c>
+      <c r="M930" t="n">
+        <v>0</v>
+      </c>
+      <c r="N930" t="n">
+        <v>52</v>
+      </c>
+      <c r="O930" t="n">
+        <v>0</v>
+      </c>
+      <c r="P930" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q930" t="n">
+        <v>0</v>
+      </c>
+      <c r="R930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B931" t="n">
+        <v>16.60000038146973</v>
+      </c>
+      <c r="C931" t="n">
+        <v>16.70000076293945</v>
+      </c>
+      <c r="D931" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="E931" t="n">
+        <v>16.46999931335449</v>
+      </c>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="n">
+        <v>22508753</v>
+      </c>
+      <c r="H931" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I931" t="n">
+        <v>12</v>
+      </c>
+      <c r="J931" t="n">
+        <v>24</v>
+      </c>
+      <c r="K931" t="n">
+        <v>0</v>
+      </c>
+      <c r="L931" t="n">
+        <v>0</v>
+      </c>
+      <c r="M931" t="n">
+        <v>0</v>
+      </c>
+      <c r="N931" t="n">
+        <v>52</v>
+      </c>
+      <c r="O931" t="n">
+        <v>0</v>
+      </c>
+      <c r="P931" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q931" t="n">
+        <v>0</v>
+      </c>
+      <c r="R931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B932" t="n">
+        <v>16.44000053405762</v>
+      </c>
+      <c r="C932" t="n">
+        <v>16.95000076293945</v>
+      </c>
+      <c r="D932" t="n">
+        <v>16.28000068664551</v>
+      </c>
+      <c r="E932" t="n">
+        <v>16.90999984741211</v>
+      </c>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="n">
+        <v>54447200</v>
+      </c>
+      <c r="H932" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I932" t="n">
+        <v>12</v>
+      </c>
+      <c r="J932" t="n">
+        <v>26</v>
+      </c>
+      <c r="K932" t="n">
+        <v>0</v>
+      </c>
+      <c r="L932" t="n">
+        <v>0</v>
+      </c>
+      <c r="M932" t="n">
+        <v>0</v>
+      </c>
+      <c r="N932" t="n">
+        <v>52</v>
+      </c>
+      <c r="O932" t="n">
+        <v>0</v>
+      </c>
+      <c r="P932" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q932" t="n">
+        <v>0</v>
+      </c>
+      <c r="R932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B933" t="n">
+        <v>16.88999938964844</v>
+      </c>
+      <c r="C933" t="n">
+        <v>16.88999938964844</v>
+      </c>
+      <c r="D933" t="n">
+        <v>16.45000076293945</v>
+      </c>
+      <c r="E933" t="n">
+        <v>16.53000068664551</v>
+      </c>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="n">
+        <v>29711595</v>
+      </c>
+      <c r="H933" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I933" t="n">
+        <v>12</v>
+      </c>
+      <c r="J933" t="n">
+        <v>27</v>
+      </c>
+      <c r="K933" t="n">
+        <v>0</v>
+      </c>
+      <c r="L933" t="n">
+        <v>0</v>
+      </c>
+      <c r="M933" t="n">
+        <v>0</v>
+      </c>
+      <c r="N933" t="n">
+        <v>52</v>
+      </c>
+      <c r="O933" t="n">
+        <v>0</v>
+      </c>
+      <c r="P933" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q933" t="n">
+        <v>0</v>
+      </c>
+      <c r="R933" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R933"/>
+  <dimension ref="A1:R938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52527,7 +52527,9 @@
       <c r="Q930" t="n">
         <v>0</v>
       </c>
-      <c r="R930" t="inlineStr"/>
+      <c r="R930" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
@@ -52579,7 +52581,9 @@
       <c r="Q931" t="n">
         <v>0</v>
       </c>
-      <c r="R931" t="inlineStr"/>
+      <c r="R931" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
@@ -52631,7 +52635,9 @@
       <c r="Q932" t="n">
         <v>0</v>
       </c>
-      <c r="R932" t="inlineStr"/>
+      <c r="R932" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
@@ -52683,7 +52689,269 @@
       <c r="Q933" t="n">
         <v>0</v>
       </c>
-      <c r="R933" t="inlineStr"/>
+      <c r="R933" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B934" t="n">
+        <v>16.52000045776367</v>
+      </c>
+      <c r="C934" t="n">
+        <v>17.19000053405762</v>
+      </c>
+      <c r="D934" t="n">
+        <v>16.21999931335449</v>
+      </c>
+      <c r="E934" t="n">
+        <v>17.04000091552734</v>
+      </c>
+      <c r="F934" t="inlineStr"/>
+      <c r="G934" t="n">
+        <v>47722176</v>
+      </c>
+      <c r="H934" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I934" t="n">
+        <v>12</v>
+      </c>
+      <c r="J934" t="n">
+        <v>30</v>
+      </c>
+      <c r="K934" t="n">
+        <v>0</v>
+      </c>
+      <c r="L934" t="n">
+        <v>0</v>
+      </c>
+      <c r="M934" t="n">
+        <v>0</v>
+      </c>
+      <c r="N934" t="n">
+        <v>1</v>
+      </c>
+      <c r="O934" t="n">
+        <v>0</v>
+      </c>
+      <c r="P934" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q934" t="n">
+        <v>0</v>
+      </c>
+      <c r="R934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B935" t="n">
+        <v>15.71000003814697</v>
+      </c>
+      <c r="C935" t="n">
+        <v>16.45999908447266</v>
+      </c>
+      <c r="D935" t="n">
+        <v>15.35999965667725</v>
+      </c>
+      <c r="E935" t="n">
+        <v>15.85999965667725</v>
+      </c>
+      <c r="F935" t="inlineStr"/>
+      <c r="G935" t="n">
+        <v>275650111</v>
+      </c>
+      <c r="H935" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I935" t="n">
+        <v>12</v>
+      </c>
+      <c r="J935" t="n">
+        <v>31</v>
+      </c>
+      <c r="K935" t="n">
+        <v>0</v>
+      </c>
+      <c r="L935" t="n">
+        <v>0</v>
+      </c>
+      <c r="M935" t="n">
+        <v>0</v>
+      </c>
+      <c r="N935" t="n">
+        <v>1</v>
+      </c>
+      <c r="O935" t="n">
+        <v>0</v>
+      </c>
+      <c r="P935" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q935" t="n">
+        <v>0</v>
+      </c>
+      <c r="R935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B936" t="n">
+        <v>15.85999965667725</v>
+      </c>
+      <c r="C936" t="n">
+        <v>15.9399995803833</v>
+      </c>
+      <c r="D936" t="n">
+        <v>15.64000034332275</v>
+      </c>
+      <c r="E936" t="n">
+        <v>15.71000003814697</v>
+      </c>
+      <c r="F936" t="inlineStr"/>
+      <c r="G936" t="n">
+        <v>33522631</v>
+      </c>
+      <c r="H936" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I936" t="n">
+        <v>1</v>
+      </c>
+      <c r="J936" t="n">
+        <v>1</v>
+      </c>
+      <c r="K936" t="n">
+        <v>0</v>
+      </c>
+      <c r="L936" t="n">
+        <v>0</v>
+      </c>
+      <c r="M936" t="n">
+        <v>0</v>
+      </c>
+      <c r="N936" t="n">
+        <v>1</v>
+      </c>
+      <c r="O936" t="n">
+        <v>0</v>
+      </c>
+      <c r="P936" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q936" t="n">
+        <v>0</v>
+      </c>
+      <c r="R936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B937" t="n">
+        <v>15.67000007629395</v>
+      </c>
+      <c r="C937" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="D937" t="n">
+        <v>15.30000019073486</v>
+      </c>
+      <c r="E937" t="n">
+        <v>15.32999992370605</v>
+      </c>
+      <c r="F937" t="inlineStr"/>
+      <c r="G937" t="n">
+        <v>31576255</v>
+      </c>
+      <c r="H937" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I937" t="n">
+        <v>1</v>
+      </c>
+      <c r="J937" t="n">
+        <v>2</v>
+      </c>
+      <c r="K937" t="n">
+        <v>0</v>
+      </c>
+      <c r="L937" t="n">
+        <v>0</v>
+      </c>
+      <c r="M937" t="n">
+        <v>0</v>
+      </c>
+      <c r="N937" t="n">
+        <v>1</v>
+      </c>
+      <c r="O937" t="n">
+        <v>0</v>
+      </c>
+      <c r="P937" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q937" t="n">
+        <v>0</v>
+      </c>
+      <c r="R937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B938" t="n">
+        <v>15.36999988555908</v>
+      </c>
+      <c r="C938" t="n">
+        <v>15.67000007629395</v>
+      </c>
+      <c r="D938" t="n">
+        <v>15.19999980926514</v>
+      </c>
+      <c r="E938" t="n">
+        <v>15.51000022888184</v>
+      </c>
+      <c r="F938" t="inlineStr"/>
+      <c r="G938" t="n">
+        <v>31678131</v>
+      </c>
+      <c r="H938" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I938" t="n">
+        <v>1</v>
+      </c>
+      <c r="J938" t="n">
+        <v>3</v>
+      </c>
+      <c r="K938" t="n">
+        <v>0</v>
+      </c>
+      <c r="L938" t="n">
+        <v>0</v>
+      </c>
+      <c r="M938" t="n">
+        <v>0</v>
+      </c>
+      <c r="N938" t="n">
+        <v>1</v>
+      </c>
+      <c r="O938" t="n">
+        <v>0</v>
+      </c>
+      <c r="P938" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q938" t="n">
+        <v>0</v>
+      </c>
+      <c r="R938" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R938"/>
+  <dimension ref="A1:R943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52743,7 +52743,9 @@
       <c r="Q934" t="n">
         <v>0</v>
       </c>
-      <c r="R934" t="inlineStr"/>
+      <c r="R934" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
@@ -52795,7 +52797,9 @@
       <c r="Q935" t="n">
         <v>0</v>
       </c>
-      <c r="R935" t="inlineStr"/>
+      <c r="R935" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
@@ -52847,7 +52851,9 @@
       <c r="Q936" t="n">
         <v>0</v>
       </c>
-      <c r="R936" t="inlineStr"/>
+      <c r="R936" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
@@ -52899,7 +52905,9 @@
       <c r="Q937" t="n">
         <v>0</v>
       </c>
-      <c r="R937" t="inlineStr"/>
+      <c r="R937" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
@@ -52951,7 +52959,269 @@
       <c r="Q938" t="n">
         <v>0</v>
       </c>
-      <c r="R938" t="inlineStr"/>
+      <c r="R938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B939" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="C939" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="D939" t="n">
+        <v>15.80000019073486</v>
+      </c>
+      <c r="E939" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="F939" t="inlineStr"/>
+      <c r="G939" t="n">
+        <v>165008348</v>
+      </c>
+      <c r="H939" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I939" t="n">
+        <v>1</v>
+      </c>
+      <c r="J939" t="n">
+        <v>6</v>
+      </c>
+      <c r="K939" t="n">
+        <v>0</v>
+      </c>
+      <c r="L939" t="n">
+        <v>0</v>
+      </c>
+      <c r="M939" t="n">
+        <v>0</v>
+      </c>
+      <c r="N939" t="n">
+        <v>2</v>
+      </c>
+      <c r="O939" t="n">
+        <v>0</v>
+      </c>
+      <c r="P939" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q939" t="n">
+        <v>0</v>
+      </c>
+      <c r="R939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B940" t="n">
+        <v>16.38999938964844</v>
+      </c>
+      <c r="C940" t="n">
+        <v>16.53000068664551</v>
+      </c>
+      <c r="D940" t="n">
+        <v>15.64000034332275</v>
+      </c>
+      <c r="E940" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="F940" t="inlineStr"/>
+      <c r="G940" t="n">
+        <v>80201763</v>
+      </c>
+      <c r="H940" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I940" t="n">
+        <v>1</v>
+      </c>
+      <c r="J940" t="n">
+        <v>7</v>
+      </c>
+      <c r="K940" t="n">
+        <v>0</v>
+      </c>
+      <c r="L940" t="n">
+        <v>0</v>
+      </c>
+      <c r="M940" t="n">
+        <v>0</v>
+      </c>
+      <c r="N940" t="n">
+        <v>2</v>
+      </c>
+      <c r="O940" t="n">
+        <v>0</v>
+      </c>
+      <c r="P940" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q940" t="n">
+        <v>0</v>
+      </c>
+      <c r="R940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B941" t="n">
+        <v>15.77000045776367</v>
+      </c>
+      <c r="C941" t="n">
+        <v>16.02000045776367</v>
+      </c>
+      <c r="D941" t="n">
+        <v>15.14999961853027</v>
+      </c>
+      <c r="E941" t="n">
+        <v>15.39999961853027</v>
+      </c>
+      <c r="F941" t="inlineStr"/>
+      <c r="G941" t="n">
+        <v>71869818</v>
+      </c>
+      <c r="H941" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I941" t="n">
+        <v>1</v>
+      </c>
+      <c r="J941" t="n">
+        <v>8</v>
+      </c>
+      <c r="K941" t="n">
+        <v>0</v>
+      </c>
+      <c r="L941" t="n">
+        <v>0</v>
+      </c>
+      <c r="M941" t="n">
+        <v>0</v>
+      </c>
+      <c r="N941" t="n">
+        <v>2</v>
+      </c>
+      <c r="O941" t="n">
+        <v>0</v>
+      </c>
+      <c r="P941" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q941" t="n">
+        <v>0</v>
+      </c>
+      <c r="R941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B942" t="n">
+        <v>15.40999984741211</v>
+      </c>
+      <c r="C942" t="n">
+        <v>15.44999980926514</v>
+      </c>
+      <c r="D942" t="n">
+        <v>15.10000038146973</v>
+      </c>
+      <c r="E942" t="n">
+        <v>15.14000034332275</v>
+      </c>
+      <c r="F942" t="inlineStr"/>
+      <c r="G942" t="n">
+        <v>48685467</v>
+      </c>
+      <c r="H942" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I942" t="n">
+        <v>1</v>
+      </c>
+      <c r="J942" t="n">
+        <v>9</v>
+      </c>
+      <c r="K942" t="n">
+        <v>0</v>
+      </c>
+      <c r="L942" t="n">
+        <v>0</v>
+      </c>
+      <c r="M942" t="n">
+        <v>0</v>
+      </c>
+      <c r="N942" t="n">
+        <v>2</v>
+      </c>
+      <c r="O942" t="n">
+        <v>0</v>
+      </c>
+      <c r="P942" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q942" t="n">
+        <v>0</v>
+      </c>
+      <c r="R942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B943" t="n">
+        <v>15.11999988555908</v>
+      </c>
+      <c r="C943" t="n">
+        <v>15.14999961853027</v>
+      </c>
+      <c r="D943" t="n">
+        <v>14.60999965667725</v>
+      </c>
+      <c r="E943" t="n">
+        <v>14.81999969482422</v>
+      </c>
+      <c r="F943" t="inlineStr"/>
+      <c r="G943" t="n">
+        <v>26794024</v>
+      </c>
+      <c r="H943" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I943" t="n">
+        <v>1</v>
+      </c>
+      <c r="J943" t="n">
+        <v>10</v>
+      </c>
+      <c r="K943" t="n">
+        <v>0</v>
+      </c>
+      <c r="L943" t="n">
+        <v>0</v>
+      </c>
+      <c r="M943" t="n">
+        <v>0</v>
+      </c>
+      <c r="N943" t="n">
+        <v>2</v>
+      </c>
+      <c r="O943" t="n">
+        <v>0</v>
+      </c>
+      <c r="P943" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>0</v>
+      </c>
+      <c r="R943" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R943"/>
+  <dimension ref="A1:R948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53013,7 +53013,9 @@
       <c r="Q939" t="n">
         <v>0</v>
       </c>
-      <c r="R939" t="inlineStr"/>
+      <c r="R939" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
@@ -53065,7 +53067,9 @@
       <c r="Q940" t="n">
         <v>0</v>
       </c>
-      <c r="R940" t="inlineStr"/>
+      <c r="R940" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
@@ -53117,7 +53121,9 @@
       <c r="Q941" t="n">
         <v>0</v>
       </c>
-      <c r="R941" t="inlineStr"/>
+      <c r="R941" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
@@ -53169,7 +53175,9 @@
       <c r="Q942" t="n">
         <v>0</v>
       </c>
-      <c r="R942" t="inlineStr"/>
+      <c r="R942" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
@@ -53221,7 +53229,269 @@
       <c r="Q943" t="n">
         <v>0</v>
       </c>
-      <c r="R943" t="inlineStr"/>
+      <c r="R943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B944" t="n">
+        <v>14.63000011444092</v>
+      </c>
+      <c r="C944" t="n">
+        <v>14.63000011444092</v>
+      </c>
+      <c r="D944" t="n">
+        <v>13.9399995803833</v>
+      </c>
+      <c r="E944" t="n">
+        <v>14.14999961853027</v>
+      </c>
+      <c r="F944" t="inlineStr"/>
+      <c r="G944" t="n">
+        <v>32602559</v>
+      </c>
+      <c r="H944" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I944" t="n">
+        <v>1</v>
+      </c>
+      <c r="J944" t="n">
+        <v>13</v>
+      </c>
+      <c r="K944" t="n">
+        <v>0</v>
+      </c>
+      <c r="L944" t="n">
+        <v>0</v>
+      </c>
+      <c r="M944" t="n">
+        <v>0</v>
+      </c>
+      <c r="N944" t="n">
+        <v>3</v>
+      </c>
+      <c r="O944" t="n">
+        <v>0</v>
+      </c>
+      <c r="P944" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>0</v>
+      </c>
+      <c r="R944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B945" t="n">
+        <v>14.0600004196167</v>
+      </c>
+      <c r="C945" t="n">
+        <v>14.97000026702881</v>
+      </c>
+      <c r="D945" t="n">
+        <v>14.02999973297119</v>
+      </c>
+      <c r="E945" t="n">
+        <v>14.42000007629395</v>
+      </c>
+      <c r="F945" t="inlineStr"/>
+      <c r="G945" t="n">
+        <v>106876053</v>
+      </c>
+      <c r="H945" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I945" t="n">
+        <v>1</v>
+      </c>
+      <c r="J945" t="n">
+        <v>14</v>
+      </c>
+      <c r="K945" t="n">
+        <v>0</v>
+      </c>
+      <c r="L945" t="n">
+        <v>0</v>
+      </c>
+      <c r="M945" t="n">
+        <v>0</v>
+      </c>
+      <c r="N945" t="n">
+        <v>3</v>
+      </c>
+      <c r="O945" t="n">
+        <v>0</v>
+      </c>
+      <c r="P945" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q945" t="n">
+        <v>0</v>
+      </c>
+      <c r="R945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B946" t="n">
+        <v>14.42000007629395</v>
+      </c>
+      <c r="C946" t="n">
+        <v>14.60999965667725</v>
+      </c>
+      <c r="D946" t="n">
+        <v>14.07999992370605</v>
+      </c>
+      <c r="E946" t="n">
+        <v>14.10999965667725</v>
+      </c>
+      <c r="F946" t="inlineStr"/>
+      <c r="G946" t="n">
+        <v>33816525</v>
+      </c>
+      <c r="H946" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I946" t="n">
+        <v>1</v>
+      </c>
+      <c r="J946" t="n">
+        <v>15</v>
+      </c>
+      <c r="K946" t="n">
+        <v>0</v>
+      </c>
+      <c r="L946" t="n">
+        <v>0</v>
+      </c>
+      <c r="M946" t="n">
+        <v>0</v>
+      </c>
+      <c r="N946" t="n">
+        <v>3</v>
+      </c>
+      <c r="O946" t="n">
+        <v>0</v>
+      </c>
+      <c r="P946" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q946" t="n">
+        <v>0</v>
+      </c>
+      <c r="R946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B947" t="n">
+        <v>14.23999977111816</v>
+      </c>
+      <c r="C947" t="n">
+        <v>14.32999992370605</v>
+      </c>
+      <c r="D947" t="n">
+        <v>14.01000022888184</v>
+      </c>
+      <c r="E947" t="n">
+        <v>14.05000019073486</v>
+      </c>
+      <c r="F947" t="inlineStr"/>
+      <c r="G947" t="n">
+        <v>38593433</v>
+      </c>
+      <c r="H947" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I947" t="n">
+        <v>1</v>
+      </c>
+      <c r="J947" t="n">
+        <v>16</v>
+      </c>
+      <c r="K947" t="n">
+        <v>0</v>
+      </c>
+      <c r="L947" t="n">
+        <v>0</v>
+      </c>
+      <c r="M947" t="n">
+        <v>0</v>
+      </c>
+      <c r="N947" t="n">
+        <v>3</v>
+      </c>
+      <c r="O947" t="n">
+        <v>0</v>
+      </c>
+      <c r="P947" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q947" t="n">
+        <v>0</v>
+      </c>
+      <c r="R947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B948" t="n">
+        <v>14.05000019073486</v>
+      </c>
+      <c r="C948" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="D948" t="n">
+        <v>14</v>
+      </c>
+      <c r="E948" t="n">
+        <v>14.06999969482422</v>
+      </c>
+      <c r="F948" t="inlineStr"/>
+      <c r="G948" t="n">
+        <v>16765097</v>
+      </c>
+      <c r="H948" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I948" t="n">
+        <v>1</v>
+      </c>
+      <c r="J948" t="n">
+        <v>17</v>
+      </c>
+      <c r="K948" t="n">
+        <v>0</v>
+      </c>
+      <c r="L948" t="n">
+        <v>0</v>
+      </c>
+      <c r="M948" t="n">
+        <v>0</v>
+      </c>
+      <c r="N948" t="n">
+        <v>3</v>
+      </c>
+      <c r="O948" t="n">
+        <v>0</v>
+      </c>
+      <c r="P948" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q948" t="n">
+        <v>0</v>
+      </c>
+      <c r="R948" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R948"/>
+  <dimension ref="A1:R953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53005,7 +53005,7 @@
         <v>2</v>
       </c>
       <c r="O939" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P939" t="n">
         <v>0</v>
@@ -53283,7 +53283,9 @@
       <c r="Q944" t="n">
         <v>0</v>
       </c>
-      <c r="R944" t="inlineStr"/>
+      <c r="R944" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
@@ -53335,7 +53337,9 @@
       <c r="Q945" t="n">
         <v>0</v>
       </c>
-      <c r="R945" t="inlineStr"/>
+      <c r="R945" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
@@ -53387,7 +53391,9 @@
       <c r="Q946" t="n">
         <v>0</v>
       </c>
-      <c r="R946" t="inlineStr"/>
+      <c r="R946" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
@@ -53439,7 +53445,9 @@
       <c r="Q947" t="n">
         <v>0</v>
       </c>
-      <c r="R947" t="inlineStr"/>
+      <c r="R947" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
@@ -53491,7 +53499,269 @@
       <c r="Q948" t="n">
         <v>0</v>
       </c>
-      <c r="R948" t="inlineStr"/>
+      <c r="R948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B949" t="n">
+        <v>14.07999992370605</v>
+      </c>
+      <c r="C949" t="n">
+        <v>14.27000045776367</v>
+      </c>
+      <c r="D949" t="n">
+        <v>13.94999980926514</v>
+      </c>
+      <c r="E949" t="n">
+        <v>14.01000022888184</v>
+      </c>
+      <c r="F949" t="inlineStr"/>
+      <c r="G949" t="n">
+        <v>49688677</v>
+      </c>
+      <c r="H949" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I949" t="n">
+        <v>1</v>
+      </c>
+      <c r="J949" t="n">
+        <v>20</v>
+      </c>
+      <c r="K949" t="n">
+        <v>0</v>
+      </c>
+      <c r="L949" t="n">
+        <v>0</v>
+      </c>
+      <c r="M949" t="n">
+        <v>0</v>
+      </c>
+      <c r="N949" t="n">
+        <v>4</v>
+      </c>
+      <c r="O949" t="n">
+        <v>0</v>
+      </c>
+      <c r="P949" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q949" t="n">
+        <v>0</v>
+      </c>
+      <c r="R949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B950" t="n">
+        <v>14.05000019073486</v>
+      </c>
+      <c r="C950" t="n">
+        <v>14.17000007629395</v>
+      </c>
+      <c r="D950" t="n">
+        <v>13.65999984741211</v>
+      </c>
+      <c r="E950" t="n">
+        <v>13.72999954223633</v>
+      </c>
+      <c r="F950" t="inlineStr"/>
+      <c r="G950" t="n">
+        <v>42083737</v>
+      </c>
+      <c r="H950" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I950" t="n">
+        <v>1</v>
+      </c>
+      <c r="J950" t="n">
+        <v>21</v>
+      </c>
+      <c r="K950" t="n">
+        <v>0</v>
+      </c>
+      <c r="L950" t="n">
+        <v>0</v>
+      </c>
+      <c r="M950" t="n">
+        <v>0</v>
+      </c>
+      <c r="N950" t="n">
+        <v>4</v>
+      </c>
+      <c r="O950" t="n">
+        <v>0</v>
+      </c>
+      <c r="P950" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q950" t="n">
+        <v>0</v>
+      </c>
+      <c r="R950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B951" t="n">
+        <v>13.72999954223633</v>
+      </c>
+      <c r="C951" t="n">
+        <v>14.31999969482422</v>
+      </c>
+      <c r="D951" t="n">
+        <v>13.36999988555908</v>
+      </c>
+      <c r="E951" t="n">
+        <v>14.14999961853027</v>
+      </c>
+      <c r="F951" t="inlineStr"/>
+      <c r="G951" t="n">
+        <v>93114968</v>
+      </c>
+      <c r="H951" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I951" t="n">
+        <v>1</v>
+      </c>
+      <c r="J951" t="n">
+        <v>22</v>
+      </c>
+      <c r="K951" t="n">
+        <v>0</v>
+      </c>
+      <c r="L951" t="n">
+        <v>0</v>
+      </c>
+      <c r="M951" t="n">
+        <v>0</v>
+      </c>
+      <c r="N951" t="n">
+        <v>4</v>
+      </c>
+      <c r="O951" t="n">
+        <v>0</v>
+      </c>
+      <c r="P951" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q951" t="n">
+        <v>0</v>
+      </c>
+      <c r="R951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B952" t="n">
+        <v>14.23999977111816</v>
+      </c>
+      <c r="C952" t="n">
+        <v>14.85999965667725</v>
+      </c>
+      <c r="D952" t="n">
+        <v>14.06999969482422</v>
+      </c>
+      <c r="E952" t="n">
+        <v>14.47000026702881</v>
+      </c>
+      <c r="F952" t="inlineStr"/>
+      <c r="G952" t="n">
+        <v>93631352</v>
+      </c>
+      <c r="H952" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I952" t="n">
+        <v>1</v>
+      </c>
+      <c r="J952" t="n">
+        <v>23</v>
+      </c>
+      <c r="K952" t="n">
+        <v>0</v>
+      </c>
+      <c r="L952" t="n">
+        <v>0</v>
+      </c>
+      <c r="M952" t="n">
+        <v>0</v>
+      </c>
+      <c r="N952" t="n">
+        <v>4</v>
+      </c>
+      <c r="O952" t="n">
+        <v>0</v>
+      </c>
+      <c r="P952" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q952" t="n">
+        <v>0</v>
+      </c>
+      <c r="R952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B953" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C953" t="n">
+        <v>14.82999992370605</v>
+      </c>
+      <c r="D953" t="n">
+        <v>14.30000019073486</v>
+      </c>
+      <c r="E953" t="n">
+        <v>14.44999980926514</v>
+      </c>
+      <c r="F953" t="inlineStr"/>
+      <c r="G953" t="n">
+        <v>43263646</v>
+      </c>
+      <c r="H953" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I953" t="n">
+        <v>1</v>
+      </c>
+      <c r="J953" t="n">
+        <v>24</v>
+      </c>
+      <c r="K953" t="n">
+        <v>0</v>
+      </c>
+      <c r="L953" t="n">
+        <v>0</v>
+      </c>
+      <c r="M953" t="n">
+        <v>0</v>
+      </c>
+      <c r="N953" t="n">
+        <v>4</v>
+      </c>
+      <c r="O953" t="n">
+        <v>0</v>
+      </c>
+      <c r="P953" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q953" t="n">
+        <v>0</v>
+      </c>
+      <c r="R953" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R953"/>
+  <dimension ref="A1:R958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53553,7 +53553,9 @@
       <c r="Q949" t="n">
         <v>0</v>
       </c>
-      <c r="R949" t="inlineStr"/>
+      <c r="R949" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
@@ -53605,7 +53607,9 @@
       <c r="Q950" t="n">
         <v>0</v>
       </c>
-      <c r="R950" t="inlineStr"/>
+      <c r="R950" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
@@ -53657,7 +53661,9 @@
       <c r="Q951" t="n">
         <v>0</v>
       </c>
-      <c r="R951" t="inlineStr"/>
+      <c r="R951" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
@@ -53709,7 +53715,9 @@
       <c r="Q952" t="n">
         <v>0</v>
       </c>
-      <c r="R952" t="inlineStr"/>
+      <c r="R952" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
@@ -53761,7 +53769,269 @@
       <c r="Q953" t="n">
         <v>0</v>
       </c>
-      <c r="R953" t="inlineStr"/>
+      <c r="R953" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B954" t="n">
+        <v>14.32999992370605</v>
+      </c>
+      <c r="C954" t="n">
+        <v>14.32999992370605</v>
+      </c>
+      <c r="D954" t="n">
+        <v>13.55000019073486</v>
+      </c>
+      <c r="E954" t="n">
+        <v>13.68000030517578</v>
+      </c>
+      <c r="F954" t="inlineStr"/>
+      <c r="G954" t="n">
+        <v>18679403</v>
+      </c>
+      <c r="H954" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I954" t="n">
+        <v>1</v>
+      </c>
+      <c r="J954" t="n">
+        <v>27</v>
+      </c>
+      <c r="K954" t="n">
+        <v>0</v>
+      </c>
+      <c r="L954" t="n">
+        <v>0</v>
+      </c>
+      <c r="M954" t="n">
+        <v>0</v>
+      </c>
+      <c r="N954" t="n">
+        <v>5</v>
+      </c>
+      <c r="O954" t="n">
+        <v>0</v>
+      </c>
+      <c r="P954" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q954" t="n">
+        <v>0</v>
+      </c>
+      <c r="R954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B955" t="n">
+        <v>13.64000034332275</v>
+      </c>
+      <c r="C955" t="n">
+        <v>14.14999961853027</v>
+      </c>
+      <c r="D955" t="n">
+        <v>13.19999980926514</v>
+      </c>
+      <c r="E955" t="n">
+        <v>13.69999980926514</v>
+      </c>
+      <c r="F955" t="inlineStr"/>
+      <c r="G955" t="n">
+        <v>59642869</v>
+      </c>
+      <c r="H955" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I955" t="n">
+        <v>1</v>
+      </c>
+      <c r="J955" t="n">
+        <v>28</v>
+      </c>
+      <c r="K955" t="n">
+        <v>0</v>
+      </c>
+      <c r="L955" t="n">
+        <v>0</v>
+      </c>
+      <c r="M955" t="n">
+        <v>0</v>
+      </c>
+      <c r="N955" t="n">
+        <v>5</v>
+      </c>
+      <c r="O955" t="n">
+        <v>0</v>
+      </c>
+      <c r="P955" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q955" t="n">
+        <v>0</v>
+      </c>
+      <c r="R955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B956" t="n">
+        <v>13.69999980926514</v>
+      </c>
+      <c r="C956" t="n">
+        <v>13.92000007629395</v>
+      </c>
+      <c r="D956" t="n">
+        <v>13.55000019073486</v>
+      </c>
+      <c r="E956" t="n">
+        <v>13.64999961853027</v>
+      </c>
+      <c r="F956" t="inlineStr"/>
+      <c r="G956" t="n">
+        <v>30755617</v>
+      </c>
+      <c r="H956" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I956" t="n">
+        <v>1</v>
+      </c>
+      <c r="J956" t="n">
+        <v>29</v>
+      </c>
+      <c r="K956" t="n">
+        <v>0</v>
+      </c>
+      <c r="L956" t="n">
+        <v>0</v>
+      </c>
+      <c r="M956" t="n">
+        <v>0</v>
+      </c>
+      <c r="N956" t="n">
+        <v>5</v>
+      </c>
+      <c r="O956" t="n">
+        <v>0</v>
+      </c>
+      <c r="P956" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q956" t="n">
+        <v>0</v>
+      </c>
+      <c r="R956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B957" t="n">
+        <v>13.64999961853027</v>
+      </c>
+      <c r="C957" t="n">
+        <v>13.6899995803833</v>
+      </c>
+      <c r="D957" t="n">
+        <v>13.14999961853027</v>
+      </c>
+      <c r="E957" t="n">
+        <v>13.21000003814697</v>
+      </c>
+      <c r="F957" t="inlineStr"/>
+      <c r="G957" t="n">
+        <v>35488965</v>
+      </c>
+      <c r="H957" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I957" t="n">
+        <v>1</v>
+      </c>
+      <c r="J957" t="n">
+        <v>30</v>
+      </c>
+      <c r="K957" t="n">
+        <v>0</v>
+      </c>
+      <c r="L957" t="n">
+        <v>0</v>
+      </c>
+      <c r="M957" t="n">
+        <v>0</v>
+      </c>
+      <c r="N957" t="n">
+        <v>5</v>
+      </c>
+      <c r="O957" t="n">
+        <v>0</v>
+      </c>
+      <c r="P957" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q957" t="n">
+        <v>0</v>
+      </c>
+      <c r="R957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B958" t="n">
+        <v>13.26000022888184</v>
+      </c>
+      <c r="C958" t="n">
+        <v>13.60000038146973</v>
+      </c>
+      <c r="D958" t="n">
+        <v>13.22000026702881</v>
+      </c>
+      <c r="E958" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F958" t="inlineStr"/>
+      <c r="G958" t="n">
+        <v>16712207</v>
+      </c>
+      <c r="H958" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I958" t="n">
+        <v>1</v>
+      </c>
+      <c r="J958" t="n">
+        <v>31</v>
+      </c>
+      <c r="K958" t="n">
+        <v>0</v>
+      </c>
+      <c r="L958" t="n">
+        <v>0</v>
+      </c>
+      <c r="M958" t="n">
+        <v>0</v>
+      </c>
+      <c r="N958" t="n">
+        <v>5</v>
+      </c>
+      <c r="O958" t="n">
+        <v>0</v>
+      </c>
+      <c r="P958" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q958" t="n">
+        <v>0</v>
+      </c>
+      <c r="R958" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R958"/>
+  <dimension ref="A1:R964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53823,7 +53823,9 @@
       <c r="Q954" t="n">
         <v>0</v>
       </c>
-      <c r="R954" t="inlineStr"/>
+      <c r="R954" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
@@ -53875,7 +53877,9 @@
       <c r="Q955" t="n">
         <v>0</v>
       </c>
-      <c r="R955" t="inlineStr"/>
+      <c r="R955" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
@@ -53927,7 +53931,9 @@
       <c r="Q956" t="n">
         <v>0</v>
       </c>
-      <c r="R956" t="inlineStr"/>
+      <c r="R956" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
@@ -53979,7 +53985,9 @@
       <c r="Q957" t="n">
         <v>0</v>
       </c>
-      <c r="R957" t="inlineStr"/>
+      <c r="R957" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
@@ -54031,7 +54039,321 @@
       <c r="Q958" t="n">
         <v>0</v>
       </c>
-      <c r="R958" t="inlineStr"/>
+      <c r="R958" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B959" t="n">
+        <v>13.51000022888184</v>
+      </c>
+      <c r="C959" t="n">
+        <v>14.92000007629395</v>
+      </c>
+      <c r="D959" t="n">
+        <v>13.51000022888184</v>
+      </c>
+      <c r="E959" t="n">
+        <v>14.31999969482422</v>
+      </c>
+      <c r="F959" t="inlineStr"/>
+      <c r="G959" t="n">
+        <v>101268802</v>
+      </c>
+      <c r="H959" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I959" t="n">
+        <v>2</v>
+      </c>
+      <c r="J959" t="n">
+        <v>1</v>
+      </c>
+      <c r="K959" t="n">
+        <v>0</v>
+      </c>
+      <c r="L959" t="n">
+        <v>0</v>
+      </c>
+      <c r="M959" t="n">
+        <v>0</v>
+      </c>
+      <c r="N959" t="n">
+        <v>5</v>
+      </c>
+      <c r="O959" t="n">
+        <v>0</v>
+      </c>
+      <c r="P959" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q959" t="n">
+        <v>0</v>
+      </c>
+      <c r="R959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B960" t="n">
+        <v>14.30000019073486</v>
+      </c>
+      <c r="C960" t="n">
+        <v>14.35999965667725</v>
+      </c>
+      <c r="D960" t="n">
+        <v>13.72999954223633</v>
+      </c>
+      <c r="E960" t="n">
+        <v>13.85999965667725</v>
+      </c>
+      <c r="F960" t="inlineStr"/>
+      <c r="G960" t="n">
+        <v>20207668</v>
+      </c>
+      <c r="H960" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I960" t="n">
+        <v>2</v>
+      </c>
+      <c r="J960" t="n">
+        <v>3</v>
+      </c>
+      <c r="K960" t="n">
+        <v>0</v>
+      </c>
+      <c r="L960" t="n">
+        <v>0</v>
+      </c>
+      <c r="M960" t="n">
+        <v>0</v>
+      </c>
+      <c r="N960" t="n">
+        <v>6</v>
+      </c>
+      <c r="O960" t="n">
+        <v>0</v>
+      </c>
+      <c r="P960" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q960" t="n">
+        <v>0</v>
+      </c>
+      <c r="R960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B961" t="n">
+        <v>13.82999992370605</v>
+      </c>
+      <c r="C961" t="n">
+        <v>14.05000019073486</v>
+      </c>
+      <c r="D961" t="n">
+        <v>13.14999961853027</v>
+      </c>
+      <c r="E961" t="n">
+        <v>13.22999954223633</v>
+      </c>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="n">
+        <v>56190310</v>
+      </c>
+      <c r="H961" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I961" t="n">
+        <v>2</v>
+      </c>
+      <c r="J961" t="n">
+        <v>4</v>
+      </c>
+      <c r="K961" t="n">
+        <v>0</v>
+      </c>
+      <c r="L961" t="n">
+        <v>0</v>
+      </c>
+      <c r="M961" t="n">
+        <v>0</v>
+      </c>
+      <c r="N961" t="n">
+        <v>6</v>
+      </c>
+      <c r="O961" t="n">
+        <v>0</v>
+      </c>
+      <c r="P961" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q961" t="n">
+        <v>0</v>
+      </c>
+      <c r="R961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B962" t="n">
+        <v>13.35999965667725</v>
+      </c>
+      <c r="C962" t="n">
+        <v>13.69999980926514</v>
+      </c>
+      <c r="D962" t="n">
+        <v>12.86999988555908</v>
+      </c>
+      <c r="E962" t="n">
+        <v>12.92000007629395</v>
+      </c>
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="n">
+        <v>80828682</v>
+      </c>
+      <c r="H962" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I962" t="n">
+        <v>2</v>
+      </c>
+      <c r="J962" t="n">
+        <v>5</v>
+      </c>
+      <c r="K962" t="n">
+        <v>0</v>
+      </c>
+      <c r="L962" t="n">
+        <v>0</v>
+      </c>
+      <c r="M962" t="n">
+        <v>0</v>
+      </c>
+      <c r="N962" t="n">
+        <v>6</v>
+      </c>
+      <c r="O962" t="n">
+        <v>0</v>
+      </c>
+      <c r="P962" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q962" t="n">
+        <v>0</v>
+      </c>
+      <c r="R962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B963" t="n">
+        <v>13.01000022888184</v>
+      </c>
+      <c r="C963" t="n">
+        <v>13.11999988555908</v>
+      </c>
+      <c r="D963" t="n">
+        <v>12.89000034332275</v>
+      </c>
+      <c r="E963" t="n">
+        <v>12.90999984741211</v>
+      </c>
+      <c r="F963" t="inlineStr"/>
+      <c r="G963" t="n">
+        <v>21387832</v>
+      </c>
+      <c r="H963" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I963" t="n">
+        <v>2</v>
+      </c>
+      <c r="J963" t="n">
+        <v>6</v>
+      </c>
+      <c r="K963" t="n">
+        <v>0</v>
+      </c>
+      <c r="L963" t="n">
+        <v>0</v>
+      </c>
+      <c r="M963" t="n">
+        <v>0</v>
+      </c>
+      <c r="N963" t="n">
+        <v>6</v>
+      </c>
+      <c r="O963" t="n">
+        <v>0</v>
+      </c>
+      <c r="P963" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q963" t="n">
+        <v>0</v>
+      </c>
+      <c r="R963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B964" t="n">
+        <v>12.90999984741211</v>
+      </c>
+      <c r="C964" t="n">
+        <v>13.05000019073486</v>
+      </c>
+      <c r="D964" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E964" t="n">
+        <v>12.82999992370605</v>
+      </c>
+      <c r="F964" t="inlineStr"/>
+      <c r="G964" t="n">
+        <v>16262086</v>
+      </c>
+      <c r="H964" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I964" t="n">
+        <v>2</v>
+      </c>
+      <c r="J964" t="n">
+        <v>7</v>
+      </c>
+      <c r="K964" t="n">
+        <v>0</v>
+      </c>
+      <c r="L964" t="n">
+        <v>0</v>
+      </c>
+      <c r="M964" t="n">
+        <v>0</v>
+      </c>
+      <c r="N964" t="n">
+        <v>6</v>
+      </c>
+      <c r="O964" t="n">
+        <v>0</v>
+      </c>
+      <c r="P964" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q964" t="n">
+        <v>0</v>
+      </c>
+      <c r="R964" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R964"/>
+  <dimension ref="A1:R969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54085,7 +54085,7 @@
         <v>5</v>
       </c>
       <c r="O959" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P959" t="n">
         <v>0</v>
@@ -54093,7 +54093,9 @@
       <c r="Q959" t="n">
         <v>0</v>
       </c>
-      <c r="R959" t="inlineStr"/>
+      <c r="R959" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
@@ -54145,7 +54147,9 @@
       <c r="Q960" t="n">
         <v>0</v>
       </c>
-      <c r="R960" t="inlineStr"/>
+      <c r="R960" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
@@ -54197,7 +54201,9 @@
       <c r="Q961" t="n">
         <v>0</v>
       </c>
-      <c r="R961" t="inlineStr"/>
+      <c r="R961" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
@@ -54249,7 +54255,9 @@
       <c r="Q962" t="n">
         <v>0</v>
       </c>
-      <c r="R962" t="inlineStr"/>
+      <c r="R962" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
@@ -54301,7 +54309,9 @@
       <c r="Q963" t="n">
         <v>0</v>
       </c>
-      <c r="R963" t="inlineStr"/>
+      <c r="R963" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
@@ -54353,7 +54363,269 @@
       <c r="Q964" t="n">
         <v>0</v>
       </c>
-      <c r="R964" t="inlineStr"/>
+      <c r="R964" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B965" t="n">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="C965" t="n">
+        <v>12.89999961853027</v>
+      </c>
+      <c r="D965" t="n">
+        <v>12.46000003814697</v>
+      </c>
+      <c r="E965" t="n">
+        <v>12.5600004196167</v>
+      </c>
+      <c r="F965" t="inlineStr"/>
+      <c r="G965" t="n">
+        <v>17268593</v>
+      </c>
+      <c r="H965" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I965" t="n">
+        <v>2</v>
+      </c>
+      <c r="J965" t="n">
+        <v>10</v>
+      </c>
+      <c r="K965" t="n">
+        <v>0</v>
+      </c>
+      <c r="L965" t="n">
+        <v>0</v>
+      </c>
+      <c r="M965" t="n">
+        <v>0</v>
+      </c>
+      <c r="N965" t="n">
+        <v>7</v>
+      </c>
+      <c r="O965" t="n">
+        <v>0</v>
+      </c>
+      <c r="P965" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q965" t="n">
+        <v>0</v>
+      </c>
+      <c r="R965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B966" t="n">
+        <v>12.48999977111816</v>
+      </c>
+      <c r="C966" t="n">
+        <v>12.69999980926514</v>
+      </c>
+      <c r="D966" t="n">
+        <v>12.11999988555908</v>
+      </c>
+      <c r="E966" t="n">
+        <v>12.18000030517578</v>
+      </c>
+      <c r="F966" t="inlineStr"/>
+      <c r="G966" t="n">
+        <v>28164049</v>
+      </c>
+      <c r="H966" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I966" t="n">
+        <v>2</v>
+      </c>
+      <c r="J966" t="n">
+        <v>11</v>
+      </c>
+      <c r="K966" t="n">
+        <v>0</v>
+      </c>
+      <c r="L966" t="n">
+        <v>0</v>
+      </c>
+      <c r="M966" t="n">
+        <v>0</v>
+      </c>
+      <c r="N966" t="n">
+        <v>7</v>
+      </c>
+      <c r="O966" t="n">
+        <v>0</v>
+      </c>
+      <c r="P966" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q966" t="n">
+        <v>0</v>
+      </c>
+      <c r="R966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B967" t="n">
+        <v>12.03999996185303</v>
+      </c>
+      <c r="C967" t="n">
+        <v>12.3100004196167</v>
+      </c>
+      <c r="D967" t="n">
+        <v>11.60000038146973</v>
+      </c>
+      <c r="E967" t="n">
+        <v>11.93000030517578</v>
+      </c>
+      <c r="F967" t="inlineStr"/>
+      <c r="G967" t="n">
+        <v>34394900</v>
+      </c>
+      <c r="H967" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I967" t="n">
+        <v>2</v>
+      </c>
+      <c r="J967" t="n">
+        <v>12</v>
+      </c>
+      <c r="K967" t="n">
+        <v>0</v>
+      </c>
+      <c r="L967" t="n">
+        <v>0</v>
+      </c>
+      <c r="M967" t="n">
+        <v>0</v>
+      </c>
+      <c r="N967" t="n">
+        <v>7</v>
+      </c>
+      <c r="O967" t="n">
+        <v>0</v>
+      </c>
+      <c r="P967" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q967" t="n">
+        <v>0</v>
+      </c>
+      <c r="R967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B968" t="n">
+        <v>11.93000030517578</v>
+      </c>
+      <c r="C968" t="n">
+        <v>12.69999980926514</v>
+      </c>
+      <c r="D968" t="n">
+        <v>11.90999984741211</v>
+      </c>
+      <c r="E968" t="n">
+        <v>12.23999977111816</v>
+      </c>
+      <c r="F968" t="inlineStr"/>
+      <c r="G968" t="n">
+        <v>34130207</v>
+      </c>
+      <c r="H968" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I968" t="n">
+        <v>2</v>
+      </c>
+      <c r="J968" t="n">
+        <v>13</v>
+      </c>
+      <c r="K968" t="n">
+        <v>0</v>
+      </c>
+      <c r="L968" t="n">
+        <v>0</v>
+      </c>
+      <c r="M968" t="n">
+        <v>0</v>
+      </c>
+      <c r="N968" t="n">
+        <v>7</v>
+      </c>
+      <c r="O968" t="n">
+        <v>0</v>
+      </c>
+      <c r="P968" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q968" t="n">
+        <v>0</v>
+      </c>
+      <c r="R968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B969" t="n">
+        <v>12.26000022888184</v>
+      </c>
+      <c r="C969" t="n">
+        <v>12.39999961853027</v>
+      </c>
+      <c r="D969" t="n">
+        <v>11.72999954223633</v>
+      </c>
+      <c r="E969" t="n">
+        <v>11.94999980926514</v>
+      </c>
+      <c r="F969" t="inlineStr"/>
+      <c r="G969" t="n">
+        <v>19024629</v>
+      </c>
+      <c r="H969" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I969" t="n">
+        <v>2</v>
+      </c>
+      <c r="J969" t="n">
+        <v>14</v>
+      </c>
+      <c r="K969" t="n">
+        <v>0</v>
+      </c>
+      <c r="L969" t="n">
+        <v>0</v>
+      </c>
+      <c r="M969" t="n">
+        <v>0</v>
+      </c>
+      <c r="N969" t="n">
+        <v>7</v>
+      </c>
+      <c r="O969" t="n">
+        <v>0</v>
+      </c>
+      <c r="P969" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q969" t="n">
+        <v>0</v>
+      </c>
+      <c r="R969" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R969"/>
+  <dimension ref="A1:R974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54417,7 +54417,9 @@
       <c r="Q965" t="n">
         <v>0</v>
       </c>
-      <c r="R965" t="inlineStr"/>
+      <c r="R965" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
@@ -54469,7 +54471,9 @@
       <c r="Q966" t="n">
         <v>0</v>
       </c>
-      <c r="R966" t="inlineStr"/>
+      <c r="R966" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
@@ -54521,7 +54525,9 @@
       <c r="Q967" t="n">
         <v>0</v>
       </c>
-      <c r="R967" t="inlineStr"/>
+      <c r="R967" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
@@ -54573,7 +54579,9 @@
       <c r="Q968" t="n">
         <v>0</v>
       </c>
-      <c r="R968" t="inlineStr"/>
+      <c r="R968" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
@@ -54625,7 +54633,269 @@
       <c r="Q969" t="n">
         <v>0</v>
       </c>
-      <c r="R969" t="inlineStr"/>
+      <c r="R969" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B970" t="n">
+        <v>11.89999961853027</v>
+      </c>
+      <c r="C970" t="n">
+        <v>12.01000022888184</v>
+      </c>
+      <c r="D970" t="n">
+        <v>11.3100004196167</v>
+      </c>
+      <c r="E970" t="n">
+        <v>11.8100004196167</v>
+      </c>
+      <c r="F970" t="inlineStr"/>
+      <c r="G970" t="n">
+        <v>41833248</v>
+      </c>
+      <c r="H970" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I970" t="n">
+        <v>2</v>
+      </c>
+      <c r="J970" t="n">
+        <v>17</v>
+      </c>
+      <c r="K970" t="n">
+        <v>0</v>
+      </c>
+      <c r="L970" t="n">
+        <v>0</v>
+      </c>
+      <c r="M970" t="n">
+        <v>0</v>
+      </c>
+      <c r="N970" t="n">
+        <v>8</v>
+      </c>
+      <c r="O970" t="n">
+        <v>0</v>
+      </c>
+      <c r="P970" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q970" t="n">
+        <v>0</v>
+      </c>
+      <c r="R970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B971" t="n">
+        <v>11.61999988555908</v>
+      </c>
+      <c r="C971" t="n">
+        <v>12.21000003814697</v>
+      </c>
+      <c r="D971" t="n">
+        <v>11.5600004196167</v>
+      </c>
+      <c r="E971" t="n">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="F971" t="inlineStr"/>
+      <c r="G971" t="n">
+        <v>43002347</v>
+      </c>
+      <c r="H971" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I971" t="n">
+        <v>2</v>
+      </c>
+      <c r="J971" t="n">
+        <v>18</v>
+      </c>
+      <c r="K971" t="n">
+        <v>0</v>
+      </c>
+      <c r="L971" t="n">
+        <v>0</v>
+      </c>
+      <c r="M971" t="n">
+        <v>0</v>
+      </c>
+      <c r="N971" t="n">
+        <v>8</v>
+      </c>
+      <c r="O971" t="n">
+        <v>0</v>
+      </c>
+      <c r="P971" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q971" t="n">
+        <v>0</v>
+      </c>
+      <c r="R971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B972" t="n">
+        <v>11.89999961853027</v>
+      </c>
+      <c r="C972" t="n">
+        <v>12.46000003814697</v>
+      </c>
+      <c r="D972" t="n">
+        <v>11.89999961853027</v>
+      </c>
+      <c r="E972" t="n">
+        <v>12.32999992370605</v>
+      </c>
+      <c r="F972" t="inlineStr"/>
+      <c r="G972" t="n">
+        <v>26222860</v>
+      </c>
+      <c r="H972" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I972" t="n">
+        <v>2</v>
+      </c>
+      <c r="J972" t="n">
+        <v>19</v>
+      </c>
+      <c r="K972" t="n">
+        <v>0</v>
+      </c>
+      <c r="L972" t="n">
+        <v>0</v>
+      </c>
+      <c r="M972" t="n">
+        <v>0</v>
+      </c>
+      <c r="N972" t="n">
+        <v>8</v>
+      </c>
+      <c r="O972" t="n">
+        <v>0</v>
+      </c>
+      <c r="P972" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q972" t="n">
+        <v>0</v>
+      </c>
+      <c r="R972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B973" t="n">
+        <v>12.30000019073486</v>
+      </c>
+      <c r="C973" t="n">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="D973" t="n">
+        <v>12.11999988555908</v>
+      </c>
+      <c r="E973" t="n">
+        <v>12.35000038146973</v>
+      </c>
+      <c r="F973" t="inlineStr"/>
+      <c r="G973" t="n">
+        <v>39675875</v>
+      </c>
+      <c r="H973" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I973" t="n">
+        <v>2</v>
+      </c>
+      <c r="J973" t="n">
+        <v>20</v>
+      </c>
+      <c r="K973" t="n">
+        <v>0</v>
+      </c>
+      <c r="L973" t="n">
+        <v>0</v>
+      </c>
+      <c r="M973" t="n">
+        <v>0</v>
+      </c>
+      <c r="N973" t="n">
+        <v>8</v>
+      </c>
+      <c r="O973" t="n">
+        <v>0</v>
+      </c>
+      <c r="P973" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q973" t="n">
+        <v>0</v>
+      </c>
+      <c r="R973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B974" t="n">
+        <v>12.22000026702881</v>
+      </c>
+      <c r="C974" t="n">
+        <v>12.59000015258789</v>
+      </c>
+      <c r="D974" t="n">
+        <v>12.18000030517578</v>
+      </c>
+      <c r="E974" t="n">
+        <v>12.22000026702881</v>
+      </c>
+      <c r="F974" t="inlineStr"/>
+      <c r="G974" t="n">
+        <v>20170438</v>
+      </c>
+      <c r="H974" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I974" t="n">
+        <v>2</v>
+      </c>
+      <c r="J974" t="n">
+        <v>21</v>
+      </c>
+      <c r="K974" t="n">
+        <v>0</v>
+      </c>
+      <c r="L974" t="n">
+        <v>0</v>
+      </c>
+      <c r="M974" t="n">
+        <v>0</v>
+      </c>
+      <c r="N974" t="n">
+        <v>8</v>
+      </c>
+      <c r="O974" t="n">
+        <v>0</v>
+      </c>
+      <c r="P974" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q974" t="n">
+        <v>0</v>
+      </c>
+      <c r="R974" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R974"/>
+  <dimension ref="A1:R983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54687,7 +54687,9 @@
       <c r="Q970" t="n">
         <v>0</v>
       </c>
-      <c r="R970" t="inlineStr"/>
+      <c r="R970" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
@@ -54739,7 +54741,9 @@
       <c r="Q971" t="n">
         <v>0</v>
       </c>
-      <c r="R971" t="inlineStr"/>
+      <c r="R971" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
@@ -54791,7 +54795,9 @@
       <c r="Q972" t="n">
         <v>0</v>
       </c>
-      <c r="R972" t="inlineStr"/>
+      <c r="R972" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
@@ -54843,7 +54849,9 @@
       <c r="Q973" t="n">
         <v>0</v>
       </c>
-      <c r="R973" t="inlineStr"/>
+      <c r="R973" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
@@ -54895,7 +54903,477 @@
       <c r="Q974" t="n">
         <v>0</v>
       </c>
-      <c r="R974" t="inlineStr"/>
+      <c r="R974" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B975" t="n">
+        <v>12.18000030517578</v>
+      </c>
+      <c r="C975" t="n">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="D975" t="n">
+        <v>11.88000011444092</v>
+      </c>
+      <c r="E975" t="n">
+        <v>12.02999973297119</v>
+      </c>
+      <c r="F975" t="inlineStr"/>
+      <c r="G975" t="n">
+        <v>14041813</v>
+      </c>
+      <c r="H975" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I975" t="n">
+        <v>2</v>
+      </c>
+      <c r="J975" t="n">
+        <v>24</v>
+      </c>
+      <c r="K975" t="n">
+        <v>0</v>
+      </c>
+      <c r="L975" t="n">
+        <v>0</v>
+      </c>
+      <c r="M975" t="n">
+        <v>0</v>
+      </c>
+      <c r="N975" t="n">
+        <v>9</v>
+      </c>
+      <c r="O975" t="n">
+        <v>0</v>
+      </c>
+      <c r="P975" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q975" t="n">
+        <v>0</v>
+      </c>
+      <c r="R975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B976" t="n">
+        <v>12.02999973297119</v>
+      </c>
+      <c r="C976" t="n">
+        <v>12.69999980926514</v>
+      </c>
+      <c r="D976" t="n">
+        <v>12.02000045776367</v>
+      </c>
+      <c r="E976" t="n">
+        <v>12.28999996185303</v>
+      </c>
+      <c r="F976" t="inlineStr"/>
+      <c r="G976" t="n">
+        <v>36246420</v>
+      </c>
+      <c r="H976" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I976" t="n">
+        <v>2</v>
+      </c>
+      <c r="J976" t="n">
+        <v>25</v>
+      </c>
+      <c r="K976" t="n">
+        <v>0</v>
+      </c>
+      <c r="L976" t="n">
+        <v>0</v>
+      </c>
+      <c r="M976" t="n">
+        <v>0</v>
+      </c>
+      <c r="N976" t="n">
+        <v>9</v>
+      </c>
+      <c r="O976" t="n">
+        <v>0</v>
+      </c>
+      <c r="P976" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q976" t="n">
+        <v>0</v>
+      </c>
+      <c r="R976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B977" t="n">
+        <v>12.31999969482422</v>
+      </c>
+      <c r="C977" t="n">
+        <v>12.39000034332275</v>
+      </c>
+      <c r="D977" t="n">
+        <v>11.97000026702881</v>
+      </c>
+      <c r="E977" t="n">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="F977" t="inlineStr"/>
+      <c r="G977" t="n">
+        <v>15282906</v>
+      </c>
+      <c r="H977" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I977" t="n">
+        <v>2</v>
+      </c>
+      <c r="J977" t="n">
+        <v>27</v>
+      </c>
+      <c r="K977" t="n">
+        <v>0</v>
+      </c>
+      <c r="L977" t="n">
+        <v>0</v>
+      </c>
+      <c r="M977" t="n">
+        <v>0</v>
+      </c>
+      <c r="N977" t="n">
+        <v>9</v>
+      </c>
+      <c r="O977" t="n">
+        <v>0</v>
+      </c>
+      <c r="P977" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q977" t="n">
+        <v>0</v>
+      </c>
+      <c r="R977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B978" t="n">
+        <v>12.02999973297119</v>
+      </c>
+      <c r="C978" t="n">
+        <v>12.14000034332275</v>
+      </c>
+      <c r="D978" t="n">
+        <v>11.5600004196167</v>
+      </c>
+      <c r="E978" t="n">
+        <v>11.72000026702881</v>
+      </c>
+      <c r="F978" t="inlineStr"/>
+      <c r="G978" t="n">
+        <v>31032758</v>
+      </c>
+      <c r="H978" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I978" t="n">
+        <v>2</v>
+      </c>
+      <c r="J978" t="n">
+        <v>28</v>
+      </c>
+      <c r="K978" t="n">
+        <v>0</v>
+      </c>
+      <c r="L978" t="n">
+        <v>0</v>
+      </c>
+      <c r="M978" t="n">
+        <v>0</v>
+      </c>
+      <c r="N978" t="n">
+        <v>9</v>
+      </c>
+      <c r="O978" t="n">
+        <v>0</v>
+      </c>
+      <c r="P978" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q978" t="n">
+        <v>0</v>
+      </c>
+      <c r="R978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B979" t="n">
+        <v>11.77000045776367</v>
+      </c>
+      <c r="C979" t="n">
+        <v>11.90999984741211</v>
+      </c>
+      <c r="D979" t="n">
+        <v>10.90999984741211</v>
+      </c>
+      <c r="E979" t="n">
+        <v>11.03999996185303</v>
+      </c>
+      <c r="F979" t="inlineStr"/>
+      <c r="G979" t="n">
+        <v>33638575</v>
+      </c>
+      <c r="H979" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I979" t="n">
+        <v>3</v>
+      </c>
+      <c r="J979" t="n">
+        <v>3</v>
+      </c>
+      <c r="K979" t="n">
+        <v>0</v>
+      </c>
+      <c r="L979" t="n">
+        <v>0</v>
+      </c>
+      <c r="M979" t="n">
+        <v>0</v>
+      </c>
+      <c r="N979" t="n">
+        <v>10</v>
+      </c>
+      <c r="O979" t="n">
+        <v>0</v>
+      </c>
+      <c r="P979" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q979" t="n">
+        <v>0</v>
+      </c>
+      <c r="R979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B980" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="C980" t="n">
+        <v>11.57999992370605</v>
+      </c>
+      <c r="D980" t="n">
+        <v>10.80000019073486</v>
+      </c>
+      <c r="E980" t="n">
+        <v>11.09000015258789</v>
+      </c>
+      <c r="F980" t="inlineStr"/>
+      <c r="G980" t="n">
+        <v>40016264</v>
+      </c>
+      <c r="H980" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I980" t="n">
+        <v>3</v>
+      </c>
+      <c r="J980" t="n">
+        <v>4</v>
+      </c>
+      <c r="K980" t="n">
+        <v>0</v>
+      </c>
+      <c r="L980" t="n">
+        <v>0</v>
+      </c>
+      <c r="M980" t="n">
+        <v>0</v>
+      </c>
+      <c r="N980" t="n">
+        <v>10</v>
+      </c>
+      <c r="O980" t="n">
+        <v>0</v>
+      </c>
+      <c r="P980" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q980" t="n">
+        <v>0</v>
+      </c>
+      <c r="R980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B981" t="n">
+        <v>11.02999973297119</v>
+      </c>
+      <c r="C981" t="n">
+        <v>11.89999961853027</v>
+      </c>
+      <c r="D981" t="n">
+        <v>11.02999973297119</v>
+      </c>
+      <c r="E981" t="n">
+        <v>11.77999973297119</v>
+      </c>
+      <c r="F981" t="inlineStr"/>
+      <c r="G981" t="n">
+        <v>53089342</v>
+      </c>
+      <c r="H981" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I981" t="n">
+        <v>3</v>
+      </c>
+      <c r="J981" t="n">
+        <v>5</v>
+      </c>
+      <c r="K981" t="n">
+        <v>0</v>
+      </c>
+      <c r="L981" t="n">
+        <v>0</v>
+      </c>
+      <c r="M981" t="n">
+        <v>0</v>
+      </c>
+      <c r="N981" t="n">
+        <v>10</v>
+      </c>
+      <c r="O981" t="n">
+        <v>0</v>
+      </c>
+      <c r="P981" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q981" t="n">
+        <v>0</v>
+      </c>
+      <c r="R981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B982" t="n">
+        <v>12</v>
+      </c>
+      <c r="C982" t="n">
+        <v>12.44999980926514</v>
+      </c>
+      <c r="D982" t="n">
+        <v>11.85000038146973</v>
+      </c>
+      <c r="E982" t="n">
+        <v>12.34000015258789</v>
+      </c>
+      <c r="F982" t="inlineStr"/>
+      <c r="G982" t="n">
+        <v>58254380</v>
+      </c>
+      <c r="H982" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I982" t="n">
+        <v>3</v>
+      </c>
+      <c r="J982" t="n">
+        <v>6</v>
+      </c>
+      <c r="K982" t="n">
+        <v>0</v>
+      </c>
+      <c r="L982" t="n">
+        <v>0</v>
+      </c>
+      <c r="M982" t="n">
+        <v>0</v>
+      </c>
+      <c r="N982" t="n">
+        <v>10</v>
+      </c>
+      <c r="O982" t="n">
+        <v>0</v>
+      </c>
+      <c r="P982" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q982" t="n">
+        <v>0</v>
+      </c>
+      <c r="R982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B983" t="n">
+        <v>12.3100004196167</v>
+      </c>
+      <c r="C983" t="n">
+        <v>12.61999988555908</v>
+      </c>
+      <c r="D983" t="n">
+        <v>12.14999961853027</v>
+      </c>
+      <c r="E983" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="n">
+        <v>70230027</v>
+      </c>
+      <c r="H983" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I983" t="n">
+        <v>3</v>
+      </c>
+      <c r="J983" t="n">
+        <v>7</v>
+      </c>
+      <c r="K983" t="n">
+        <v>0</v>
+      </c>
+      <c r="L983" t="n">
+        <v>0</v>
+      </c>
+      <c r="M983" t="n">
+        <v>0</v>
+      </c>
+      <c r="N983" t="n">
+        <v>10</v>
+      </c>
+      <c r="O983" t="n">
+        <v>0</v>
+      </c>
+      <c r="P983" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q983" t="n">
+        <v>0</v>
+      </c>
+      <c r="R983" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R983"/>
+  <dimension ref="A1:R992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54957,7 +54957,9 @@
       <c r="Q975" t="n">
         <v>0</v>
       </c>
-      <c r="R975" t="inlineStr"/>
+      <c r="R975" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
@@ -55009,7 +55011,9 @@
       <c r="Q976" t="n">
         <v>0</v>
       </c>
-      <c r="R976" t="inlineStr"/>
+      <c r="R976" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
@@ -55061,7 +55065,9 @@
       <c r="Q977" t="n">
         <v>0</v>
       </c>
-      <c r="R977" t="inlineStr"/>
+      <c r="R977" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
@@ -55113,7 +55119,9 @@
       <c r="Q978" t="n">
         <v>0</v>
       </c>
-      <c r="R978" t="inlineStr"/>
+      <c r="R978" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
@@ -55165,7 +55173,9 @@
       <c r="Q979" t="n">
         <v>0</v>
       </c>
-      <c r="R979" t="inlineStr"/>
+      <c r="R979" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
@@ -55209,7 +55219,7 @@
         <v>10</v>
       </c>
       <c r="O980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P980" t="n">
         <v>0</v>
@@ -55217,7 +55227,9 @@
       <c r="Q980" t="n">
         <v>0</v>
       </c>
-      <c r="R980" t="inlineStr"/>
+      <c r="R980" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
@@ -55269,7 +55281,9 @@
       <c r="Q981" t="n">
         <v>0</v>
       </c>
-      <c r="R981" t="inlineStr"/>
+      <c r="R981" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
@@ -55321,7 +55335,9 @@
       <c r="Q982" t="n">
         <v>0</v>
       </c>
-      <c r="R982" t="inlineStr"/>
+      <c r="R982" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
@@ -55373,7 +55389,477 @@
       <c r="Q983" t="n">
         <v>0</v>
       </c>
-      <c r="R983" t="inlineStr"/>
+      <c r="R983" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B984" t="n">
+        <v>12.43000030517578</v>
+      </c>
+      <c r="C984" t="n">
+        <v>12.47999954223633</v>
+      </c>
+      <c r="D984" t="n">
+        <v>12</v>
+      </c>
+      <c r="E984" t="n">
+        <v>12.01000022888184</v>
+      </c>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="n">
+        <v>20869039</v>
+      </c>
+      <c r="H984" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I984" t="n">
+        <v>3</v>
+      </c>
+      <c r="J984" t="n">
+        <v>10</v>
+      </c>
+      <c r="K984" t="n">
+        <v>0</v>
+      </c>
+      <c r="L984" t="n">
+        <v>0</v>
+      </c>
+      <c r="M984" t="n">
+        <v>0</v>
+      </c>
+      <c r="N984" t="n">
+        <v>11</v>
+      </c>
+      <c r="O984" t="n">
+        <v>0</v>
+      </c>
+      <c r="P984" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q984" t="n">
+        <v>0</v>
+      </c>
+      <c r="R984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B985" t="n">
+        <v>11.80000019073486</v>
+      </c>
+      <c r="C985" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="D985" t="n">
+        <v>11.71000003814697</v>
+      </c>
+      <c r="E985" t="n">
+        <v>12.18000030517578</v>
+      </c>
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="n">
+        <v>21808976</v>
+      </c>
+      <c r="H985" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I985" t="n">
+        <v>3</v>
+      </c>
+      <c r="J985" t="n">
+        <v>11</v>
+      </c>
+      <c r="K985" t="n">
+        <v>0</v>
+      </c>
+      <c r="L985" t="n">
+        <v>0</v>
+      </c>
+      <c r="M985" t="n">
+        <v>0</v>
+      </c>
+      <c r="N985" t="n">
+        <v>11</v>
+      </c>
+      <c r="O985" t="n">
+        <v>0</v>
+      </c>
+      <c r="P985" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q985" t="n">
+        <v>0</v>
+      </c>
+      <c r="R985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B986" t="n">
+        <v>12.13000011444092</v>
+      </c>
+      <c r="C986" t="n">
+        <v>12.56999969482422</v>
+      </c>
+      <c r="D986" t="n">
+        <v>12.05000019073486</v>
+      </c>
+      <c r="E986" t="n">
+        <v>12.52999973297119</v>
+      </c>
+      <c r="F986" t="inlineStr"/>
+      <c r="G986" t="n">
+        <v>33826513</v>
+      </c>
+      <c r="H986" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I986" t="n">
+        <v>3</v>
+      </c>
+      <c r="J986" t="n">
+        <v>12</v>
+      </c>
+      <c r="K986" t="n">
+        <v>0</v>
+      </c>
+      <c r="L986" t="n">
+        <v>0</v>
+      </c>
+      <c r="M986" t="n">
+        <v>0</v>
+      </c>
+      <c r="N986" t="n">
+        <v>11</v>
+      </c>
+      <c r="O986" t="n">
+        <v>0</v>
+      </c>
+      <c r="P986" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>0</v>
+      </c>
+      <c r="R986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B987" t="n">
+        <v>12.55000019073486</v>
+      </c>
+      <c r="C987" t="n">
+        <v>12.64000034332275</v>
+      </c>
+      <c r="D987" t="n">
+        <v>12.26000022888184</v>
+      </c>
+      <c r="E987" t="n">
+        <v>12.59000015258789</v>
+      </c>
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="n">
+        <v>38521111</v>
+      </c>
+      <c r="H987" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I987" t="n">
+        <v>3</v>
+      </c>
+      <c r="J987" t="n">
+        <v>13</v>
+      </c>
+      <c r="K987" t="n">
+        <v>0</v>
+      </c>
+      <c r="L987" t="n">
+        <v>0</v>
+      </c>
+      <c r="M987" t="n">
+        <v>0</v>
+      </c>
+      <c r="N987" t="n">
+        <v>11</v>
+      </c>
+      <c r="O987" t="n">
+        <v>0</v>
+      </c>
+      <c r="P987" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q987" t="n">
+        <v>0</v>
+      </c>
+      <c r="R987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B988" t="n">
+        <v>12.57999992370605</v>
+      </c>
+      <c r="C988" t="n">
+        <v>12.60999965667725</v>
+      </c>
+      <c r="D988" t="n">
+        <v>11.80000019073486</v>
+      </c>
+      <c r="E988" t="n">
+        <v>12.06999969482422</v>
+      </c>
+      <c r="F988" t="inlineStr"/>
+      <c r="G988" t="n">
+        <v>21880062</v>
+      </c>
+      <c r="H988" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I988" t="n">
+        <v>3</v>
+      </c>
+      <c r="J988" t="n">
+        <v>17</v>
+      </c>
+      <c r="K988" t="n">
+        <v>0</v>
+      </c>
+      <c r="L988" t="n">
+        <v>0</v>
+      </c>
+      <c r="M988" t="n">
+        <v>0</v>
+      </c>
+      <c r="N988" t="n">
+        <v>12</v>
+      </c>
+      <c r="O988" t="n">
+        <v>0</v>
+      </c>
+      <c r="P988" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q988" t="n">
+        <v>0</v>
+      </c>
+      <c r="R988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B989" t="n">
+        <v>12.06999969482422</v>
+      </c>
+      <c r="C989" t="n">
+        <v>12.06999969482422</v>
+      </c>
+      <c r="D989" t="n">
+        <v>12.06999969482422</v>
+      </c>
+      <c r="E989" t="n">
+        <v>12.06999969482422</v>
+      </c>
+      <c r="F989" t="inlineStr"/>
+      <c r="G989" t="n">
+        <v>0</v>
+      </c>
+      <c r="H989" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I989" t="n">
+        <v>3</v>
+      </c>
+      <c r="J989" t="n">
+        <v>18</v>
+      </c>
+      <c r="K989" t="n">
+        <v>0</v>
+      </c>
+      <c r="L989" t="n">
+        <v>0</v>
+      </c>
+      <c r="M989" t="n">
+        <v>0</v>
+      </c>
+      <c r="N989" t="n">
+        <v>12</v>
+      </c>
+      <c r="O989" t="n">
+        <v>0</v>
+      </c>
+      <c r="P989" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q989" t="n">
+        <v>0</v>
+      </c>
+      <c r="R989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B990" t="n">
+        <v>12.78999996185303</v>
+      </c>
+      <c r="C990" t="n">
+        <v>13.22999954223633</v>
+      </c>
+      <c r="D990" t="n">
+        <v>12.72999954223633</v>
+      </c>
+      <c r="E990" t="n">
+        <v>13.15999984741211</v>
+      </c>
+      <c r="F990" t="inlineStr"/>
+      <c r="G990" t="n">
+        <v>126741274</v>
+      </c>
+      <c r="H990" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I990" t="n">
+        <v>3</v>
+      </c>
+      <c r="J990" t="n">
+        <v>19</v>
+      </c>
+      <c r="K990" t="n">
+        <v>0</v>
+      </c>
+      <c r="L990" t="n">
+        <v>0</v>
+      </c>
+      <c r="M990" t="n">
+        <v>0</v>
+      </c>
+      <c r="N990" t="n">
+        <v>12</v>
+      </c>
+      <c r="O990" t="n">
+        <v>0</v>
+      </c>
+      <c r="P990" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>0</v>
+      </c>
+      <c r="R990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B991" t="n">
+        <v>13.10000038146973</v>
+      </c>
+      <c r="C991" t="n">
+        <v>13.21000003814697</v>
+      </c>
+      <c r="D991" t="n">
+        <v>12.85999965667725</v>
+      </c>
+      <c r="E991" t="n">
+        <v>13.14999961853027</v>
+      </c>
+      <c r="F991" t="inlineStr"/>
+      <c r="G991" t="n">
+        <v>72702112</v>
+      </c>
+      <c r="H991" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I991" t="n">
+        <v>3</v>
+      </c>
+      <c r="J991" t="n">
+        <v>20</v>
+      </c>
+      <c r="K991" t="n">
+        <v>0</v>
+      </c>
+      <c r="L991" t="n">
+        <v>0</v>
+      </c>
+      <c r="M991" t="n">
+        <v>0</v>
+      </c>
+      <c r="N991" t="n">
+        <v>12</v>
+      </c>
+      <c r="O991" t="n">
+        <v>0</v>
+      </c>
+      <c r="P991" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>0</v>
+      </c>
+      <c r="R991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B992" t="n">
+        <v>13.14000034332275</v>
+      </c>
+      <c r="C992" t="n">
+        <v>13.64000034332275</v>
+      </c>
+      <c r="D992" t="n">
+        <v>13.07999992370605</v>
+      </c>
+      <c r="E992" t="n">
+        <v>13.53999996185303</v>
+      </c>
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="n">
+        <v>71599959</v>
+      </c>
+      <c r="H992" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I992" t="n">
+        <v>3</v>
+      </c>
+      <c r="J992" t="n">
+        <v>21</v>
+      </c>
+      <c r="K992" t="n">
+        <v>0</v>
+      </c>
+      <c r="L992" t="n">
+        <v>0</v>
+      </c>
+      <c r="M992" t="n">
+        <v>0</v>
+      </c>
+      <c r="N992" t="n">
+        <v>12</v>
+      </c>
+      <c r="O992" t="n">
+        <v>0</v>
+      </c>
+      <c r="P992" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>0</v>
+      </c>
+      <c r="R992" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R992"/>
+  <dimension ref="A1:R1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55443,7 +55443,9 @@
       <c r="Q984" t="n">
         <v>0</v>
       </c>
-      <c r="R984" t="inlineStr"/>
+      <c r="R984" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
@@ -55495,7 +55497,9 @@
       <c r="Q985" t="n">
         <v>0</v>
       </c>
-      <c r="R985" t="inlineStr"/>
+      <c r="R985" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
@@ -55547,7 +55551,9 @@
       <c r="Q986" t="n">
         <v>0</v>
       </c>
-      <c r="R986" t="inlineStr"/>
+      <c r="R986" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
@@ -55599,7 +55605,9 @@
       <c r="Q987" t="n">
         <v>0</v>
       </c>
-      <c r="R987" t="inlineStr"/>
+      <c r="R987" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
@@ -55651,7 +55659,9 @@
       <c r="Q988" t="n">
         <v>0</v>
       </c>
-      <c r="R988" t="inlineStr"/>
+      <c r="R988" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
@@ -55703,7 +55713,9 @@
       <c r="Q989" t="n">
         <v>0</v>
       </c>
-      <c r="R989" t="inlineStr"/>
+      <c r="R989" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
@@ -55755,7 +55767,9 @@
       <c r="Q990" t="n">
         <v>0</v>
       </c>
-      <c r="R990" t="inlineStr"/>
+      <c r="R990" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
@@ -55807,7 +55821,9 @@
       <c r="Q991" t="n">
         <v>0</v>
       </c>
-      <c r="R991" t="inlineStr"/>
+      <c r="R991" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
@@ -55859,7 +55875,477 @@
       <c r="Q992" t="n">
         <v>0</v>
       </c>
-      <c r="R992" t="inlineStr"/>
+      <c r="R992" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B993" t="n">
+        <v>13.78999996185303</v>
+      </c>
+      <c r="C993" t="n">
+        <v>14.02000045776367</v>
+      </c>
+      <c r="D993" t="n">
+        <v>13.22999954223633</v>
+      </c>
+      <c r="E993" t="n">
+        <v>13.39999961853027</v>
+      </c>
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="n">
+        <v>132796304</v>
+      </c>
+      <c r="H993" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I993" t="n">
+        <v>3</v>
+      </c>
+      <c r="J993" t="n">
+        <v>24</v>
+      </c>
+      <c r="K993" t="n">
+        <v>0</v>
+      </c>
+      <c r="L993" t="n">
+        <v>0</v>
+      </c>
+      <c r="M993" t="n">
+        <v>0</v>
+      </c>
+      <c r="N993" t="n">
+        <v>13</v>
+      </c>
+      <c r="O993" t="n">
+        <v>0</v>
+      </c>
+      <c r="P993" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>0</v>
+      </c>
+      <c r="R993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B994" t="n">
+        <v>13.78999996185303</v>
+      </c>
+      <c r="C994" t="n">
+        <v>13.78999996185303</v>
+      </c>
+      <c r="D994" t="n">
+        <v>12.84000015258789</v>
+      </c>
+      <c r="E994" t="n">
+        <v>12.94999980926514</v>
+      </c>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="n">
+        <v>62335779</v>
+      </c>
+      <c r="H994" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I994" t="n">
+        <v>3</v>
+      </c>
+      <c r="J994" t="n">
+        <v>25</v>
+      </c>
+      <c r="K994" t="n">
+        <v>0</v>
+      </c>
+      <c r="L994" t="n">
+        <v>0</v>
+      </c>
+      <c r="M994" t="n">
+        <v>0</v>
+      </c>
+      <c r="N994" t="n">
+        <v>13</v>
+      </c>
+      <c r="O994" t="n">
+        <v>0</v>
+      </c>
+      <c r="P994" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>0</v>
+      </c>
+      <c r="R994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B995" t="n">
+        <v>12.94999980926514</v>
+      </c>
+      <c r="C995" t="n">
+        <v>13.02999973297119</v>
+      </c>
+      <c r="D995" t="n">
+        <v>12.26000022888184</v>
+      </c>
+      <c r="E995" t="n">
+        <v>12.32999992370605</v>
+      </c>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="n">
+        <v>35382651</v>
+      </c>
+      <c r="H995" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I995" t="n">
+        <v>3</v>
+      </c>
+      <c r="J995" t="n">
+        <v>26</v>
+      </c>
+      <c r="K995" t="n">
+        <v>0</v>
+      </c>
+      <c r="L995" t="n">
+        <v>0</v>
+      </c>
+      <c r="M995" t="n">
+        <v>0</v>
+      </c>
+      <c r="N995" t="n">
+        <v>13</v>
+      </c>
+      <c r="O995" t="n">
+        <v>0</v>
+      </c>
+      <c r="P995" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>0</v>
+      </c>
+      <c r="R995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B996" t="n">
+        <v>12.28999996185303</v>
+      </c>
+      <c r="C996" t="n">
+        <v>12.57999992370605</v>
+      </c>
+      <c r="D996" t="n">
+        <v>12.14000034332275</v>
+      </c>
+      <c r="E996" t="n">
+        <v>12.22000026702881</v>
+      </c>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="n">
+        <v>53765868</v>
+      </c>
+      <c r="H996" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I996" t="n">
+        <v>3</v>
+      </c>
+      <c r="J996" t="n">
+        <v>27</v>
+      </c>
+      <c r="K996" t="n">
+        <v>0</v>
+      </c>
+      <c r="L996" t="n">
+        <v>0</v>
+      </c>
+      <c r="M996" t="n">
+        <v>0</v>
+      </c>
+      <c r="N996" t="n">
+        <v>13</v>
+      </c>
+      <c r="O996" t="n">
+        <v>0</v>
+      </c>
+      <c r="P996" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>0</v>
+      </c>
+      <c r="R996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B997" t="n">
+        <v>12.30000019073486</v>
+      </c>
+      <c r="C997" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="D997" t="n">
+        <v>11.57999992370605</v>
+      </c>
+      <c r="E997" t="n">
+        <v>11.71000003814697</v>
+      </c>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="n">
+        <v>40587986</v>
+      </c>
+      <c r="H997" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I997" t="n">
+        <v>3</v>
+      </c>
+      <c r="J997" t="n">
+        <v>28</v>
+      </c>
+      <c r="K997" t="n">
+        <v>0</v>
+      </c>
+      <c r="L997" t="n">
+        <v>0</v>
+      </c>
+      <c r="M997" t="n">
+        <v>0</v>
+      </c>
+      <c r="N997" t="n">
+        <v>13</v>
+      </c>
+      <c r="O997" t="n">
+        <v>0</v>
+      </c>
+      <c r="P997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>0</v>
+      </c>
+      <c r="R997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B998" t="n">
+        <v>11.71000003814697</v>
+      </c>
+      <c r="C998" t="n">
+        <v>12.35000038146973</v>
+      </c>
+      <c r="D998" t="n">
+        <v>11.69999980926514</v>
+      </c>
+      <c r="E998" t="n">
+        <v>12.22000026702881</v>
+      </c>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="n">
+        <v>19527458</v>
+      </c>
+      <c r="H998" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I998" t="n">
+        <v>4</v>
+      </c>
+      <c r="J998" t="n">
+        <v>1</v>
+      </c>
+      <c r="K998" t="n">
+        <v>0</v>
+      </c>
+      <c r="L998" t="n">
+        <v>0</v>
+      </c>
+      <c r="M998" t="n">
+        <v>0</v>
+      </c>
+      <c r="N998" t="n">
+        <v>14</v>
+      </c>
+      <c r="O998" t="n">
+        <v>0</v>
+      </c>
+      <c r="P998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>0</v>
+      </c>
+      <c r="R998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B999" t="n">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="C999" t="n">
+        <v>12.42000007629395</v>
+      </c>
+      <c r="D999" t="n">
+        <v>12.05000019073486</v>
+      </c>
+      <c r="E999" t="n">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="n">
+        <v>34499863</v>
+      </c>
+      <c r="H999" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I999" t="n">
+        <v>4</v>
+      </c>
+      <c r="J999" t="n">
+        <v>2</v>
+      </c>
+      <c r="K999" t="n">
+        <v>0</v>
+      </c>
+      <c r="L999" t="n">
+        <v>0</v>
+      </c>
+      <c r="M999" t="n">
+        <v>0</v>
+      </c>
+      <c r="N999" t="n">
+        <v>14</v>
+      </c>
+      <c r="O999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>0</v>
+      </c>
+      <c r="R999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>12.14000034332275</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>12.35999965667725</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>12.03999996185303</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>12.27999973297119</v>
+      </c>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="n">
+        <v>20211986</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>12.27999973297119</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>12.32999992370605</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>11.89999961853027</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>12.02000045776367</v>
+      </c>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="n">
+        <v>17887913</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1001" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1001"/>
+  <dimension ref="A1:R1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55921,7 +55921,7 @@
         <v>13</v>
       </c>
       <c r="O993" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P993" t="n">
         <v>0</v>
@@ -55929,7 +55929,9 @@
       <c r="Q993" t="n">
         <v>0</v>
       </c>
-      <c r="R993" t="inlineStr"/>
+      <c r="R993" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
@@ -55981,7 +55983,9 @@
       <c r="Q994" t="n">
         <v>0</v>
       </c>
-      <c r="R994" t="inlineStr"/>
+      <c r="R994" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
@@ -56033,7 +56037,9 @@
       <c r="Q995" t="n">
         <v>0</v>
       </c>
-      <c r="R995" t="inlineStr"/>
+      <c r="R995" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
@@ -56085,7 +56091,9 @@
       <c r="Q996" t="n">
         <v>0</v>
       </c>
-      <c r="R996" t="inlineStr"/>
+      <c r="R996" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
@@ -56137,7 +56145,9 @@
       <c r="Q997" t="n">
         <v>0</v>
       </c>
-      <c r="R997" t="inlineStr"/>
+      <c r="R997" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
@@ -56189,7 +56199,9 @@
       <c r="Q998" t="n">
         <v>0</v>
       </c>
-      <c r="R998" t="inlineStr"/>
+      <c r="R998" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
@@ -56241,7 +56253,9 @@
       <c r="Q999" t="n">
         <v>0</v>
       </c>
-      <c r="R999" t="inlineStr"/>
+      <c r="R999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
@@ -56293,7 +56307,9 @@
       <c r="Q1000" t="n">
         <v>0</v>
       </c>
-      <c r="R1000" t="inlineStr"/>
+      <c r="R1000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
@@ -56345,7 +56361,217 @@
       <c r="Q1001" t="n">
         <v>0</v>
       </c>
-      <c r="R1001" t="inlineStr"/>
+      <c r="R1001" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>11.05000019073486</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>11.89999961853027</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>11.01000022888184</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>11.65999984741211</v>
+      </c>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="n">
+        <v>21183246</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>11.94999980926514</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>12.18000030517578</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>11.85999965667725</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>12.05000019073486</v>
+      </c>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="n">
+        <v>14220394</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>12.05000019073486</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>12.22000026702881</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>11.85999965667725</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>12.10000038146973</v>
+      </c>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="n">
+        <v>12593771</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>12.35999965667725</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>13.14999961853027</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>12.11999988555908</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>13.07999992370605</v>
+      </c>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="n">
+        <v>84720627</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1005" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1005"/>
+  <dimension ref="A1:R1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56415,7 +56415,9 @@
       <c r="Q1002" t="n">
         <v>0</v>
       </c>
-      <c r="R1002" t="inlineStr"/>
+      <c r="R1002" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
@@ -56467,7 +56469,9 @@
       <c r="Q1003" t="n">
         <v>0</v>
       </c>
-      <c r="R1003" t="inlineStr"/>
+      <c r="R1003" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
@@ -56519,7 +56523,9 @@
       <c r="Q1004" t="n">
         <v>0</v>
       </c>
-      <c r="R1004" t="inlineStr"/>
+      <c r="R1004" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
@@ -56571,7 +56577,165 @@
       <c r="Q1005" t="n">
         <v>0</v>
       </c>
-      <c r="R1005" t="inlineStr"/>
+      <c r="R1005" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>13.15999984741211</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>13.48999977111816</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>13.32999992370605</v>
+      </c>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="n">
+        <v>109202835</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>13.28999996185303</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>13.31999969482422</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>11.88000011444092</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>12.1899995803833</v>
+      </c>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="n">
+        <v>113253449</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>12.38000011444092</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>12.30000019073486</v>
+      </c>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="n">
+        <v>43330514</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1008"/>
+  <dimension ref="A1:R1017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56407,7 +56407,7 @@
         <v>15</v>
       </c>
       <c r="O1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1002" t="n">
         <v>0</v>
@@ -56623,7 +56623,7 @@
         <v>16</v>
       </c>
       <c r="O1006" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1006" t="n">
         <v>0</v>
@@ -56631,7 +56631,9 @@
       <c r="Q1006" t="n">
         <v>0</v>
       </c>
-      <c r="R1006" t="inlineStr"/>
+      <c r="R1006" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
@@ -56683,7 +56685,9 @@
       <c r="Q1007" t="n">
         <v>0</v>
       </c>
-      <c r="R1007" t="inlineStr"/>
+      <c r="R1007" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
@@ -56735,7 +56739,477 @@
       <c r="Q1008" t="n">
         <v>0</v>
       </c>
-      <c r="R1008" t="inlineStr"/>
+      <c r="R1008" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>12.30000019073486</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>12.39999961853027</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>12.22000026702881</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>12.35000038146973</v>
+      </c>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="n">
+        <v>19855693</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>12.4399995803833</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>12.53999996185303</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>12.27000045776367</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>12.34000015258789</v>
+      </c>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="n">
+        <v>18842094</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>12.38000011444092</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>12.43000030517578</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>12.06999969482422</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>12.14000034332275</v>
+      </c>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="n">
+        <v>28499243</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>12.18000030517578</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>12.11999988555908</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>12.13000011444092</v>
+      </c>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="n">
+        <v>14226122</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>12.14999961853027</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>12.14999961853027</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>11.72999954223633</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>11.78999996185303</v>
+      </c>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="n">
+        <v>19483154</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>11.80000019073486</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>11.90999984741211</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>11.72000026702881</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>11.78999996185303</v>
+      </c>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="n">
+        <v>12398963</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>11.82999992370605</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>12.51000022888184</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>11.80000019073486</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>12.07999992370605</v>
+      </c>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="n">
+        <v>104974944</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>12.05000019073486</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>12.02999973297119</v>
+      </c>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="n">
+        <v>24185680</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>11.80000019073486</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>11.98999977111816</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>11.78999996185303</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>11.84000015258789</v>
+      </c>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="n">
+        <v>16069804</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1017" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1d/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1017"/>
+  <dimension ref="A1:R1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56793,7 +56793,9 @@
       <c r="Q1009" t="n">
         <v>0</v>
       </c>
-      <c r="R1009" t="inlineStr"/>
+      <c r="R1009" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
@@ -56845,7 +56847,9 @@
       <c r="Q1010" t="n">
         <v>0</v>
       </c>
-      <c r="R1010" t="inlineStr"/>
+      <c r="R1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -56897,7 +56901,9 @@
       <c r="Q1011" t="n">
         <v>0</v>
       </c>
-      <c r="R1011" t="inlineStr"/>
+      <c r="R1011" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
@@ -56949,7 +56955,9 @@
       <c r="Q1012" t="n">
         <v>0</v>
       </c>
-      <c r="R1012" t="inlineStr"/>
+      <c r="R1012" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
@@ -57001,7 +57009,9 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57053,7 +57063,9 @@
       <c r="Q1014" t="n">
         <v>0</v>
       </c>
-      <c r="R1014" t="inlineStr"/>
+      <c r="R1014" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
@@ -57105,7 +57117,9 @@
       <c r="Q1015" t="n">
         <v>0</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -57157,7 +57171,9 @@
       <c r="Q1016" t="n">
         <v>0</v>
       </c>
-      <c r="R1016" t="inlineStr"/>
+      <c r="R1016" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
@@ -57209,7 +57225,529 @@
       <c r="Q1017" t="n">
         <v>0</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>11.85000038146973</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>13.46000003814697</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>11.78999996185303</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>12.89000034332275</v>
+      </c>
+      <c r="F1018" t="inlineStr"/>
+      <c r="G1018" t="n">
+        <v>264537910</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>12.69999980926514</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>12.69999980926514</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>12.05000019073486</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>12.14999961853027</v>
+      </c>
+      <c r="F1019" t="inlineStr"/>
+      <c r="G1019" t="n">
+        <v>28759644</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>11.86999988555908</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>12.39000034332275</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>11.82999992370605</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="n">
+        <v>29066832</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>12.28999996185303</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>12.47999954223633</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>12.05000019073486</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>12.11999988555908</v>
+      </c>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="n">
+        <v>35943761</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>11.55000019073486</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>11.92000007629395</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>11.55000019073486</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>11.76000022888184</v>
+      </c>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="n">
+        <v>18218159</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>12.27000045776367</v>
+      </c>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="n">
+        <v>23281959</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>12.38000011444092</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>12.39000034332275</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>12.18000030517578</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>12.3100004196167</v>
+      </c>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="n">
+        <v>11203097</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>12.14999961853027</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>12.21000003814697</v>
+      </c>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="n">
+        <v>27494206</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>12.31999969482422</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>12.42000007629395</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>11.80000019073486</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>11.92000007629395</v>
+      </c>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="n">
+        <v>97882918</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>11.84000015258789</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>12.21000003814697</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>11.80000019073486</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>11.92000007629395</v>
+      </c>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="n">
+        <v>131047579</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
